--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_4人員検索画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_4人員検索画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51581533-A5AE-41E7-BB8D-738F79E059D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38645EF2-5EE7-4CAB-8AC1-99031EDE03CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="149">
   <si>
     <t>作成日</t>
   </si>
@@ -225,10 +225,6 @@
   </si>
   <si>
     <t>Undelivered_Check</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>UserId_Text</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -615,25 +611,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>入力制限なし。半角6文字分</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>検索結果の一覧表示。詳細はグリッド内容例参照</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -854,29 +831,6 @@
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>int[] personnelStatusList, string userId</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>検索項目の人員ステータス、人員IDを設定します。</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジンイン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジンイン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -955,38 +909,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>SELECT *
-FROM Personnel
-WHERE status IN("待機中","配達中","配達済み",
-           "配達完了","未配達"), 
-AND userId = "人員ID";</t>
-    <rPh sb="41" eb="44">
-      <t>タイキチュウ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>ハイタツチュウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ハイタツ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ハイタツ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>ミハイタツ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ジンイン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>配達人員ステータス・人員IDを検索条件で検索して、グリッドに一覧表示する。</t>
     <rPh sb="0" eb="2">
       <t>ハイタツ</t>
@@ -1111,23 +1033,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t xml:space="preserve">配達人員ステータス・人員IDを条件として検索する。
-</t>
-    <rPh sb="0" eb="4">
-      <t>ハイタツジンイン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジンイン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>人員検索・一覧表示する。
 人員データ構造体を使用しています。詳細は別紙「DS構造体詳細設計書.xlsx」の「人員データ（PERSONNEL_DATA）」を参照してください。</t>
     <rPh sb="0" eb="2">
@@ -1173,6 +1078,108 @@
   </si>
   <si>
     <t>Search</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入力制限なし。半角10文字分</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>PersonnelId_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>PersonnelId_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SELECT *
+FROM Personnel
+WHERE status IN("待機中","配達中","配達済み",
+           "配達完了","未配達"), 
+AND personnelId = "人員ID";</t>
+    <rPh sb="41" eb="44">
+      <t>タイキチュウ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ハイタツチュウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハイタツ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ハイタツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ミハイタツ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DataSet data</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>配達人員ステータス・人員IDを条件として検索する。
+検索結果をdataとして戻す。</t>
+    <rPh sb="0" eb="4">
+      <t>ハイタツジンイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジンイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Exception：「重大なエラーが起きました。システム管理者に連絡してください。」</t>
+    <rPh sb="43" eb="45">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ケン</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1479,15 +1486,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1505,6 +1503,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1512,10 +1519,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1985,7 +1992,7 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1993,7 +2000,7 @@
               </a:rPr>
               <a:t>待機中</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:endParaRPr>
           </a:p>
@@ -2188,7 +2195,7 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2196,7 +2203,7 @@
               </a:rPr>
               <a:t>配達中</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:endParaRPr>
           </a:p>
@@ -2391,7 +2398,7 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2399,7 +2406,7 @@
               </a:rPr>
               <a:t>配達済み</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:endParaRPr>
           </a:p>
@@ -2594,7 +2601,7 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2602,7 +2609,7 @@
               </a:rPr>
               <a:t>配達完了</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:endParaRPr>
           </a:p>
@@ -3224,7 +3231,7 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1200" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3232,7 +3239,7 @@
               </a:rPr>
               <a:t>未配達</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:endParaRPr>
           </a:p>
@@ -3313,7 +3320,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>91</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:colOff>274319</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:to>
@@ -3331,9 +3338,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="155502" y="5238491"/>
-          <a:ext cx="25729637" cy="1169931"/>
+          <a:ext cx="25775357" cy="1169931"/>
           <a:chOff x="163411" y="5243355"/>
-          <a:chExt cx="25716249" cy="1157445"/>
+          <a:chExt cx="25761945" cy="1157445"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3349,8 +3356,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="274320" y="5364480"/>
-            <a:ext cx="25605340" cy="1036320"/>
+            <a:off x="274319" y="5364480"/>
+            <a:ext cx="25651037" cy="1036320"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4164,7 +4171,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="19894990" y="5463540"/>
-            <a:ext cx="1104902" cy="251460"/>
+            <a:ext cx="1232265" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4241,7 +4248,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="21037990" y="5463540"/>
+            <a:off x="21159846" y="5463540"/>
             <a:ext cx="3070862" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5082,7 +5089,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="19902612" y="5753100"/>
-            <a:ext cx="1097280" cy="251460"/>
+            <a:ext cx="1223765" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5123,7 +5130,7 @@
               <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>SYS999999</a:t>
+              <a:t>SYS9999999</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
@@ -5144,7 +5151,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="21037992" y="5753100"/>
+            <a:off x="21159848" y="5753100"/>
             <a:ext cx="3078480" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6042,7 +6049,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="19909045" y="6021874"/>
-            <a:ext cx="1097280" cy="251460"/>
+            <a:ext cx="1223765" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -6083,7 +6090,7 @@
               <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>STR999999</a:t>
+              <a:t>STR9999999</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
@@ -6104,7 +6111,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="21044425" y="6021874"/>
+            <a:off x="21166282" y="6021874"/>
             <a:ext cx="3078480" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6167,7 +6174,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="24145328" y="5463540"/>
+            <a:off x="24267185" y="5463540"/>
             <a:ext cx="1597243" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6238,7 +6245,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="24145342" y="5753100"/>
+            <a:off x="24267199" y="5753100"/>
             <a:ext cx="1601205" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6300,7 +6307,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="24151764" y="6021873"/>
+            <a:off x="24273620" y="6021873"/>
             <a:ext cx="1601205" cy="251460"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -9687,7 +9694,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -9914,13 +9921,13 @@
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
       <c r="L51" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
@@ -9931,7 +9938,7 @@
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
       <c r="U51" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V51" s="29"/>
       <c r="W51" s="29"/>
@@ -9959,13 +9966,13 @@
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
@@ -9976,7 +9983,7 @@
       <c r="S52" s="29"/>
       <c r="T52" s="29"/>
       <c r="U52" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V52" s="29"/>
       <c r="W52" s="29"/>
@@ -10004,13 +10011,13 @@
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
@@ -10021,7 +10028,7 @@
       <c r="S53" s="29"/>
       <c r="T53" s="29"/>
       <c r="U53" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V53" s="29"/>
       <c r="W53" s="29"/>
@@ -10049,13 +10056,13 @@
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
@@ -10066,7 +10073,7 @@
       <c r="S54" s="29"/>
       <c r="T54" s="29"/>
       <c r="U54" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V54" s="29"/>
       <c r="W54" s="29"/>
@@ -10094,13 +10101,13 @@
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M55" s="29"/>
       <c r="N55" s="29"/>
@@ -10111,7 +10118,7 @@
       <c r="S55" s="29"/>
       <c r="T55" s="29"/>
       <c r="U55" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V55" s="29"/>
       <c r="W55" s="29"/>
@@ -10139,13 +10146,13 @@
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
       <c r="L56" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M56" s="29"/>
       <c r="N56" s="29"/>
@@ -10156,7 +10163,7 @@
       <c r="S56" s="29"/>
       <c r="T56" s="29"/>
       <c r="U56" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V56" s="29"/>
       <c r="W56" s="29"/>
@@ -10184,13 +10191,13 @@
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
       <c r="L57" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M57" s="29"/>
       <c r="N57" s="29"/>
@@ -10201,7 +10208,7 @@
       <c r="S57" s="29"/>
       <c r="T57" s="29"/>
       <c r="U57" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V57" s="29"/>
       <c r="W57" s="29"/>
@@ -10221,7 +10228,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -10229,13 +10236,13 @@
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
       <c r="H58" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
       <c r="L58" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M58" s="29"/>
       <c r="N58" s="29"/>
@@ -10246,7 +10253,7 @@
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
       <c r="U58" s="29" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="V58" s="29"/>
       <c r="W58" s="29"/>
@@ -10266,7 +10273,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -10274,13 +10281,13 @@
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
@@ -10291,7 +10298,7 @@
       <c r="S59" s="29"/>
       <c r="T59" s="29"/>
       <c r="U59" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="V59" s="29"/>
       <c r="W59" s="29"/>
@@ -10311,7 +10318,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -10319,13 +10326,13 @@
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I60" s="29"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M60" s="29"/>
       <c r="N60" s="29"/>
@@ -10336,7 +10343,7 @@
       <c r="S60" s="29"/>
       <c r="T60" s="29"/>
       <c r="U60" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V60" s="29"/>
       <c r="W60" s="29"/>
@@ -10356,7 +10363,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -10364,13 +10371,13 @@
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M61" s="29"/>
       <c r="N61" s="29"/>
@@ -10381,7 +10388,7 @@
       <c r="S61" s="29"/>
       <c r="T61" s="29"/>
       <c r="U61" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V61" s="29"/>
       <c r="W61" s="29"/>
@@ -10401,7 +10408,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -10409,13 +10416,13 @@
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
       <c r="L62" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M62" s="29"/>
       <c r="N62" s="29"/>
@@ -10426,7 +10433,7 @@
       <c r="S62" s="29"/>
       <c r="T62" s="29"/>
       <c r="U62" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V62" s="29"/>
       <c r="W62" s="29"/>
@@ -10446,7 +10453,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
@@ -10454,13 +10461,13 @@
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
       <c r="L63" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
@@ -10471,7 +10478,7 @@
       <c r="S63" s="29"/>
       <c r="T63" s="29"/>
       <c r="U63" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V63" s="29"/>
       <c r="W63" s="29"/>
@@ -10491,7 +10498,7 @@
         <v>14</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
@@ -10499,13 +10506,13 @@
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
       <c r="L64" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M64" s="29"/>
       <c r="N64" s="29"/>
@@ -10516,7 +10523,7 @@
       <c r="S64" s="29"/>
       <c r="T64" s="29"/>
       <c r="U64" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V64" s="29"/>
       <c r="W64" s="29"/>
@@ -10536,7 +10543,7 @@
         <v>15</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
@@ -10544,13 +10551,13 @@
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
       <c r="L65" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M65" s="29"/>
       <c r="N65" s="29"/>
@@ -10561,7 +10568,7 @@
       <c r="S65" s="29"/>
       <c r="T65" s="29"/>
       <c r="U65" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V65" s="29"/>
       <c r="W65" s="29"/>
@@ -10581,7 +10588,7 @@
         <v>16</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
@@ -10589,13 +10596,13 @@
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
       <c r="L66" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M66" s="29"/>
       <c r="N66" s="29"/>
@@ -10606,7 +10613,7 @@
       <c r="S66" s="29"/>
       <c r="T66" s="29"/>
       <c r="U66" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V66" s="29"/>
       <c r="W66" s="29"/>
@@ -10626,7 +10633,7 @@
         <v>17</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
@@ -10634,13 +10641,13 @@
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
       <c r="L67" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M67" s="29"/>
       <c r="N67" s="29"/>
@@ -10651,7 +10658,7 @@
       <c r="S67" s="29"/>
       <c r="T67" s="29"/>
       <c r="U67" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V67" s="29"/>
       <c r="W67" s="29"/>
@@ -10671,7 +10678,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
@@ -10679,13 +10686,13 @@
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
       <c r="L68" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M68" s="29"/>
       <c r="N68" s="29"/>
@@ -10696,7 +10703,7 @@
       <c r="S68" s="29"/>
       <c r="T68" s="29"/>
       <c r="U68" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V68" s="29"/>
       <c r="W68" s="29"/>
@@ -10716,7 +10723,7 @@
         <v>19</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
@@ -10724,13 +10731,13 @@
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
       <c r="L69" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M69" s="29"/>
       <c r="N69" s="29"/>
@@ -10741,7 +10748,7 @@
       <c r="S69" s="29"/>
       <c r="T69" s="29"/>
       <c r="U69" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V69" s="29"/>
       <c r="W69" s="29"/>
@@ -10761,7 +10768,7 @@
         <v>20</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
@@ -10769,13 +10776,13 @@
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M70" s="29"/>
       <c r="N70" s="29"/>
@@ -10786,7 +10793,7 @@
       <c r="S70" s="29"/>
       <c r="T70" s="29"/>
       <c r="U70" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V70" s="29"/>
       <c r="W70" s="29"/>
@@ -10806,7 +10813,7 @@
         <v>21</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
@@ -10814,13 +10821,13 @@
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M71" s="29"/>
       <c r="N71" s="29"/>
@@ -10831,7 +10838,7 @@
       <c r="S71" s="29"/>
       <c r="T71" s="29"/>
       <c r="U71" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V71" s="29"/>
       <c r="W71" s="29"/>
@@ -10851,7 +10858,7 @@
         <v>22</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
@@ -10859,13 +10866,13 @@
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M72" s="29"/>
       <c r="N72" s="29"/>
@@ -10876,7 +10883,7 @@
       <c r="S72" s="29"/>
       <c r="T72" s="29"/>
       <c r="U72" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V72" s="29"/>
       <c r="W72" s="29"/>
@@ -10896,7 +10903,7 @@
         <v>23</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
@@ -10904,13 +10911,13 @@
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M73" s="29"/>
       <c r="N73" s="29"/>
@@ -10921,7 +10928,7 @@
       <c r="S73" s="29"/>
       <c r="T73" s="29"/>
       <c r="U73" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V73" s="29"/>
       <c r="W73" s="29"/>
@@ -10941,7 +10948,7 @@
         <v>24</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -10949,13 +10956,13 @@
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
       <c r="L74" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M74" s="29"/>
       <c r="N74" s="29"/>
@@ -10966,7 +10973,7 @@
       <c r="S74" s="29"/>
       <c r="T74" s="29"/>
       <c r="U74" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V74" s="29"/>
       <c r="W74" s="29"/>
@@ -10986,7 +10993,7 @@
         <v>25</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
@@ -10994,13 +11001,13 @@
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M75" s="29"/>
       <c r="N75" s="29"/>
@@ -11011,7 +11018,7 @@
       <c r="S75" s="29"/>
       <c r="T75" s="29"/>
       <c r="U75" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V75" s="29"/>
       <c r="W75" s="29"/>
@@ -11031,7 +11038,7 @@
         <v>26</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
@@ -11039,13 +11046,13 @@
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M76" s="29"/>
       <c r="N76" s="29"/>
@@ -11056,7 +11063,7 @@
       <c r="S76" s="29"/>
       <c r="T76" s="29"/>
       <c r="U76" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V76" s="29"/>
       <c r="W76" s="29"/>
@@ -11076,7 +11083,7 @@
         <v>27</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
@@ -11084,13 +11091,13 @@
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
       <c r="L77" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M77" s="29"/>
       <c r="N77" s="29"/>
@@ -11101,7 +11108,7 @@
       <c r="S77" s="29"/>
       <c r="T77" s="29"/>
       <c r="U77" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V77" s="29"/>
       <c r="W77" s="29"/>
@@ -11121,7 +11128,7 @@
         <v>28</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
@@ -11129,13 +11136,13 @@
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M78" s="29"/>
       <c r="N78" s="29"/>
@@ -11146,7 +11153,7 @@
       <c r="S78" s="29"/>
       <c r="T78" s="29"/>
       <c r="U78" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V78" s="29"/>
       <c r="W78" s="29"/>
@@ -11166,7 +11173,7 @@
         <v>29</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
@@ -11174,13 +11181,13 @@
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
       <c r="L79" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M79" s="29"/>
       <c r="N79" s="29"/>
@@ -11191,7 +11198,7 @@
       <c r="S79" s="29"/>
       <c r="T79" s="29"/>
       <c r="U79" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V79" s="29"/>
       <c r="W79" s="29"/>
@@ -11211,7 +11218,7 @@
         <v>30</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
@@ -11219,13 +11226,13 @@
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M80" s="29"/>
       <c r="N80" s="29"/>
@@ -11236,7 +11243,7 @@
       <c r="S80" s="29"/>
       <c r="T80" s="29"/>
       <c r="U80" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V80" s="29"/>
       <c r="W80" s="29"/>
@@ -11256,7 +11263,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
@@ -11264,13 +11271,13 @@
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
       <c r="K81" s="29"/>
       <c r="L81" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M81" s="29"/>
       <c r="N81" s="29"/>
@@ -11281,7 +11288,7 @@
       <c r="S81" s="29"/>
       <c r="T81" s="29"/>
       <c r="U81" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -11301,7 +11308,7 @@
         <v>32</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
@@ -11309,13 +11316,13 @@
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
       <c r="K82" s="29"/>
       <c r="L82" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M82" s="29"/>
       <c r="N82" s="29"/>
@@ -11326,7 +11333,7 @@
       <c r="S82" s="29"/>
       <c r="T82" s="29"/>
       <c r="U82" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -11346,7 +11353,7 @@
         <v>33</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
@@ -11354,13 +11361,13 @@
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M83" s="29"/>
       <c r="N83" s="29"/>
@@ -11371,7 +11378,7 @@
       <c r="S83" s="29"/>
       <c r="T83" s="29"/>
       <c r="U83" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -11391,7 +11398,7 @@
         <v>34</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
@@ -11399,13 +11406,13 @@
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
       <c r="L84" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M84" s="29"/>
       <c r="N84" s="29"/>
@@ -11416,7 +11423,7 @@
       <c r="S84" s="29"/>
       <c r="T84" s="29"/>
       <c r="U84" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V84" s="29"/>
       <c r="W84" s="29"/>
@@ -11436,7 +11443,7 @@
         <v>35</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" s="29"/>
       <c r="D85" s="29"/>
@@ -11444,13 +11451,13 @@
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
       <c r="K85" s="29"/>
       <c r="L85" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M85" s="29"/>
       <c r="N85" s="29"/>
@@ -11461,7 +11468,7 @@
       <c r="S85" s="29"/>
       <c r="T85" s="29"/>
       <c r="U85" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V85" s="29"/>
       <c r="W85" s="29"/>
@@ -11481,7 +11488,7 @@
         <v>36</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
@@ -11489,13 +11496,13 @@
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
       <c r="K86" s="29"/>
       <c r="L86" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M86" s="29"/>
       <c r="N86" s="29"/>
@@ -11506,7 +11513,7 @@
       <c r="S86" s="29"/>
       <c r="T86" s="29"/>
       <c r="U86" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V86" s="29"/>
       <c r="W86" s="29"/>
@@ -11526,7 +11533,7 @@
         <v>37</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
@@ -11534,13 +11541,13 @@
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>
       <c r="K87" s="29"/>
       <c r="L87" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M87" s="29"/>
       <c r="N87" s="29"/>
@@ -11551,7 +11558,7 @@
       <c r="S87" s="29"/>
       <c r="T87" s="29"/>
       <c r="U87" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V87" s="29"/>
       <c r="W87" s="29"/>
@@ -11571,7 +11578,7 @@
         <v>38</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
@@ -11579,13 +11586,13 @@
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I88" s="29"/>
       <c r="J88" s="29"/>
       <c r="K88" s="29"/>
       <c r="L88" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M88" s="29"/>
       <c r="N88" s="29"/>
@@ -11596,7 +11603,7 @@
       <c r="S88" s="29"/>
       <c r="T88" s="29"/>
       <c r="U88" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V88" s="29"/>
       <c r="W88" s="29"/>
@@ -11616,7 +11623,7 @@
         <v>39</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
@@ -11624,13 +11631,13 @@
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I89" s="29"/>
       <c r="J89" s="29"/>
       <c r="K89" s="29"/>
       <c r="L89" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M89" s="29"/>
       <c r="N89" s="29"/>
@@ -11641,7 +11648,7 @@
       <c r="S89" s="29"/>
       <c r="T89" s="29"/>
       <c r="U89" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V89" s="29"/>
       <c r="W89" s="29"/>
@@ -11661,7 +11668,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
@@ -11669,13 +11676,13 @@
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I90" s="29"/>
       <c r="J90" s="29"/>
       <c r="K90" s="29"/>
       <c r="L90" s="29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M90" s="29"/>
       <c r="N90" s="29"/>
@@ -11686,7 +11693,7 @@
       <c r="S90" s="29"/>
       <c r="T90" s="29"/>
       <c r="U90" s="29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V90" s="29"/>
       <c r="W90" s="29"/>
@@ -11706,7 +11713,7 @@
         <v>41</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
@@ -11714,13 +11721,13 @@
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
       <c r="L91" s="29" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M91" s="29"/>
       <c r="N91" s="29"/>
@@ -11731,7 +11738,7 @@
       <c r="S91" s="29"/>
       <c r="T91" s="29"/>
       <c r="U91" s="29" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="V91" s="29"/>
       <c r="W91" s="29"/>
@@ -11895,22 +11902,152 @@
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:T95"/>
-    <mergeCell ref="U95:AF95"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:T92"/>
-    <mergeCell ref="U92:AF92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:T93"/>
-    <mergeCell ref="U93:AF93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:T94"/>
-    <mergeCell ref="U94:AF94"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:T89"/>
+    <mergeCell ref="U89:AF89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:T90"/>
+    <mergeCell ref="U90:AF90"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:T87"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:T88"/>
+    <mergeCell ref="U88:AF88"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:T85"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:T86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:T83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:T84"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:T81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:T82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:T77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AF75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:T76"/>
+    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:T74"/>
+    <mergeCell ref="U74:AF74"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="U63:AF63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:T59"/>
+    <mergeCell ref="U59:AF59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:T58"/>
+    <mergeCell ref="U58:AF58"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
     <mergeCell ref="A42:AF42"/>
     <mergeCell ref="A43:AF47"/>
     <mergeCell ref="B50:G50"/>
@@ -11935,152 +12072,22 @@
     <mergeCell ref="U51:AF51"/>
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:T58"/>
-    <mergeCell ref="U58:AF58"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:T59"/>
-    <mergeCell ref="U59:AF59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="U63:AF63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:T69"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:T70"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:T67"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:T73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:T74"/>
-    <mergeCell ref="U74:AF74"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:T71"/>
-    <mergeCell ref="U71:AF71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:T72"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:T77"/>
-    <mergeCell ref="U77:AF77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:T78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AF75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:T76"/>
-    <mergeCell ref="U76:AF76"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:T81"/>
-    <mergeCell ref="U81:AF81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:T82"/>
-    <mergeCell ref="U82:AF82"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:T79"/>
-    <mergeCell ref="U79:AF79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:T80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:T85"/>
-    <mergeCell ref="U85:AF85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:T86"/>
-    <mergeCell ref="U86:AF86"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:T83"/>
-    <mergeCell ref="U83:AF83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:T84"/>
-    <mergeCell ref="U84:AF84"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:T89"/>
-    <mergeCell ref="U89:AF89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:T90"/>
-    <mergeCell ref="U90:AF90"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:T87"/>
-    <mergeCell ref="U87:AF87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:T88"/>
-    <mergeCell ref="U88:AF88"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:T95"/>
+    <mergeCell ref="U95:AF95"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:T92"/>
+    <mergeCell ref="U92:AF92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:T93"/>
+    <mergeCell ref="U93:AF93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:T94"/>
+    <mergeCell ref="U94:AF94"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12093,7 +12100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12158,7 +12165,7 @@
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12277,20 +12284,20 @@
         <v>11</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="32" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="30" t="s">
         <v>5</v>
       </c>
@@ -12338,58 +12345,58 @@
       <c r="BA5" s="30"/>
       <c r="BB5" s="30"/>
       <c r="BC5" s="30"/>
-      <c r="BD5" s="32" t="s">
+      <c r="BD5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="34"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="39"/>
+      <c r="BM5" s="39"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="39"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="39"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="39"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="39"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="39"/>
+      <c r="BX5" s="39"/>
+      <c r="BY5" s="39"/>
+      <c r="BZ5" s="39"/>
+      <c r="CA5" s="39"/>
+      <c r="CB5" s="39"/>
+      <c r="CC5" s="39"/>
+      <c r="CD5" s="39"/>
+      <c r="CE5" s="40"/>
     </row>
     <row r="6" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>1</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
@@ -12409,7 +12416,7 @@
       <c r="AC6" s="29"/>
       <c r="AD6" s="29"/>
       <c r="AE6" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
@@ -12435,36 +12442,36 @@
       <c r="BA6" s="29"/>
       <c r="BB6" s="29"/>
       <c r="BC6" s="29"/>
-      <c r="BD6" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="36"/>
-      <c r="BM6" s="36"/>
-      <c r="BN6" s="36"/>
-      <c r="BO6" s="36"/>
-      <c r="BP6" s="36"/>
-      <c r="BQ6" s="36"/>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="36"/>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="36"/>
-      <c r="CA6" s="36"/>
-      <c r="CB6" s="36"/>
-      <c r="CC6" s="36"/>
-      <c r="CD6" s="36"/>
-      <c r="CE6" s="37"/>
+      <c r="BD6" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE6" s="33"/>
+      <c r="BF6" s="33"/>
+      <c r="BG6" s="33"/>
+      <c r="BH6" s="33"/>
+      <c r="BI6" s="33"/>
+      <c r="BJ6" s="33"/>
+      <c r="BK6" s="33"/>
+      <c r="BL6" s="33"/>
+      <c r="BM6" s="33"/>
+      <c r="BN6" s="33"/>
+      <c r="BO6" s="33"/>
+      <c r="BP6" s="33"/>
+      <c r="BQ6" s="33"/>
+      <c r="BR6" s="33"/>
+      <c r="BS6" s="33"/>
+      <c r="BT6" s="33"/>
+      <c r="BU6" s="33"/>
+      <c r="BV6" s="33"/>
+      <c r="BW6" s="33"/>
+      <c r="BX6" s="33"/>
+      <c r="BY6" s="33"/>
+      <c r="BZ6" s="33"/>
+      <c r="CA6" s="33"/>
+      <c r="CB6" s="33"/>
+      <c r="CC6" s="33"/>
+      <c r="CD6" s="33"/>
+      <c r="CE6" s="34"/>
     </row>
     <row r="7" spans="1:83" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
@@ -12472,23 +12479,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="29" t="s">
-        <v>119</v>
-      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -12506,9 +12507,7 @@
       <c r="AB7" s="29"/>
       <c r="AC7" s="29"/>
       <c r="AD7" s="29"/>
-      <c r="AE7" s="29" t="s">
-        <v>120</v>
-      </c>
+      <c r="AE7" s="29"/>
       <c r="AF7" s="29"/>
       <c r="AG7" s="29"/>
       <c r="AH7" s="29"/>
@@ -12533,36 +12532,34 @@
       <c r="BA7" s="29"/>
       <c r="BB7" s="29"/>
       <c r="BC7" s="29"/>
-      <c r="BD7" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="36"/>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="36"/>
-      <c r="BQ7" s="36"/>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="36"/>
-      <c r="BT7" s="36"/>
-      <c r="BU7" s="36"/>
-      <c r="BV7" s="36"/>
-      <c r="BW7" s="36"/>
-      <c r="BX7" s="36"/>
-      <c r="BY7" s="36"/>
-      <c r="BZ7" s="36"/>
-      <c r="CA7" s="36"/>
-      <c r="CB7" s="36"/>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="37"/>
+      <c r="BD7" s="32"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="33"/>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="33"/>
+      <c r="BM7" s="33"/>
+      <c r="BN7" s="33"/>
+      <c r="BO7" s="33"/>
+      <c r="BP7" s="33"/>
+      <c r="BQ7" s="33"/>
+      <c r="BR7" s="33"/>
+      <c r="BS7" s="33"/>
+      <c r="BT7" s="33"/>
+      <c r="BU7" s="33"/>
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="33"/>
+      <c r="BY7" s="33"/>
+      <c r="BZ7" s="33"/>
+      <c r="CA7" s="33"/>
+      <c r="CB7" s="33"/>
+      <c r="CC7" s="33"/>
+      <c r="CD7" s="33"/>
+      <c r="CE7" s="34"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
@@ -12570,16 +12567,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
@@ -12623,34 +12620,34 @@
       <c r="BA8" s="29"/>
       <c r="BB8" s="29"/>
       <c r="BC8" s="29"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="36"/>
-      <c r="BF8" s="36"/>
-      <c r="BG8" s="36"/>
-      <c r="BH8" s="36"/>
-      <c r="BI8" s="36"/>
-      <c r="BJ8" s="36"/>
-      <c r="BK8" s="36"/>
-      <c r="BL8" s="36"/>
-      <c r="BM8" s="36"/>
-      <c r="BN8" s="36"/>
-      <c r="BO8" s="36"/>
-      <c r="BP8" s="36"/>
-      <c r="BQ8" s="36"/>
-      <c r="BR8" s="36"/>
-      <c r="BS8" s="36"/>
-      <c r="BT8" s="36"/>
-      <c r="BU8" s="36"/>
-      <c r="BV8" s="36"/>
-      <c r="BW8" s="36"/>
-      <c r="BX8" s="36"/>
-      <c r="BY8" s="36"/>
-      <c r="BZ8" s="36"/>
-      <c r="CA8" s="36"/>
-      <c r="CB8" s="36"/>
-      <c r="CC8" s="36"/>
-      <c r="CD8" s="36"/>
-      <c r="CE8" s="37"/>
+      <c r="BD8" s="32"/>
+      <c r="BE8" s="33"/>
+      <c r="BF8" s="33"/>
+      <c r="BG8" s="33"/>
+      <c r="BH8" s="33"/>
+      <c r="BI8" s="33"/>
+      <c r="BJ8" s="33"/>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="33"/>
+      <c r="BM8" s="33"/>
+      <c r="BN8" s="33"/>
+      <c r="BO8" s="33"/>
+      <c r="BP8" s="33"/>
+      <c r="BQ8" s="33"/>
+      <c r="BR8" s="33"/>
+      <c r="BS8" s="33"/>
+      <c r="BT8" s="33"/>
+      <c r="BU8" s="33"/>
+      <c r="BV8" s="33"/>
+      <c r="BW8" s="33"/>
+      <c r="BX8" s="33"/>
+      <c r="BY8" s="33"/>
+      <c r="BZ8" s="33"/>
+      <c r="CA8" s="33"/>
+      <c r="CB8" s="33"/>
+      <c r="CC8" s="33"/>
+      <c r="CD8" s="33"/>
+      <c r="CE8" s="34"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -12771,20 +12768,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="30" t="s">
         <v>10</v>
       </c>
@@ -12836,56 +12833,56 @@
       <c r="BA11" s="30"/>
       <c r="BB11" s="30"/>
       <c r="BC11" s="30"/>
-      <c r="BD11" s="32" t="s">
+      <c r="BD11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="33"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="33"/>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="33"/>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="33"/>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="33"/>
-      <c r="BU11" s="33"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="33"/>
-      <c r="BX11" s="33"/>
-      <c r="BY11" s="33"/>
-      <c r="BZ11" s="33"/>
-      <c r="CA11" s="33"/>
-      <c r="CB11" s="33"/>
-      <c r="CC11" s="33"/>
-      <c r="CD11" s="33"/>
-      <c r="CE11" s="34"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="39"/>
+      <c r="BH11" s="39"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="39"/>
+      <c r="BK11" s="39"/>
+      <c r="BL11" s="39"/>
+      <c r="BM11" s="39"/>
+      <c r="BN11" s="39"/>
+      <c r="BO11" s="39"/>
+      <c r="BP11" s="39"/>
+      <c r="BQ11" s="39"/>
+      <c r="BR11" s="39"/>
+      <c r="BS11" s="39"/>
+      <c r="BT11" s="39"/>
+      <c r="BU11" s="39"/>
+      <c r="BV11" s="39"/>
+      <c r="BW11" s="39"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="39"/>
+      <c r="BZ11" s="39"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="39"/>
+      <c r="CC11" s="39"/>
+      <c r="CD11" s="39"/>
+      <c r="CE11" s="40"/>
     </row>
     <row r="12" spans="1:83" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>1</v>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
       <c r="M12" s="29" t="s">
         <v>14</v>
       </c>
@@ -12898,7 +12895,7 @@
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -12909,7 +12906,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="29" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AF12" s="29"/>
       <c r="AG12" s="29"/>
@@ -12920,7 +12917,7 @@
       <c r="AL12" s="29"/>
       <c r="AM12" s="29"/>
       <c r="AN12" s="29" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AO12" s="29"/>
       <c r="AP12" s="29"/>
@@ -12937,36 +12934,36 @@
       <c r="BA12" s="29"/>
       <c r="BB12" s="29"/>
       <c r="BC12" s="29"/>
-      <c r="BD12" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE12" s="36"/>
-      <c r="BF12" s="36"/>
-      <c r="BG12" s="36"/>
-      <c r="BH12" s="36"/>
-      <c r="BI12" s="36"/>
-      <c r="BJ12" s="36"/>
-      <c r="BK12" s="36"/>
-      <c r="BL12" s="36"/>
-      <c r="BM12" s="36"/>
-      <c r="BN12" s="36"/>
-      <c r="BO12" s="36"/>
-      <c r="BP12" s="36"/>
-      <c r="BQ12" s="36"/>
-      <c r="BR12" s="36"/>
-      <c r="BS12" s="36"/>
-      <c r="BT12" s="36"/>
-      <c r="BU12" s="36"/>
-      <c r="BV12" s="36"/>
-      <c r="BW12" s="36"/>
-      <c r="BX12" s="36"/>
-      <c r="BY12" s="36"/>
-      <c r="BZ12" s="36"/>
-      <c r="CA12" s="36"/>
-      <c r="CB12" s="36"/>
-      <c r="CC12" s="36"/>
-      <c r="CD12" s="36"/>
-      <c r="CE12" s="37"/>
+      <c r="BD12" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="33"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="33"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="33"/>
+      <c r="BM12" s="33"/>
+      <c r="BN12" s="33"/>
+      <c r="BO12" s="33"/>
+      <c r="BP12" s="33"/>
+      <c r="BQ12" s="33"/>
+      <c r="BR12" s="33"/>
+      <c r="BS12" s="33"/>
+      <c r="BT12" s="33"/>
+      <c r="BU12" s="33"/>
+      <c r="BV12" s="33"/>
+      <c r="BW12" s="33"/>
+      <c r="BX12" s="33"/>
+      <c r="BY12" s="33"/>
+      <c r="BZ12" s="33"/>
+      <c r="CA12" s="33"/>
+      <c r="CB12" s="33"/>
+      <c r="CC12" s="33"/>
+      <c r="CD12" s="33"/>
+      <c r="CE12" s="34"/>
     </row>
     <row r="13" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
@@ -12974,22 +12971,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="31"/>
-      <c r="C13" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
+      <c r="C13" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
@@ -13000,7 +12997,7 @@
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
       <c r="V13" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -13011,7 +13008,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF13" s="29"/>
       <c r="AG13" s="29"/>
@@ -13022,7 +13019,7 @@
       <c r="AL13" s="29"/>
       <c r="AM13" s="29"/>
       <c r="AN13" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AO13" s="29"/>
       <c r="AP13" s="29"/>
@@ -13039,36 +13036,36 @@
       <c r="BA13" s="29"/>
       <c r="BB13" s="29"/>
       <c r="BC13" s="29"/>
-      <c r="BD13" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE13" s="36"/>
-      <c r="BF13" s="36"/>
-      <c r="BG13" s="36"/>
-      <c r="BH13" s="36"/>
-      <c r="BI13" s="36"/>
-      <c r="BJ13" s="36"/>
-      <c r="BK13" s="36"/>
-      <c r="BL13" s="36"/>
-      <c r="BM13" s="36"/>
-      <c r="BN13" s="36"/>
-      <c r="BO13" s="36"/>
-      <c r="BP13" s="36"/>
-      <c r="BQ13" s="36"/>
-      <c r="BR13" s="36"/>
-      <c r="BS13" s="36"/>
-      <c r="BT13" s="36"/>
-      <c r="BU13" s="36"/>
-      <c r="BV13" s="36"/>
-      <c r="BW13" s="36"/>
-      <c r="BX13" s="36"/>
-      <c r="BY13" s="36"/>
-      <c r="BZ13" s="36"/>
-      <c r="CA13" s="36"/>
-      <c r="CB13" s="36"/>
-      <c r="CC13" s="36"/>
-      <c r="CD13" s="36"/>
-      <c r="CE13" s="37"/>
+      <c r="BD13" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="33"/>
+      <c r="BG13" s="33"/>
+      <c r="BH13" s="33"/>
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="33"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="33"/>
+      <c r="BM13" s="33"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="33"/>
+      <c r="BP13" s="33"/>
+      <c r="BQ13" s="33"/>
+      <c r="BR13" s="33"/>
+      <c r="BS13" s="33"/>
+      <c r="BT13" s="33"/>
+      <c r="BU13" s="33"/>
+      <c r="BV13" s="33"/>
+      <c r="BW13" s="33"/>
+      <c r="BX13" s="33"/>
+      <c r="BY13" s="33"/>
+      <c r="BZ13" s="33"/>
+      <c r="CA13" s="33"/>
+      <c r="CB13" s="33"/>
+      <c r="CC13" s="33"/>
+      <c r="CD13" s="33"/>
+      <c r="CE13" s="34"/>
     </row>
     <row r="14" spans="1:83" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
@@ -13076,22 +13073,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
+      <c r="C14" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
@@ -13102,7 +13099,7 @@
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
       <c r="V14" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -13113,7 +13110,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF14" s="29"/>
       <c r="AG14" s="29"/>
@@ -13124,7 +13121,7 @@
       <c r="AL14" s="29"/>
       <c r="AM14" s="29"/>
       <c r="AN14" s="29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AO14" s="29"/>
       <c r="AP14" s="29"/>
@@ -13141,36 +13138,36 @@
       <c r="BA14" s="29"/>
       <c r="BB14" s="29"/>
       <c r="BC14" s="29"/>
-      <c r="BD14" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
-      <c r="BH14" s="36"/>
-      <c r="BI14" s="36"/>
-      <c r="BJ14" s="36"/>
-      <c r="BK14" s="36"/>
-      <c r="BL14" s="36"/>
-      <c r="BM14" s="36"/>
-      <c r="BN14" s="36"/>
-      <c r="BO14" s="36"/>
-      <c r="BP14" s="36"/>
-      <c r="BQ14" s="36"/>
-      <c r="BR14" s="36"/>
-      <c r="BS14" s="36"/>
-      <c r="BT14" s="36"/>
-      <c r="BU14" s="36"/>
-      <c r="BV14" s="36"/>
-      <c r="BW14" s="36"/>
-      <c r="BX14" s="36"/>
-      <c r="BY14" s="36"/>
-      <c r="BZ14" s="36"/>
-      <c r="CA14" s="36"/>
-      <c r="CB14" s="36"/>
-      <c r="CC14" s="36"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="37"/>
+      <c r="BD14" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE14" s="33"/>
+      <c r="BF14" s="33"/>
+      <c r="BG14" s="33"/>
+      <c r="BH14" s="33"/>
+      <c r="BI14" s="33"/>
+      <c r="BJ14" s="33"/>
+      <c r="BK14" s="33"/>
+      <c r="BL14" s="33"/>
+      <c r="BM14" s="33"/>
+      <c r="BN14" s="33"/>
+      <c r="BO14" s="33"/>
+      <c r="BP14" s="33"/>
+      <c r="BQ14" s="33"/>
+      <c r="BR14" s="33"/>
+      <c r="BS14" s="33"/>
+      <c r="BT14" s="33"/>
+      <c r="BU14" s="33"/>
+      <c r="BV14" s="33"/>
+      <c r="BW14" s="33"/>
+      <c r="BX14" s="33"/>
+      <c r="BY14" s="33"/>
+      <c r="BZ14" s="33"/>
+      <c r="CA14" s="33"/>
+      <c r="CB14" s="33"/>
+      <c r="CC14" s="33"/>
+      <c r="CD14" s="33"/>
+      <c r="CE14" s="34"/>
     </row>
     <row r="15" spans="1:83" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
@@ -13178,22 +13175,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
@@ -13204,7 +13201,7 @@
       <c r="T15" s="29"/>
       <c r="U15" s="29"/>
       <c r="V15" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -13215,7 +13212,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF15" s="29"/>
       <c r="AG15" s="29"/>
@@ -13226,7 +13223,7 @@
       <c r="AL15" s="29"/>
       <c r="AM15" s="29"/>
       <c r="AN15" s="29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AO15" s="29"/>
       <c r="AP15" s="29"/>
@@ -13243,36 +13240,36 @@
       <c r="BA15" s="29"/>
       <c r="BB15" s="29"/>
       <c r="BC15" s="29"/>
-      <c r="BD15" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE15" s="36"/>
-      <c r="BF15" s="36"/>
-      <c r="BG15" s="36"/>
-      <c r="BH15" s="36"/>
-      <c r="BI15" s="36"/>
-      <c r="BJ15" s="36"/>
-      <c r="BK15" s="36"/>
-      <c r="BL15" s="36"/>
-      <c r="BM15" s="36"/>
-      <c r="BN15" s="36"/>
-      <c r="BO15" s="36"/>
-      <c r="BP15" s="36"/>
-      <c r="BQ15" s="36"/>
-      <c r="BR15" s="36"/>
-      <c r="BS15" s="36"/>
-      <c r="BT15" s="36"/>
-      <c r="BU15" s="36"/>
-      <c r="BV15" s="36"/>
-      <c r="BW15" s="36"/>
-      <c r="BX15" s="36"/>
-      <c r="BY15" s="36"/>
-      <c r="BZ15" s="36"/>
-      <c r="CA15" s="36"/>
-      <c r="CB15" s="36"/>
-      <c r="CC15" s="36"/>
-      <c r="CD15" s="36"/>
-      <c r="CE15" s="37"/>
+      <c r="BD15" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="33"/>
+      <c r="BG15" s="33"/>
+      <c r="BH15" s="33"/>
+      <c r="BI15" s="33"/>
+      <c r="BJ15" s="33"/>
+      <c r="BK15" s="33"/>
+      <c r="BL15" s="33"/>
+      <c r="BM15" s="33"/>
+      <c r="BN15" s="33"/>
+      <c r="BO15" s="33"/>
+      <c r="BP15" s="33"/>
+      <c r="BQ15" s="33"/>
+      <c r="BR15" s="33"/>
+      <c r="BS15" s="33"/>
+      <c r="BT15" s="33"/>
+      <c r="BU15" s="33"/>
+      <c r="BV15" s="33"/>
+      <c r="BW15" s="33"/>
+      <c r="BX15" s="33"/>
+      <c r="BY15" s="33"/>
+      <c r="BZ15" s="33"/>
+      <c r="CA15" s="33"/>
+      <c r="CB15" s="33"/>
+      <c r="CC15" s="33"/>
+      <c r="CD15" s="33"/>
+      <c r="CE15" s="34"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
@@ -13280,16 +13277,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="31"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
@@ -13333,34 +13330,34 @@
       <c r="BA16" s="29"/>
       <c r="BB16" s="29"/>
       <c r="BC16" s="29"/>
-      <c r="BD16" s="35"/>
-      <c r="BE16" s="36"/>
-      <c r="BF16" s="36"/>
-      <c r="BG16" s="36"/>
-      <c r="BH16" s="36"/>
-      <c r="BI16" s="36"/>
-      <c r="BJ16" s="36"/>
-      <c r="BK16" s="36"/>
-      <c r="BL16" s="36"/>
-      <c r="BM16" s="36"/>
-      <c r="BN16" s="36"/>
-      <c r="BO16" s="36"/>
-      <c r="BP16" s="36"/>
-      <c r="BQ16" s="36"/>
-      <c r="BR16" s="36"/>
-      <c r="BS16" s="36"/>
-      <c r="BT16" s="36"/>
-      <c r="BU16" s="36"/>
-      <c r="BV16" s="36"/>
-      <c r="BW16" s="36"/>
-      <c r="BX16" s="36"/>
-      <c r="BY16" s="36"/>
-      <c r="BZ16" s="36"/>
-      <c r="CA16" s="36"/>
-      <c r="CB16" s="36"/>
-      <c r="CC16" s="36"/>
-      <c r="CD16" s="36"/>
-      <c r="CE16" s="37"/>
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="33"/>
+      <c r="BG16" s="33"/>
+      <c r="BH16" s="33"/>
+      <c r="BI16" s="33"/>
+      <c r="BJ16" s="33"/>
+      <c r="BK16" s="33"/>
+      <c r="BL16" s="33"/>
+      <c r="BM16" s="33"/>
+      <c r="BN16" s="33"/>
+      <c r="BO16" s="33"/>
+      <c r="BP16" s="33"/>
+      <c r="BQ16" s="33"/>
+      <c r="BR16" s="33"/>
+      <c r="BS16" s="33"/>
+      <c r="BT16" s="33"/>
+      <c r="BU16" s="33"/>
+      <c r="BV16" s="33"/>
+      <c r="BW16" s="33"/>
+      <c r="BX16" s="33"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="33"/>
+      <c r="CA16" s="33"/>
+      <c r="CB16" s="33"/>
+      <c r="CC16" s="33"/>
+      <c r="CD16" s="33"/>
+      <c r="CE16" s="34"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
@@ -13368,16 +13365,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="31"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
@@ -13421,34 +13418,34 @@
       <c r="BA17" s="29"/>
       <c r="BB17" s="29"/>
       <c r="BC17" s="29"/>
-      <c r="BD17" s="35"/>
-      <c r="BE17" s="36"/>
-      <c r="BF17" s="36"/>
-      <c r="BG17" s="36"/>
-      <c r="BH17" s="36"/>
-      <c r="BI17" s="36"/>
-      <c r="BJ17" s="36"/>
-      <c r="BK17" s="36"/>
-      <c r="BL17" s="36"/>
-      <c r="BM17" s="36"/>
-      <c r="BN17" s="36"/>
-      <c r="BO17" s="36"/>
-      <c r="BP17" s="36"/>
-      <c r="BQ17" s="36"/>
-      <c r="BR17" s="36"/>
-      <c r="BS17" s="36"/>
-      <c r="BT17" s="36"/>
-      <c r="BU17" s="36"/>
-      <c r="BV17" s="36"/>
-      <c r="BW17" s="36"/>
-      <c r="BX17" s="36"/>
-      <c r="BY17" s="36"/>
-      <c r="BZ17" s="36"/>
-      <c r="CA17" s="36"/>
-      <c r="CB17" s="36"/>
-      <c r="CC17" s="36"/>
-      <c r="CD17" s="36"/>
-      <c r="CE17" s="37"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="33"/>
+      <c r="BF17" s="33"/>
+      <c r="BG17" s="33"/>
+      <c r="BH17" s="33"/>
+      <c r="BI17" s="33"/>
+      <c r="BJ17" s="33"/>
+      <c r="BK17" s="33"/>
+      <c r="BL17" s="33"/>
+      <c r="BM17" s="33"/>
+      <c r="BN17" s="33"/>
+      <c r="BO17" s="33"/>
+      <c r="BP17" s="33"/>
+      <c r="BQ17" s="33"/>
+      <c r="BR17" s="33"/>
+      <c r="BS17" s="33"/>
+      <c r="BT17" s="33"/>
+      <c r="BU17" s="33"/>
+      <c r="BV17" s="33"/>
+      <c r="BW17" s="33"/>
+      <c r="BX17" s="33"/>
+      <c r="BY17" s="33"/>
+      <c r="BZ17" s="33"/>
+      <c r="CA17" s="33"/>
+      <c r="CB17" s="33"/>
+      <c r="CC17" s="33"/>
+      <c r="CD17" s="33"/>
+      <c r="CE17" s="34"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
@@ -13456,16 +13453,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="31"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
@@ -13509,34 +13506,34 @@
       <c r="BA18" s="29"/>
       <c r="BB18" s="29"/>
       <c r="BC18" s="29"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="36"/>
-      <c r="BF18" s="36"/>
-      <c r="BG18" s="36"/>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="36"/>
-      <c r="BJ18" s="36"/>
-      <c r="BK18" s="36"/>
-      <c r="BL18" s="36"/>
-      <c r="BM18" s="36"/>
-      <c r="BN18" s="36"/>
-      <c r="BO18" s="36"/>
-      <c r="BP18" s="36"/>
-      <c r="BQ18" s="36"/>
-      <c r="BR18" s="36"/>
-      <c r="BS18" s="36"/>
-      <c r="BT18" s="36"/>
-      <c r="BU18" s="36"/>
-      <c r="BV18" s="36"/>
-      <c r="BW18" s="36"/>
-      <c r="BX18" s="36"/>
-      <c r="BY18" s="36"/>
-      <c r="BZ18" s="36"/>
-      <c r="CA18" s="36"/>
-      <c r="CB18" s="36"/>
-      <c r="CC18" s="36"/>
-      <c r="CD18" s="36"/>
-      <c r="CE18" s="37"/>
+      <c r="BD18" s="32"/>
+      <c r="BE18" s="33"/>
+      <c r="BF18" s="33"/>
+      <c r="BG18" s="33"/>
+      <c r="BH18" s="33"/>
+      <c r="BI18" s="33"/>
+      <c r="BJ18" s="33"/>
+      <c r="BK18" s="33"/>
+      <c r="BL18" s="33"/>
+      <c r="BM18" s="33"/>
+      <c r="BN18" s="33"/>
+      <c r="BO18" s="33"/>
+      <c r="BP18" s="33"/>
+      <c r="BQ18" s="33"/>
+      <c r="BR18" s="33"/>
+      <c r="BS18" s="33"/>
+      <c r="BT18" s="33"/>
+      <c r="BU18" s="33"/>
+      <c r="BV18" s="33"/>
+      <c r="BW18" s="33"/>
+      <c r="BX18" s="33"/>
+      <c r="BY18" s="33"/>
+      <c r="BZ18" s="33"/>
+      <c r="CA18" s="33"/>
+      <c r="CB18" s="33"/>
+      <c r="CC18" s="33"/>
+      <c r="CD18" s="33"/>
+      <c r="CE18" s="34"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
@@ -13544,16 +13541,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="31"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
@@ -13597,34 +13594,34 @@
       <c r="BA19" s="29"/>
       <c r="BB19" s="29"/>
       <c r="BC19" s="29"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="36"/>
-      <c r="BF19" s="36"/>
-      <c r="BG19" s="36"/>
-      <c r="BH19" s="36"/>
-      <c r="BI19" s="36"/>
-      <c r="BJ19" s="36"/>
-      <c r="BK19" s="36"/>
-      <c r="BL19" s="36"/>
-      <c r="BM19" s="36"/>
-      <c r="BN19" s="36"/>
-      <c r="BO19" s="36"/>
-      <c r="BP19" s="36"/>
-      <c r="BQ19" s="36"/>
-      <c r="BR19" s="36"/>
-      <c r="BS19" s="36"/>
-      <c r="BT19" s="36"/>
-      <c r="BU19" s="36"/>
-      <c r="BV19" s="36"/>
-      <c r="BW19" s="36"/>
-      <c r="BX19" s="36"/>
-      <c r="BY19" s="36"/>
-      <c r="BZ19" s="36"/>
-      <c r="CA19" s="36"/>
-      <c r="CB19" s="36"/>
-      <c r="CC19" s="36"/>
-      <c r="CD19" s="36"/>
-      <c r="CE19" s="37"/>
+      <c r="BD19" s="32"/>
+      <c r="BE19" s="33"/>
+      <c r="BF19" s="33"/>
+      <c r="BG19" s="33"/>
+      <c r="BH19" s="33"/>
+      <c r="BI19" s="33"/>
+      <c r="BJ19" s="33"/>
+      <c r="BK19" s="33"/>
+      <c r="BL19" s="33"/>
+      <c r="BM19" s="33"/>
+      <c r="BN19" s="33"/>
+      <c r="BO19" s="33"/>
+      <c r="BP19" s="33"/>
+      <c r="BQ19" s="33"/>
+      <c r="BR19" s="33"/>
+      <c r="BS19" s="33"/>
+      <c r="BT19" s="33"/>
+      <c r="BU19" s="33"/>
+      <c r="BV19" s="33"/>
+      <c r="BW19" s="33"/>
+      <c r="BX19" s="33"/>
+      <c r="BY19" s="33"/>
+      <c r="BZ19" s="33"/>
+      <c r="CA19" s="33"/>
+      <c r="CB19" s="33"/>
+      <c r="CC19" s="33"/>
+      <c r="CD19" s="33"/>
+      <c r="CE19" s="34"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
@@ -13632,16 +13629,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
@@ -13685,34 +13682,34 @@
       <c r="BA20" s="29"/>
       <c r="BB20" s="29"/>
       <c r="BC20" s="29"/>
-      <c r="BD20" s="35"/>
-      <c r="BE20" s="36"/>
-      <c r="BF20" s="36"/>
-      <c r="BG20" s="36"/>
-      <c r="BH20" s="36"/>
-      <c r="BI20" s="36"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="36"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="36"/>
-      <c r="BQ20" s="36"/>
-      <c r="BR20" s="36"/>
-      <c r="BS20" s="36"/>
-      <c r="BT20" s="36"/>
-      <c r="BU20" s="36"/>
-      <c r="BV20" s="36"/>
-      <c r="BW20" s="36"/>
-      <c r="BX20" s="36"/>
-      <c r="BY20" s="36"/>
-      <c r="BZ20" s="36"/>
-      <c r="CA20" s="36"/>
-      <c r="CB20" s="36"/>
-      <c r="CC20" s="36"/>
-      <c r="CD20" s="36"/>
-      <c r="CE20" s="37"/>
+      <c r="BD20" s="32"/>
+      <c r="BE20" s="33"/>
+      <c r="BF20" s="33"/>
+      <c r="BG20" s="33"/>
+      <c r="BH20" s="33"/>
+      <c r="BI20" s="33"/>
+      <c r="BJ20" s="33"/>
+      <c r="BK20" s="33"/>
+      <c r="BL20" s="33"/>
+      <c r="BM20" s="33"/>
+      <c r="BN20" s="33"/>
+      <c r="BO20" s="33"/>
+      <c r="BP20" s="33"/>
+      <c r="BQ20" s="33"/>
+      <c r="BR20" s="33"/>
+      <c r="BS20" s="33"/>
+      <c r="BT20" s="33"/>
+      <c r="BU20" s="33"/>
+      <c r="BV20" s="33"/>
+      <c r="BW20" s="33"/>
+      <c r="BX20" s="33"/>
+      <c r="BY20" s="33"/>
+      <c r="BZ20" s="33"/>
+      <c r="CA20" s="33"/>
+      <c r="CB20" s="33"/>
+      <c r="CC20" s="33"/>
+      <c r="CD20" s="33"/>
+      <c r="CE20" s="34"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
@@ -13720,16 +13717,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
@@ -13773,54 +13770,54 @@
       <c r="BA21" s="29"/>
       <c r="BB21" s="29"/>
       <c r="BC21" s="29"/>
-      <c r="BD21" s="35"/>
-      <c r="BE21" s="36"/>
-      <c r="BF21" s="36"/>
-      <c r="BG21" s="36"/>
-      <c r="BH21" s="36"/>
-      <c r="BI21" s="36"/>
-      <c r="BJ21" s="36"/>
-      <c r="BK21" s="36"/>
-      <c r="BL21" s="36"/>
-      <c r="BM21" s="36"/>
-      <c r="BN21" s="36"/>
-      <c r="BO21" s="36"/>
-      <c r="BP21" s="36"/>
-      <c r="BQ21" s="36"/>
-      <c r="BR21" s="36"/>
-      <c r="BS21" s="36"/>
-      <c r="BT21" s="36"/>
-      <c r="BU21" s="36"/>
-      <c r="BV21" s="36"/>
-      <c r="BW21" s="36"/>
-      <c r="BX21" s="36"/>
-      <c r="BY21" s="36"/>
-      <c r="BZ21" s="36"/>
-      <c r="CA21" s="36"/>
-      <c r="CB21" s="36"/>
-      <c r="CC21" s="36"/>
-      <c r="CD21" s="36"/>
-      <c r="CE21" s="37"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="33"/>
+      <c r="BF21" s="33"/>
+      <c r="BG21" s="33"/>
+      <c r="BH21" s="33"/>
+      <c r="BI21" s="33"/>
+      <c r="BJ21" s="33"/>
+      <c r="BK21" s="33"/>
+      <c r="BL21" s="33"/>
+      <c r="BM21" s="33"/>
+      <c r="BN21" s="33"/>
+      <c r="BO21" s="33"/>
+      <c r="BP21" s="33"/>
+      <c r="BQ21" s="33"/>
+      <c r="BR21" s="33"/>
+      <c r="BS21" s="33"/>
+      <c r="BT21" s="33"/>
+      <c r="BU21" s="33"/>
+      <c r="BV21" s="33"/>
+      <c r="BW21" s="33"/>
+      <c r="BX21" s="33"/>
+      <c r="BY21" s="33"/>
+      <c r="BZ21" s="33"/>
+      <c r="CA21" s="33"/>
+      <c r="CB21" s="33"/>
+      <c r="CC21" s="33"/>
+      <c r="CD21" s="33"/>
+      <c r="CE21" s="34"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="32" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="30" t="s">
         <v>5</v>
       </c>
@@ -13870,58 +13867,58 @@
       <c r="BA24" s="30"/>
       <c r="BB24" s="30"/>
       <c r="BC24" s="30"/>
-      <c r="BD24" s="32" t="s">
+      <c r="BD24" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BE24" s="33"/>
-      <c r="BF24" s="33"/>
-      <c r="BG24" s="33"/>
-      <c r="BH24" s="33"/>
-      <c r="BI24" s="33"/>
-      <c r="BJ24" s="33"/>
-      <c r="BK24" s="33"/>
-      <c r="BL24" s="33"/>
-      <c r="BM24" s="33"/>
-      <c r="BN24" s="33"/>
-      <c r="BO24" s="33"/>
-      <c r="BP24" s="33"/>
-      <c r="BQ24" s="33"/>
-      <c r="BR24" s="33"/>
-      <c r="BS24" s="33"/>
-      <c r="BT24" s="33"/>
-      <c r="BU24" s="33"/>
-      <c r="BV24" s="33"/>
-      <c r="BW24" s="33"/>
-      <c r="BX24" s="33"/>
-      <c r="BY24" s="33"/>
-      <c r="BZ24" s="33"/>
-      <c r="CA24" s="33"/>
-      <c r="CB24" s="33"/>
-      <c r="CC24" s="33"/>
-      <c r="CD24" s="33"/>
-      <c r="CE24" s="34"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
+      <c r="BL24" s="39"/>
+      <c r="BM24" s="39"/>
+      <c r="BN24" s="39"/>
+      <c r="BO24" s="39"/>
+      <c r="BP24" s="39"/>
+      <c r="BQ24" s="39"/>
+      <c r="BR24" s="39"/>
+      <c r="BS24" s="39"/>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="39"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="39"/>
+      <c r="BY24" s="39"/>
+      <c r="BZ24" s="39"/>
+      <c r="CA24" s="39"/>
+      <c r="CB24" s="39"/>
+      <c r="CC24" s="39"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="40"/>
     </row>
     <row r="25" spans="1:83" ht="67.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>1</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
@@ -13935,7 +13932,7 @@
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
       <c r="Y25" s="29" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="Z25" s="29"/>
       <c r="AA25" s="29"/>
@@ -13949,7 +13946,7 @@
       <c r="AI25" s="29"/>
       <c r="AJ25" s="29"/>
       <c r="AK25" s="29" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AL25" s="29"/>
       <c r="AM25" s="29"/>
@@ -13969,36 +13966,36 @@
       <c r="BA25" s="29"/>
       <c r="BB25" s="29"/>
       <c r="BC25" s="29"/>
-      <c r="BD25" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="BE25" s="36"/>
-      <c r="BF25" s="36"/>
-      <c r="BG25" s="36"/>
-      <c r="BH25" s="36"/>
-      <c r="BI25" s="36"/>
-      <c r="BJ25" s="36"/>
-      <c r="BK25" s="36"/>
-      <c r="BL25" s="36"/>
-      <c r="BM25" s="36"/>
-      <c r="BN25" s="36"/>
-      <c r="BO25" s="36"/>
-      <c r="BP25" s="36"/>
-      <c r="BQ25" s="36"/>
-      <c r="BR25" s="36"/>
-      <c r="BS25" s="36"/>
-      <c r="BT25" s="36"/>
-      <c r="BU25" s="36"/>
-      <c r="BV25" s="36"/>
-      <c r="BW25" s="36"/>
-      <c r="BX25" s="36"/>
-      <c r="BY25" s="36"/>
-      <c r="BZ25" s="36"/>
-      <c r="CA25" s="36"/>
-      <c r="CB25" s="36"/>
-      <c r="CC25" s="36"/>
-      <c r="CD25" s="36"/>
-      <c r="CE25" s="37"/>
+      <c r="BD25" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE25" s="33"/>
+      <c r="BF25" s="33"/>
+      <c r="BG25" s="33"/>
+      <c r="BH25" s="33"/>
+      <c r="BI25" s="33"/>
+      <c r="BJ25" s="33"/>
+      <c r="BK25" s="33"/>
+      <c r="BL25" s="33"/>
+      <c r="BM25" s="33"/>
+      <c r="BN25" s="33"/>
+      <c r="BO25" s="33"/>
+      <c r="BP25" s="33"/>
+      <c r="BQ25" s="33"/>
+      <c r="BR25" s="33"/>
+      <c r="BS25" s="33"/>
+      <c r="BT25" s="33"/>
+      <c r="BU25" s="33"/>
+      <c r="BV25" s="33"/>
+      <c r="BW25" s="33"/>
+      <c r="BX25" s="33"/>
+      <c r="BY25" s="33"/>
+      <c r="BZ25" s="33"/>
+      <c r="CA25" s="33"/>
+      <c r="CB25" s="33"/>
+      <c r="CC25" s="33"/>
+      <c r="CD25" s="33"/>
+      <c r="CE25" s="34"/>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
@@ -14006,16 +14003,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
@@ -14059,34 +14056,34 @@
       <c r="BA26" s="29"/>
       <c r="BB26" s="29"/>
       <c r="BC26" s="29"/>
-      <c r="BD26" s="35"/>
-      <c r="BE26" s="36"/>
-      <c r="BF26" s="36"/>
-      <c r="BG26" s="36"/>
-      <c r="BH26" s="36"/>
-      <c r="BI26" s="36"/>
-      <c r="BJ26" s="36"/>
-      <c r="BK26" s="36"/>
-      <c r="BL26" s="36"/>
-      <c r="BM26" s="36"/>
-      <c r="BN26" s="36"/>
-      <c r="BO26" s="36"/>
-      <c r="BP26" s="36"/>
-      <c r="BQ26" s="36"/>
-      <c r="BR26" s="36"/>
-      <c r="BS26" s="36"/>
-      <c r="BT26" s="36"/>
-      <c r="BU26" s="36"/>
-      <c r="BV26" s="36"/>
-      <c r="BW26" s="36"/>
-      <c r="BX26" s="36"/>
-      <c r="BY26" s="36"/>
-      <c r="BZ26" s="36"/>
-      <c r="CA26" s="36"/>
-      <c r="CB26" s="36"/>
-      <c r="CC26" s="36"/>
-      <c r="CD26" s="36"/>
-      <c r="CE26" s="37"/>
+      <c r="BD26" s="32"/>
+      <c r="BE26" s="33"/>
+      <c r="BF26" s="33"/>
+      <c r="BG26" s="33"/>
+      <c r="BH26" s="33"/>
+      <c r="BI26" s="33"/>
+      <c r="BJ26" s="33"/>
+      <c r="BK26" s="33"/>
+      <c r="BL26" s="33"/>
+      <c r="BM26" s="33"/>
+      <c r="BN26" s="33"/>
+      <c r="BO26" s="33"/>
+      <c r="BP26" s="33"/>
+      <c r="BQ26" s="33"/>
+      <c r="BR26" s="33"/>
+      <c r="BS26" s="33"/>
+      <c r="BT26" s="33"/>
+      <c r="BU26" s="33"/>
+      <c r="BV26" s="33"/>
+      <c r="BW26" s="33"/>
+      <c r="BX26" s="33"/>
+      <c r="BY26" s="33"/>
+      <c r="BZ26" s="33"/>
+      <c r="CA26" s="33"/>
+      <c r="CB26" s="33"/>
+      <c r="CC26" s="33"/>
+      <c r="CD26" s="33"/>
+      <c r="CE26" s="34"/>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
@@ -14094,16 +14091,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="31"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
@@ -14147,34 +14144,34 @@
       <c r="BA27" s="29"/>
       <c r="BB27" s="29"/>
       <c r="BC27" s="29"/>
-      <c r="BD27" s="35"/>
-      <c r="BE27" s="36"/>
-      <c r="BF27" s="36"/>
-      <c r="BG27" s="36"/>
-      <c r="BH27" s="36"/>
-      <c r="BI27" s="36"/>
-      <c r="BJ27" s="36"/>
-      <c r="BK27" s="36"/>
-      <c r="BL27" s="36"/>
-      <c r="BM27" s="36"/>
-      <c r="BN27" s="36"/>
-      <c r="BO27" s="36"/>
-      <c r="BP27" s="36"/>
-      <c r="BQ27" s="36"/>
-      <c r="BR27" s="36"/>
-      <c r="BS27" s="36"/>
-      <c r="BT27" s="36"/>
-      <c r="BU27" s="36"/>
-      <c r="BV27" s="36"/>
-      <c r="BW27" s="36"/>
-      <c r="BX27" s="36"/>
-      <c r="BY27" s="36"/>
-      <c r="BZ27" s="36"/>
-      <c r="CA27" s="36"/>
-      <c r="CB27" s="36"/>
-      <c r="CC27" s="36"/>
-      <c r="CD27" s="36"/>
-      <c r="CE27" s="37"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="33"/>
+      <c r="BF27" s="33"/>
+      <c r="BG27" s="33"/>
+      <c r="BH27" s="33"/>
+      <c r="BI27" s="33"/>
+      <c r="BJ27" s="33"/>
+      <c r="BK27" s="33"/>
+      <c r="BL27" s="33"/>
+      <c r="BM27" s="33"/>
+      <c r="BN27" s="33"/>
+      <c r="BO27" s="33"/>
+      <c r="BP27" s="33"/>
+      <c r="BQ27" s="33"/>
+      <c r="BR27" s="33"/>
+      <c r="BS27" s="33"/>
+      <c r="BT27" s="33"/>
+      <c r="BU27" s="33"/>
+      <c r="BV27" s="33"/>
+      <c r="BW27" s="33"/>
+      <c r="BX27" s="33"/>
+      <c r="BY27" s="33"/>
+      <c r="BZ27" s="33"/>
+      <c r="CA27" s="33"/>
+      <c r="CB27" s="33"/>
+      <c r="CC27" s="33"/>
+      <c r="CD27" s="33"/>
+      <c r="CE27" s="34"/>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="31">
@@ -14182,16 +14179,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="31"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
@@ -14235,34 +14232,34 @@
       <c r="BA28" s="29"/>
       <c r="BB28" s="29"/>
       <c r="BC28" s="29"/>
-      <c r="BD28" s="35"/>
-      <c r="BE28" s="36"/>
-      <c r="BF28" s="36"/>
-      <c r="BG28" s="36"/>
-      <c r="BH28" s="36"/>
-      <c r="BI28" s="36"/>
-      <c r="BJ28" s="36"/>
-      <c r="BK28" s="36"/>
-      <c r="BL28" s="36"/>
-      <c r="BM28" s="36"/>
-      <c r="BN28" s="36"/>
-      <c r="BO28" s="36"/>
-      <c r="BP28" s="36"/>
-      <c r="BQ28" s="36"/>
-      <c r="BR28" s="36"/>
-      <c r="BS28" s="36"/>
-      <c r="BT28" s="36"/>
-      <c r="BU28" s="36"/>
-      <c r="BV28" s="36"/>
-      <c r="BW28" s="36"/>
-      <c r="BX28" s="36"/>
-      <c r="BY28" s="36"/>
-      <c r="BZ28" s="36"/>
-      <c r="CA28" s="36"/>
-      <c r="CB28" s="36"/>
-      <c r="CC28" s="36"/>
-      <c r="CD28" s="36"/>
-      <c r="CE28" s="37"/>
+      <c r="BD28" s="32"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="33"/>
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
+      <c r="BI28" s="33"/>
+      <c r="BJ28" s="33"/>
+      <c r="BK28" s="33"/>
+      <c r="BL28" s="33"/>
+      <c r="BM28" s="33"/>
+      <c r="BN28" s="33"/>
+      <c r="BO28" s="33"/>
+      <c r="BP28" s="33"/>
+      <c r="BQ28" s="33"/>
+      <c r="BR28" s="33"/>
+      <c r="BS28" s="33"/>
+      <c r="BT28" s="33"/>
+      <c r="BU28" s="33"/>
+      <c r="BV28" s="33"/>
+      <c r="BW28" s="33"/>
+      <c r="BX28" s="33"/>
+      <c r="BY28" s="33"/>
+      <c r="BZ28" s="33"/>
+      <c r="CA28" s="33"/>
+      <c r="CB28" s="33"/>
+      <c r="CC28" s="33"/>
+      <c r="CD28" s="33"/>
+      <c r="CE28" s="34"/>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
@@ -14270,16 +14267,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="31"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
@@ -14323,77 +14320,129 @@
       <c r="BA29" s="29"/>
       <c r="BB29" s="29"/>
       <c r="BC29" s="29"/>
-      <c r="BD29" s="35"/>
-      <c r="BE29" s="36"/>
-      <c r="BF29" s="36"/>
-      <c r="BG29" s="36"/>
-      <c r="BH29" s="36"/>
-      <c r="BI29" s="36"/>
-      <c r="BJ29" s="36"/>
-      <c r="BK29" s="36"/>
-      <c r="BL29" s="36"/>
-      <c r="BM29" s="36"/>
-      <c r="BN29" s="36"/>
-      <c r="BO29" s="36"/>
-      <c r="BP29" s="36"/>
-      <c r="BQ29" s="36"/>
-      <c r="BR29" s="36"/>
-      <c r="BS29" s="36"/>
-      <c r="BT29" s="36"/>
-      <c r="BU29" s="36"/>
-      <c r="BV29" s="36"/>
-      <c r="BW29" s="36"/>
-      <c r="BX29" s="36"/>
-      <c r="BY29" s="36"/>
-      <c r="BZ29" s="36"/>
-      <c r="CA29" s="36"/>
-      <c r="CB29" s="36"/>
-      <c r="CC29" s="36"/>
-      <c r="CD29" s="36"/>
-      <c r="CE29" s="37"/>
+      <c r="BD29" s="32"/>
+      <c r="BE29" s="33"/>
+      <c r="BF29" s="33"/>
+      <c r="BG29" s="33"/>
+      <c r="BH29" s="33"/>
+      <c r="BI29" s="33"/>
+      <c r="BJ29" s="33"/>
+      <c r="BK29" s="33"/>
+      <c r="BL29" s="33"/>
+      <c r="BM29" s="33"/>
+      <c r="BN29" s="33"/>
+      <c r="BO29" s="33"/>
+      <c r="BP29" s="33"/>
+      <c r="BQ29" s="33"/>
+      <c r="BR29" s="33"/>
+      <c r="BS29" s="33"/>
+      <c r="BT29" s="33"/>
+      <c r="BU29" s="33"/>
+      <c r="BV29" s="33"/>
+      <c r="BW29" s="33"/>
+      <c r="BX29" s="33"/>
+      <c r="BY29" s="33"/>
+      <c r="BZ29" s="33"/>
+      <c r="CA29" s="33"/>
+      <c r="CB29" s="33"/>
+      <c r="CC29" s="33"/>
+      <c r="CD29" s="33"/>
+      <c r="CE29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="V21:AD21"/>
-    <mergeCell ref="AE21:AM21"/>
-    <mergeCell ref="AN21:BC21"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="BD19:CE19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="V20:AD20"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AN20:BC20"/>
-    <mergeCell ref="BD20:CE20"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="V18:AD18"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AN18:BC18"/>
-    <mergeCell ref="BD18:CE18"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="AK24:BC24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="V17:AD17"/>
+    <mergeCell ref="AE17:AM17"/>
+    <mergeCell ref="AN17:BC17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="V19:AD19"/>
+    <mergeCell ref="AE19:AM19"/>
+    <mergeCell ref="AN19:BC19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="Y26:AJ26"/>
+    <mergeCell ref="AK26:BC26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M25:X25"/>
+    <mergeCell ref="Y25:AJ25"/>
+    <mergeCell ref="AK25:BC25"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AK28:BC28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="AK27:BC27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:L28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="M29:X29"/>
     <mergeCell ref="Y29:AJ29"/>
@@ -14418,98 +14467,46 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="M28:X28"/>
     <mergeCell ref="Y28:AJ28"/>
-    <mergeCell ref="AK28:BC28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="M27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="AK27:BC27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="Y26:AJ26"/>
-    <mergeCell ref="AK26:BC26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M25:X25"/>
-    <mergeCell ref="Y25:AJ25"/>
-    <mergeCell ref="AK25:BC25"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK24:BC24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="V17:AD17"/>
-    <mergeCell ref="AE17:AM17"/>
-    <mergeCell ref="AN17:BC17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="V19:AD19"/>
-    <mergeCell ref="AE19:AM19"/>
-    <mergeCell ref="AN19:BC19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="V18:AD18"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AN18:BC18"/>
+    <mergeCell ref="BD18:CE18"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="V21:AD21"/>
+    <mergeCell ref="AE21:AM21"/>
+    <mergeCell ref="AN21:BC21"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="BD19:CE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="V20:AD20"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AN20:BC20"/>
+    <mergeCell ref="BD20:CE20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14574,7 +14571,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -14585,31 +14582,31 @@
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
-      <c r="M3" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
+      <c r="M3" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="41">
@@ -14627,29 +14624,29 @@
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
@@ -14667,29 +14664,29 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="41">
@@ -14707,29 +14704,29 @@
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="41">
@@ -14747,32 +14744,38 @@
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -14785,12 +14788,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14802,7 +14799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD306F0-62DF-4C47-ABB5-E55E667C51C7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_4人員検索画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_4人員検索画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38645EF2-5EE7-4CAB-8AC1-99031EDE03CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2EC54D-0D60-4343-9FAB-7285EF2782FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="×" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
   <si>
     <t>作成日</t>
   </si>
@@ -229,10 +230,6 @@
   </si>
   <si>
     <t>Personnel_Grid</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Find_Button</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -868,10 +865,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Find</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Password_Label</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1171,15 +1164,13 @@
   </si>
   <si>
     <t>Exception：「重大なエラーが起きました。システム管理者に連絡してください。」</t>
-    <rPh sb="43" eb="45">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ケン</t>
-    </rPh>
+    <rPh sb="0" eb="42">
+      <t>ケンサクケンスウケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Search_Button</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1486,6 +1477,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1503,15 +1503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1519,10 +1510,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6905,7 +6896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9694,7 +9685,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -9921,13 +9912,13 @@
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
       <c r="L51" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
@@ -9938,7 +9929,7 @@
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
       <c r="U51" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V51" s="29"/>
       <c r="W51" s="29"/>
@@ -9966,13 +9957,13 @@
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
@@ -9983,7 +9974,7 @@
       <c r="S52" s="29"/>
       <c r="T52" s="29"/>
       <c r="U52" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V52" s="29"/>
       <c r="W52" s="29"/>
@@ -10011,13 +10002,13 @@
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
@@ -10028,7 +10019,7 @@
       <c r="S53" s="29"/>
       <c r="T53" s="29"/>
       <c r="U53" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V53" s="29"/>
       <c r="W53" s="29"/>
@@ -10056,13 +10047,13 @@
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
@@ -10073,7 +10064,7 @@
       <c r="S54" s="29"/>
       <c r="T54" s="29"/>
       <c r="U54" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V54" s="29"/>
       <c r="W54" s="29"/>
@@ -10101,13 +10092,13 @@
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M55" s="29"/>
       <c r="N55" s="29"/>
@@ -10118,7 +10109,7 @@
       <c r="S55" s="29"/>
       <c r="T55" s="29"/>
       <c r="U55" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V55" s="29"/>
       <c r="W55" s="29"/>
@@ -10146,13 +10137,13 @@
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
       <c r="L56" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M56" s="29"/>
       <c r="N56" s="29"/>
@@ -10163,7 +10154,7 @@
       <c r="S56" s="29"/>
       <c r="T56" s="29"/>
       <c r="U56" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V56" s="29"/>
       <c r="W56" s="29"/>
@@ -10191,13 +10182,13 @@
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
       <c r="L57" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M57" s="29"/>
       <c r="N57" s="29"/>
@@ -10208,7 +10199,7 @@
       <c r="S57" s="29"/>
       <c r="T57" s="29"/>
       <c r="U57" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V57" s="29"/>
       <c r="W57" s="29"/>
@@ -10228,7 +10219,7 @@
         <v>8</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -10236,13 +10227,13 @@
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
       <c r="H58" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
       <c r="L58" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M58" s="29"/>
       <c r="N58" s="29"/>
@@ -10253,7 +10244,7 @@
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
       <c r="U58" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V58" s="29"/>
       <c r="W58" s="29"/>
@@ -10281,13 +10272,13 @@
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
@@ -10298,7 +10289,7 @@
       <c r="S59" s="29"/>
       <c r="T59" s="29"/>
       <c r="U59" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V59" s="29"/>
       <c r="W59" s="29"/>
@@ -10318,7 +10309,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
@@ -10326,13 +10317,13 @@
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I60" s="29"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M60" s="29"/>
       <c r="N60" s="29"/>
@@ -10343,7 +10334,7 @@
       <c r="S60" s="29"/>
       <c r="T60" s="29"/>
       <c r="U60" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V60" s="29"/>
       <c r="W60" s="29"/>
@@ -10363,7 +10354,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29"/>
@@ -10371,13 +10362,13 @@
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I61" s="29"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M61" s="29"/>
       <c r="N61" s="29"/>
@@ -10388,7 +10379,7 @@
       <c r="S61" s="29"/>
       <c r="T61" s="29"/>
       <c r="U61" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V61" s="29"/>
       <c r="W61" s="29"/>
@@ -10408,7 +10399,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -10416,13 +10407,13 @@
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
       <c r="L62" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M62" s="29"/>
       <c r="N62" s="29"/>
@@ -10433,7 +10424,7 @@
       <c r="S62" s="29"/>
       <c r="T62" s="29"/>
       <c r="U62" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V62" s="29"/>
       <c r="W62" s="29"/>
@@ -10453,7 +10444,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
@@ -10461,13 +10452,13 @@
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
       <c r="L63" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
@@ -10478,7 +10469,7 @@
       <c r="S63" s="29"/>
       <c r="T63" s="29"/>
       <c r="U63" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V63" s="29"/>
       <c r="W63" s="29"/>
@@ -10498,7 +10489,7 @@
         <v>14</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
@@ -10506,13 +10497,13 @@
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
       <c r="L64" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M64" s="29"/>
       <c r="N64" s="29"/>
@@ -10523,7 +10514,7 @@
       <c r="S64" s="29"/>
       <c r="T64" s="29"/>
       <c r="U64" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V64" s="29"/>
       <c r="W64" s="29"/>
@@ -10543,7 +10534,7 @@
         <v>15</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
@@ -10551,13 +10542,13 @@
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
       <c r="L65" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M65" s="29"/>
       <c r="N65" s="29"/>
@@ -10568,7 +10559,7 @@
       <c r="S65" s="29"/>
       <c r="T65" s="29"/>
       <c r="U65" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V65" s="29"/>
       <c r="W65" s="29"/>
@@ -10588,7 +10579,7 @@
         <v>16</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
@@ -10596,13 +10587,13 @@
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
       <c r="L66" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M66" s="29"/>
       <c r="N66" s="29"/>
@@ -10613,7 +10604,7 @@
       <c r="S66" s="29"/>
       <c r="T66" s="29"/>
       <c r="U66" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V66" s="29"/>
       <c r="W66" s="29"/>
@@ -10633,7 +10624,7 @@
         <v>17</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
@@ -10641,13 +10632,13 @@
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I67" s="29"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
       <c r="L67" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M67" s="29"/>
       <c r="N67" s="29"/>
@@ -10658,7 +10649,7 @@
       <c r="S67" s="29"/>
       <c r="T67" s="29"/>
       <c r="U67" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V67" s="29"/>
       <c r="W67" s="29"/>
@@ -10678,7 +10669,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
@@ -10686,13 +10677,13 @@
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
       <c r="L68" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M68" s="29"/>
       <c r="N68" s="29"/>
@@ -10703,7 +10694,7 @@
       <c r="S68" s="29"/>
       <c r="T68" s="29"/>
       <c r="U68" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V68" s="29"/>
       <c r="W68" s="29"/>
@@ -10723,7 +10714,7 @@
         <v>19</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
@@ -10731,13 +10722,13 @@
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
       <c r="L69" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M69" s="29"/>
       <c r="N69" s="29"/>
@@ -10748,7 +10739,7 @@
       <c r="S69" s="29"/>
       <c r="T69" s="29"/>
       <c r="U69" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V69" s="29"/>
       <c r="W69" s="29"/>
@@ -10768,7 +10759,7 @@
         <v>20</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
@@ -10776,13 +10767,13 @@
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M70" s="29"/>
       <c r="N70" s="29"/>
@@ -10793,7 +10784,7 @@
       <c r="S70" s="29"/>
       <c r="T70" s="29"/>
       <c r="U70" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V70" s="29"/>
       <c r="W70" s="29"/>
@@ -10813,7 +10804,7 @@
         <v>21</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
@@ -10821,13 +10812,13 @@
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M71" s="29"/>
       <c r="N71" s="29"/>
@@ -10838,7 +10829,7 @@
       <c r="S71" s="29"/>
       <c r="T71" s="29"/>
       <c r="U71" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V71" s="29"/>
       <c r="W71" s="29"/>
@@ -10858,7 +10849,7 @@
         <v>22</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
@@ -10866,13 +10857,13 @@
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M72" s="29"/>
       <c r="N72" s="29"/>
@@ -10883,7 +10874,7 @@
       <c r="S72" s="29"/>
       <c r="T72" s="29"/>
       <c r="U72" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V72" s="29"/>
       <c r="W72" s="29"/>
@@ -10903,7 +10894,7 @@
         <v>23</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
@@ -10911,13 +10902,13 @@
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I73" s="29"/>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M73" s="29"/>
       <c r="N73" s="29"/>
@@ -10928,7 +10919,7 @@
       <c r="S73" s="29"/>
       <c r="T73" s="29"/>
       <c r="U73" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V73" s="29"/>
       <c r="W73" s="29"/>
@@ -10948,7 +10939,7 @@
         <v>24</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -10956,13 +10947,13 @@
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
       <c r="L74" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M74" s="29"/>
       <c r="N74" s="29"/>
@@ -10973,7 +10964,7 @@
       <c r="S74" s="29"/>
       <c r="T74" s="29"/>
       <c r="U74" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V74" s="29"/>
       <c r="W74" s="29"/>
@@ -10993,7 +10984,7 @@
         <v>25</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
@@ -11001,13 +10992,13 @@
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I75" s="29"/>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M75" s="29"/>
       <c r="N75" s="29"/>
@@ -11018,7 +11009,7 @@
       <c r="S75" s="29"/>
       <c r="T75" s="29"/>
       <c r="U75" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V75" s="29"/>
       <c r="W75" s="29"/>
@@ -11038,7 +11029,7 @@
         <v>26</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
@@ -11046,13 +11037,13 @@
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M76" s="29"/>
       <c r="N76" s="29"/>
@@ -11063,7 +11054,7 @@
       <c r="S76" s="29"/>
       <c r="T76" s="29"/>
       <c r="U76" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V76" s="29"/>
       <c r="W76" s="29"/>
@@ -11083,7 +11074,7 @@
         <v>27</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
@@ -11091,13 +11082,13 @@
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
       <c r="L77" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M77" s="29"/>
       <c r="N77" s="29"/>
@@ -11108,7 +11099,7 @@
       <c r="S77" s="29"/>
       <c r="T77" s="29"/>
       <c r="U77" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V77" s="29"/>
       <c r="W77" s="29"/>
@@ -11128,7 +11119,7 @@
         <v>28</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
@@ -11136,13 +11127,13 @@
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M78" s="29"/>
       <c r="N78" s="29"/>
@@ -11153,7 +11144,7 @@
       <c r="S78" s="29"/>
       <c r="T78" s="29"/>
       <c r="U78" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V78" s="29"/>
       <c r="W78" s="29"/>
@@ -11173,7 +11164,7 @@
         <v>29</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
@@ -11181,13 +11172,13 @@
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I79" s="29"/>
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
       <c r="L79" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M79" s="29"/>
       <c r="N79" s="29"/>
@@ -11198,7 +11189,7 @@
       <c r="S79" s="29"/>
       <c r="T79" s="29"/>
       <c r="U79" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V79" s="29"/>
       <c r="W79" s="29"/>
@@ -11218,7 +11209,7 @@
         <v>30</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
@@ -11226,13 +11217,13 @@
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M80" s="29"/>
       <c r="N80" s="29"/>
@@ -11243,7 +11234,7 @@
       <c r="S80" s="29"/>
       <c r="T80" s="29"/>
       <c r="U80" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V80" s="29"/>
       <c r="W80" s="29"/>
@@ -11263,7 +11254,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
@@ -11271,13 +11262,13 @@
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I81" s="29"/>
       <c r="J81" s="29"/>
       <c r="K81" s="29"/>
       <c r="L81" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M81" s="29"/>
       <c r="N81" s="29"/>
@@ -11288,7 +11279,7 @@
       <c r="S81" s="29"/>
       <c r="T81" s="29"/>
       <c r="U81" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
@@ -11308,7 +11299,7 @@
         <v>32</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
@@ -11316,13 +11307,13 @@
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I82" s="29"/>
       <c r="J82" s="29"/>
       <c r="K82" s="29"/>
       <c r="L82" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M82" s="29"/>
       <c r="N82" s="29"/>
@@ -11333,7 +11324,7 @@
       <c r="S82" s="29"/>
       <c r="T82" s="29"/>
       <c r="U82" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
@@ -11353,7 +11344,7 @@
         <v>33</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29"/>
@@ -11361,13 +11352,13 @@
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I83" s="29"/>
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M83" s="29"/>
       <c r="N83" s="29"/>
@@ -11378,7 +11369,7 @@
       <c r="S83" s="29"/>
       <c r="T83" s="29"/>
       <c r="U83" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
@@ -11398,7 +11389,7 @@
         <v>34</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C84" s="29"/>
       <c r="D84" s="29"/>
@@ -11406,13 +11397,13 @@
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
       <c r="L84" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M84" s="29"/>
       <c r="N84" s="29"/>
@@ -11423,7 +11414,7 @@
       <c r="S84" s="29"/>
       <c r="T84" s="29"/>
       <c r="U84" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V84" s="29"/>
       <c r="W84" s="29"/>
@@ -11443,7 +11434,7 @@
         <v>35</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C85" s="29"/>
       <c r="D85" s="29"/>
@@ -11451,13 +11442,13 @@
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="29"/>
       <c r="K85" s="29"/>
       <c r="L85" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M85" s="29"/>
       <c r="N85" s="29"/>
@@ -11468,7 +11459,7 @@
       <c r="S85" s="29"/>
       <c r="T85" s="29"/>
       <c r="U85" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V85" s="29"/>
       <c r="W85" s="29"/>
@@ -11488,7 +11479,7 @@
         <v>36</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
@@ -11496,13 +11487,13 @@
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
       <c r="K86" s="29"/>
       <c r="L86" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M86" s="29"/>
       <c r="N86" s="29"/>
@@ -11513,7 +11504,7 @@
       <c r="S86" s="29"/>
       <c r="T86" s="29"/>
       <c r="U86" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V86" s="29"/>
       <c r="W86" s="29"/>
@@ -11533,7 +11524,7 @@
         <v>37</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
@@ -11541,13 +11532,13 @@
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="29"/>
       <c r="K87" s="29"/>
       <c r="L87" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M87" s="29"/>
       <c r="N87" s="29"/>
@@ -11558,7 +11549,7 @@
       <c r="S87" s="29"/>
       <c r="T87" s="29"/>
       <c r="U87" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V87" s="29"/>
       <c r="W87" s="29"/>
@@ -11578,7 +11569,7 @@
         <v>38</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
@@ -11586,13 +11577,13 @@
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I88" s="29"/>
       <c r="J88" s="29"/>
       <c r="K88" s="29"/>
       <c r="L88" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M88" s="29"/>
       <c r="N88" s="29"/>
@@ -11603,7 +11594,7 @@
       <c r="S88" s="29"/>
       <c r="T88" s="29"/>
       <c r="U88" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V88" s="29"/>
       <c r="W88" s="29"/>
@@ -11623,7 +11614,7 @@
         <v>39</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
@@ -11631,13 +11622,13 @@
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I89" s="29"/>
       <c r="J89" s="29"/>
       <c r="K89" s="29"/>
       <c r="L89" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M89" s="29"/>
       <c r="N89" s="29"/>
@@ -11648,7 +11639,7 @@
       <c r="S89" s="29"/>
       <c r="T89" s="29"/>
       <c r="U89" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V89" s="29"/>
       <c r="W89" s="29"/>
@@ -11668,7 +11659,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
@@ -11676,13 +11667,13 @@
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I90" s="29"/>
       <c r="J90" s="29"/>
       <c r="K90" s="29"/>
       <c r="L90" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M90" s="29"/>
       <c r="N90" s="29"/>
@@ -11693,7 +11684,7 @@
       <c r="S90" s="29"/>
       <c r="T90" s="29"/>
       <c r="U90" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V90" s="29"/>
       <c r="W90" s="29"/>
@@ -11713,7 +11704,7 @@
         <v>41</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
@@ -11721,13 +11712,13 @@
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I91" s="29"/>
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
       <c r="L91" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M91" s="29"/>
       <c r="N91" s="29"/>
@@ -11738,7 +11729,7 @@
       <c r="S91" s="29"/>
       <c r="T91" s="29"/>
       <c r="U91" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V91" s="29"/>
       <c r="W91" s="29"/>
@@ -11902,152 +11893,22 @@
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:T89"/>
-    <mergeCell ref="U89:AF89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:T90"/>
-    <mergeCell ref="U90:AF90"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:T87"/>
-    <mergeCell ref="U87:AF87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:T88"/>
-    <mergeCell ref="U88:AF88"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:T85"/>
-    <mergeCell ref="U85:AF85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:T86"/>
-    <mergeCell ref="U86:AF86"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:T83"/>
-    <mergeCell ref="U83:AF83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:T84"/>
-    <mergeCell ref="U84:AF84"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:T81"/>
-    <mergeCell ref="U81:AF81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:T82"/>
-    <mergeCell ref="U82:AF82"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:T79"/>
-    <mergeCell ref="U79:AF79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:T80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:T77"/>
-    <mergeCell ref="U77:AF77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:T78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AF75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:T76"/>
-    <mergeCell ref="U76:AF76"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:T73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:T74"/>
-    <mergeCell ref="U74:AF74"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:T71"/>
-    <mergeCell ref="U71:AF71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:T72"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:T69"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:T70"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:T67"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="U63:AF63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:T59"/>
-    <mergeCell ref="U59:AF59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:T58"/>
-    <mergeCell ref="U58:AF58"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:T95"/>
+    <mergeCell ref="U95:AF95"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:T92"/>
+    <mergeCell ref="U92:AF92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:T93"/>
+    <mergeCell ref="U93:AF93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:T94"/>
+    <mergeCell ref="U94:AF94"/>
     <mergeCell ref="A42:AF42"/>
     <mergeCell ref="A43:AF47"/>
     <mergeCell ref="B50:G50"/>
@@ -12072,22 +11933,152 @@
     <mergeCell ref="U51:AF51"/>
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="H52:K52"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:T95"/>
-    <mergeCell ref="U95:AF95"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:T92"/>
-    <mergeCell ref="U92:AF92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:T93"/>
-    <mergeCell ref="U93:AF93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:T94"/>
-    <mergeCell ref="U94:AF94"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:T58"/>
+    <mergeCell ref="U58:AF58"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:T59"/>
+    <mergeCell ref="U59:AF59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="U63:AF63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:T74"/>
+    <mergeCell ref="U74:AF74"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:T77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AF75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:T76"/>
+    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:T81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:T82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:T85"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:T86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:T83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:T84"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:T89"/>
+    <mergeCell ref="U89:AF89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:T90"/>
+    <mergeCell ref="U90:AF90"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:T87"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:T88"/>
+    <mergeCell ref="U88:AF88"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12100,7 +12091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12165,7 +12156,7 @@
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12284,20 +12275,20 @@
         <v>11</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="38" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="30" t="s">
         <v>5</v>
       </c>
@@ -12345,58 +12336,58 @@
       <c r="BA5" s="30"/>
       <c r="BB5" s="30"/>
       <c r="BC5" s="30"/>
-      <c r="BD5" s="38" t="s">
+      <c r="BD5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="BE5" s="39"/>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="39"/>
-      <c r="BL5" s="39"/>
-      <c r="BM5" s="39"/>
-      <c r="BN5" s="39"/>
-      <c r="BO5" s="39"/>
-      <c r="BP5" s="39"/>
-      <c r="BQ5" s="39"/>
-      <c r="BR5" s="39"/>
-      <c r="BS5" s="39"/>
-      <c r="BT5" s="39"/>
-      <c r="BU5" s="39"/>
-      <c r="BV5" s="39"/>
-      <c r="BW5" s="39"/>
-      <c r="BX5" s="39"/>
-      <c r="BY5" s="39"/>
-      <c r="BZ5" s="39"/>
-      <c r="CA5" s="39"/>
-      <c r="CB5" s="39"/>
-      <c r="CC5" s="39"/>
-      <c r="CD5" s="39"/>
-      <c r="CE5" s="40"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
+      <c r="CE5" s="34"/>
     </row>
     <row r="6" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>1</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
@@ -12416,7 +12407,7 @@
       <c r="AC6" s="29"/>
       <c r="AD6" s="29"/>
       <c r="AE6" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
@@ -12442,36 +12433,36 @@
       <c r="BA6" s="29"/>
       <c r="BB6" s="29"/>
       <c r="BC6" s="29"/>
-      <c r="BD6" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE6" s="33"/>
-      <c r="BF6" s="33"/>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="33"/>
-      <c r="BI6" s="33"/>
-      <c r="BJ6" s="33"/>
-      <c r="BK6" s="33"/>
-      <c r="BL6" s="33"/>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="33"/>
-      <c r="BO6" s="33"/>
-      <c r="BP6" s="33"/>
-      <c r="BQ6" s="33"/>
-      <c r="BR6" s="33"/>
-      <c r="BS6" s="33"/>
-      <c r="BT6" s="33"/>
-      <c r="BU6" s="33"/>
-      <c r="BV6" s="33"/>
-      <c r="BW6" s="33"/>
-      <c r="BX6" s="33"/>
-      <c r="BY6" s="33"/>
-      <c r="BZ6" s="33"/>
-      <c r="CA6" s="33"/>
-      <c r="CB6" s="33"/>
-      <c r="CC6" s="33"/>
-      <c r="CD6" s="33"/>
-      <c r="CE6" s="34"/>
+      <c r="BD6" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
+      <c r="BJ6" s="36"/>
+      <c r="BK6" s="36"/>
+      <c r="BL6" s="36"/>
+      <c r="BM6" s="36"/>
+      <c r="BN6" s="36"/>
+      <c r="BO6" s="36"/>
+      <c r="BP6" s="36"/>
+      <c r="BQ6" s="36"/>
+      <c r="BR6" s="36"/>
+      <c r="BS6" s="36"/>
+      <c r="BT6" s="36"/>
+      <c r="BU6" s="36"/>
+      <c r="BV6" s="36"/>
+      <c r="BW6" s="36"/>
+      <c r="BX6" s="36"/>
+      <c r="BY6" s="36"/>
+      <c r="BZ6" s="36"/>
+      <c r="CA6" s="36"/>
+      <c r="CB6" s="36"/>
+      <c r="CC6" s="36"/>
+      <c r="CD6" s="36"/>
+      <c r="CE6" s="37"/>
     </row>
     <row r="7" spans="1:83" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
@@ -12479,16 +12470,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
@@ -12532,34 +12523,34 @@
       <c r="BA7" s="29"/>
       <c r="BB7" s="29"/>
       <c r="BC7" s="29"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="33"/>
-      <c r="BI7" s="33"/>
-      <c r="BJ7" s="33"/>
-      <c r="BK7" s="33"/>
-      <c r="BL7" s="33"/>
-      <c r="BM7" s="33"/>
-      <c r="BN7" s="33"/>
-      <c r="BO7" s="33"/>
-      <c r="BP7" s="33"/>
-      <c r="BQ7" s="33"/>
-      <c r="BR7" s="33"/>
-      <c r="BS7" s="33"/>
-      <c r="BT7" s="33"/>
-      <c r="BU7" s="33"/>
-      <c r="BV7" s="33"/>
-      <c r="BW7" s="33"/>
-      <c r="BX7" s="33"/>
-      <c r="BY7" s="33"/>
-      <c r="BZ7" s="33"/>
-      <c r="CA7" s="33"/>
-      <c r="CB7" s="33"/>
-      <c r="CC7" s="33"/>
-      <c r="CD7" s="33"/>
-      <c r="CE7" s="34"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="36"/>
+      <c r="BM7" s="36"/>
+      <c r="BN7" s="36"/>
+      <c r="BO7" s="36"/>
+      <c r="BP7" s="36"/>
+      <c r="BQ7" s="36"/>
+      <c r="BR7" s="36"/>
+      <c r="BS7" s="36"/>
+      <c r="BT7" s="36"/>
+      <c r="BU7" s="36"/>
+      <c r="BV7" s="36"/>
+      <c r="BW7" s="36"/>
+      <c r="BX7" s="36"/>
+      <c r="BY7" s="36"/>
+      <c r="BZ7" s="36"/>
+      <c r="CA7" s="36"/>
+      <c r="CB7" s="36"/>
+      <c r="CC7" s="36"/>
+      <c r="CD7" s="36"/>
+      <c r="CE7" s="37"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
@@ -12567,16 +12558,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
@@ -12620,34 +12611,34 @@
       <c r="BA8" s="29"/>
       <c r="BB8" s="29"/>
       <c r="BC8" s="29"/>
-      <c r="BD8" s="32"/>
-      <c r="BE8" s="33"/>
-      <c r="BF8" s="33"/>
-      <c r="BG8" s="33"/>
-      <c r="BH8" s="33"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="33"/>
-      <c r="BK8" s="33"/>
-      <c r="BL8" s="33"/>
-      <c r="BM8" s="33"/>
-      <c r="BN8" s="33"/>
-      <c r="BO8" s="33"/>
-      <c r="BP8" s="33"/>
-      <c r="BQ8" s="33"/>
-      <c r="BR8" s="33"/>
-      <c r="BS8" s="33"/>
-      <c r="BT8" s="33"/>
-      <c r="BU8" s="33"/>
-      <c r="BV8" s="33"/>
-      <c r="BW8" s="33"/>
-      <c r="BX8" s="33"/>
-      <c r="BY8" s="33"/>
-      <c r="BZ8" s="33"/>
-      <c r="CA8" s="33"/>
-      <c r="CB8" s="33"/>
-      <c r="CC8" s="33"/>
-      <c r="CD8" s="33"/>
-      <c r="CE8" s="34"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="36"/>
+      <c r="BG8" s="36"/>
+      <c r="BH8" s="36"/>
+      <c r="BI8" s="36"/>
+      <c r="BJ8" s="36"/>
+      <c r="BK8" s="36"/>
+      <c r="BL8" s="36"/>
+      <c r="BM8" s="36"/>
+      <c r="BN8" s="36"/>
+      <c r="BO8" s="36"/>
+      <c r="BP8" s="36"/>
+      <c r="BQ8" s="36"/>
+      <c r="BR8" s="36"/>
+      <c r="BS8" s="36"/>
+      <c r="BT8" s="36"/>
+      <c r="BU8" s="36"/>
+      <c r="BV8" s="36"/>
+      <c r="BW8" s="36"/>
+      <c r="BX8" s="36"/>
+      <c r="BY8" s="36"/>
+      <c r="BZ8" s="36"/>
+      <c r="CA8" s="36"/>
+      <c r="CB8" s="36"/>
+      <c r="CC8" s="36"/>
+      <c r="CD8" s="36"/>
+      <c r="CE8" s="37"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -12768,20 +12759,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="38" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="30" t="s">
         <v>10</v>
       </c>
@@ -12833,56 +12824,56 @@
       <c r="BA11" s="30"/>
       <c r="BB11" s="30"/>
       <c r="BC11" s="30"/>
-      <c r="BD11" s="38" t="s">
+      <c r="BD11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="BE11" s="39"/>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="39"/>
-      <c r="BH11" s="39"/>
-      <c r="BI11" s="39"/>
-      <c r="BJ11" s="39"/>
-      <c r="BK11" s="39"/>
-      <c r="BL11" s="39"/>
-      <c r="BM11" s="39"/>
-      <c r="BN11" s="39"/>
-      <c r="BO11" s="39"/>
-      <c r="BP11" s="39"/>
-      <c r="BQ11" s="39"/>
-      <c r="BR11" s="39"/>
-      <c r="BS11" s="39"/>
-      <c r="BT11" s="39"/>
-      <c r="BU11" s="39"/>
-      <c r="BV11" s="39"/>
-      <c r="BW11" s="39"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="39"/>
-      <c r="BZ11" s="39"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="39"/>
-      <c r="CC11" s="39"/>
-      <c r="CD11" s="39"/>
-      <c r="CE11" s="40"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="33"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="33"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="33"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="33"/>
+      <c r="BP11" s="33"/>
+      <c r="BQ11" s="33"/>
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="33"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="33"/>
+      <c r="BV11" s="33"/>
+      <c r="BW11" s="33"/>
+      <c r="BX11" s="33"/>
+      <c r="BY11" s="33"/>
+      <c r="BZ11" s="33"/>
+      <c r="CA11" s="33"/>
+      <c r="CB11" s="33"/>
+      <c r="CC11" s="33"/>
+      <c r="CD11" s="33"/>
+      <c r="CE11" s="34"/>
     </row>
     <row r="12" spans="1:83" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>1</v>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="29" t="s">
         <v>14</v>
       </c>
@@ -12895,7 +12886,7 @@
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
       <c r="V12" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -12906,7 +12897,7 @@
       <c r="AC12" s="29"/>
       <c r="AD12" s="29"/>
       <c r="AE12" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF12" s="29"/>
       <c r="AG12" s="29"/>
@@ -12917,7 +12908,7 @@
       <c r="AL12" s="29"/>
       <c r="AM12" s="29"/>
       <c r="AN12" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AO12" s="29"/>
       <c r="AP12" s="29"/>
@@ -12934,36 +12925,36 @@
       <c r="BA12" s="29"/>
       <c r="BB12" s="29"/>
       <c r="BC12" s="29"/>
-      <c r="BD12" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE12" s="33"/>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="33"/>
-      <c r="BH12" s="33"/>
-      <c r="BI12" s="33"/>
-      <c r="BJ12" s="33"/>
-      <c r="BK12" s="33"/>
-      <c r="BL12" s="33"/>
-      <c r="BM12" s="33"/>
-      <c r="BN12" s="33"/>
-      <c r="BO12" s="33"/>
-      <c r="BP12" s="33"/>
-      <c r="BQ12" s="33"/>
-      <c r="BR12" s="33"/>
-      <c r="BS12" s="33"/>
-      <c r="BT12" s="33"/>
-      <c r="BU12" s="33"/>
-      <c r="BV12" s="33"/>
-      <c r="BW12" s="33"/>
-      <c r="BX12" s="33"/>
-      <c r="BY12" s="33"/>
-      <c r="BZ12" s="33"/>
-      <c r="CA12" s="33"/>
-      <c r="CB12" s="33"/>
-      <c r="CC12" s="33"/>
-      <c r="CD12" s="33"/>
-      <c r="CE12" s="34"/>
+      <c r="BD12" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE12" s="36"/>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="36"/>
+      <c r="BI12" s="36"/>
+      <c r="BJ12" s="36"/>
+      <c r="BK12" s="36"/>
+      <c r="BL12" s="36"/>
+      <c r="BM12" s="36"/>
+      <c r="BN12" s="36"/>
+      <c r="BO12" s="36"/>
+      <c r="BP12" s="36"/>
+      <c r="BQ12" s="36"/>
+      <c r="BR12" s="36"/>
+      <c r="BS12" s="36"/>
+      <c r="BT12" s="36"/>
+      <c r="BU12" s="36"/>
+      <c r="BV12" s="36"/>
+      <c r="BW12" s="36"/>
+      <c r="BX12" s="36"/>
+      <c r="BY12" s="36"/>
+      <c r="BZ12" s="36"/>
+      <c r="CA12" s="36"/>
+      <c r="CB12" s="36"/>
+      <c r="CC12" s="36"/>
+      <c r="CD12" s="36"/>
+      <c r="CE12" s="37"/>
     </row>
     <row r="13" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
@@ -12971,22 +12962,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
@@ -12997,7 +12988,7 @@
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
       <c r="V13" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -13008,7 +12999,7 @@
       <c r="AC13" s="29"/>
       <c r="AD13" s="29"/>
       <c r="AE13" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF13" s="29"/>
       <c r="AG13" s="29"/>
@@ -13019,7 +13010,7 @@
       <c r="AL13" s="29"/>
       <c r="AM13" s="29"/>
       <c r="AN13" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AO13" s="29"/>
       <c r="AP13" s="29"/>
@@ -13036,36 +13027,36 @@
       <c r="BA13" s="29"/>
       <c r="BB13" s="29"/>
       <c r="BC13" s="29"/>
-      <c r="BD13" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE13" s="33"/>
-      <c r="BF13" s="33"/>
-      <c r="BG13" s="33"/>
-      <c r="BH13" s="33"/>
-      <c r="BI13" s="33"/>
-      <c r="BJ13" s="33"/>
-      <c r="BK13" s="33"/>
-      <c r="BL13" s="33"/>
-      <c r="BM13" s="33"/>
-      <c r="BN13" s="33"/>
-      <c r="BO13" s="33"/>
-      <c r="BP13" s="33"/>
-      <c r="BQ13" s="33"/>
-      <c r="BR13" s="33"/>
-      <c r="BS13" s="33"/>
-      <c r="BT13" s="33"/>
-      <c r="BU13" s="33"/>
-      <c r="BV13" s="33"/>
-      <c r="BW13" s="33"/>
-      <c r="BX13" s="33"/>
-      <c r="BY13" s="33"/>
-      <c r="BZ13" s="33"/>
-      <c r="CA13" s="33"/>
-      <c r="CB13" s="33"/>
-      <c r="CC13" s="33"/>
-      <c r="CD13" s="33"/>
-      <c r="CE13" s="34"/>
+      <c r="BD13" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="36"/>
+      <c r="BI13" s="36"/>
+      <c r="BJ13" s="36"/>
+      <c r="BK13" s="36"/>
+      <c r="BL13" s="36"/>
+      <c r="BM13" s="36"/>
+      <c r="BN13" s="36"/>
+      <c r="BO13" s="36"/>
+      <c r="BP13" s="36"/>
+      <c r="BQ13" s="36"/>
+      <c r="BR13" s="36"/>
+      <c r="BS13" s="36"/>
+      <c r="BT13" s="36"/>
+      <c r="BU13" s="36"/>
+      <c r="BV13" s="36"/>
+      <c r="BW13" s="36"/>
+      <c r="BX13" s="36"/>
+      <c r="BY13" s="36"/>
+      <c r="BZ13" s="36"/>
+      <c r="CA13" s="36"/>
+      <c r="CB13" s="36"/>
+      <c r="CC13" s="36"/>
+      <c r="CD13" s="36"/>
+      <c r="CE13" s="37"/>
     </row>
     <row r="14" spans="1:83" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
@@ -13073,22 +13064,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
+      <c r="C14" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
@@ -13099,7 +13090,7 @@
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
       <c r="V14" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -13110,7 +13101,7 @@
       <c r="AC14" s="29"/>
       <c r="AD14" s="29"/>
       <c r="AE14" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF14" s="29"/>
       <c r="AG14" s="29"/>
@@ -13121,7 +13112,7 @@
       <c r="AL14" s="29"/>
       <c r="AM14" s="29"/>
       <c r="AN14" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AO14" s="29"/>
       <c r="AP14" s="29"/>
@@ -13138,36 +13129,36 @@
       <c r="BA14" s="29"/>
       <c r="BB14" s="29"/>
       <c r="BC14" s="29"/>
-      <c r="BD14" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="BE14" s="33"/>
-      <c r="BF14" s="33"/>
-      <c r="BG14" s="33"/>
-      <c r="BH14" s="33"/>
-      <c r="BI14" s="33"/>
-      <c r="BJ14" s="33"/>
-      <c r="BK14" s="33"/>
-      <c r="BL14" s="33"/>
-      <c r="BM14" s="33"/>
-      <c r="BN14" s="33"/>
-      <c r="BO14" s="33"/>
-      <c r="BP14" s="33"/>
-      <c r="BQ14" s="33"/>
-      <c r="BR14" s="33"/>
-      <c r="BS14" s="33"/>
-      <c r="BT14" s="33"/>
-      <c r="BU14" s="33"/>
-      <c r="BV14" s="33"/>
-      <c r="BW14" s="33"/>
-      <c r="BX14" s="33"/>
-      <c r="BY14" s="33"/>
-      <c r="BZ14" s="33"/>
-      <c r="CA14" s="33"/>
-      <c r="CB14" s="33"/>
-      <c r="CC14" s="33"/>
-      <c r="CD14" s="33"/>
-      <c r="CE14" s="34"/>
+      <c r="BD14" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE14" s="36"/>
+      <c r="BF14" s="36"/>
+      <c r="BG14" s="36"/>
+      <c r="BH14" s="36"/>
+      <c r="BI14" s="36"/>
+      <c r="BJ14" s="36"/>
+      <c r="BK14" s="36"/>
+      <c r="BL14" s="36"/>
+      <c r="BM14" s="36"/>
+      <c r="BN14" s="36"/>
+      <c r="BO14" s="36"/>
+      <c r="BP14" s="36"/>
+      <c r="BQ14" s="36"/>
+      <c r="BR14" s="36"/>
+      <c r="BS14" s="36"/>
+      <c r="BT14" s="36"/>
+      <c r="BU14" s="36"/>
+      <c r="BV14" s="36"/>
+      <c r="BW14" s="36"/>
+      <c r="BX14" s="36"/>
+      <c r="BY14" s="36"/>
+      <c r="BZ14" s="36"/>
+      <c r="CA14" s="36"/>
+      <c r="CB14" s="36"/>
+      <c r="CC14" s="36"/>
+      <c r="CD14" s="36"/>
+      <c r="CE14" s="37"/>
     </row>
     <row r="15" spans="1:83" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
@@ -13175,22 +13166,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
@@ -13201,7 +13192,7 @@
       <c r="T15" s="29"/>
       <c r="U15" s="29"/>
       <c r="V15" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -13212,7 +13203,7 @@
       <c r="AC15" s="29"/>
       <c r="AD15" s="29"/>
       <c r="AE15" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF15" s="29"/>
       <c r="AG15" s="29"/>
@@ -13223,7 +13214,7 @@
       <c r="AL15" s="29"/>
       <c r="AM15" s="29"/>
       <c r="AN15" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AO15" s="29"/>
       <c r="AP15" s="29"/>
@@ -13240,36 +13231,36 @@
       <c r="BA15" s="29"/>
       <c r="BB15" s="29"/>
       <c r="BC15" s="29"/>
-      <c r="BD15" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE15" s="33"/>
-      <c r="BF15" s="33"/>
-      <c r="BG15" s="33"/>
-      <c r="BH15" s="33"/>
-      <c r="BI15" s="33"/>
-      <c r="BJ15" s="33"/>
-      <c r="BK15" s="33"/>
-      <c r="BL15" s="33"/>
-      <c r="BM15" s="33"/>
-      <c r="BN15" s="33"/>
-      <c r="BO15" s="33"/>
-      <c r="BP15" s="33"/>
-      <c r="BQ15" s="33"/>
-      <c r="BR15" s="33"/>
-      <c r="BS15" s="33"/>
-      <c r="BT15" s="33"/>
-      <c r="BU15" s="33"/>
-      <c r="BV15" s="33"/>
-      <c r="BW15" s="33"/>
-      <c r="BX15" s="33"/>
-      <c r="BY15" s="33"/>
-      <c r="BZ15" s="33"/>
-      <c r="CA15" s="33"/>
-      <c r="CB15" s="33"/>
-      <c r="CC15" s="33"/>
-      <c r="CD15" s="33"/>
-      <c r="CE15" s="34"/>
+      <c r="BD15" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE15" s="36"/>
+      <c r="BF15" s="36"/>
+      <c r="BG15" s="36"/>
+      <c r="BH15" s="36"/>
+      <c r="BI15" s="36"/>
+      <c r="BJ15" s="36"/>
+      <c r="BK15" s="36"/>
+      <c r="BL15" s="36"/>
+      <c r="BM15" s="36"/>
+      <c r="BN15" s="36"/>
+      <c r="BO15" s="36"/>
+      <c r="BP15" s="36"/>
+      <c r="BQ15" s="36"/>
+      <c r="BR15" s="36"/>
+      <c r="BS15" s="36"/>
+      <c r="BT15" s="36"/>
+      <c r="BU15" s="36"/>
+      <c r="BV15" s="36"/>
+      <c r="BW15" s="36"/>
+      <c r="BX15" s="36"/>
+      <c r="BY15" s="36"/>
+      <c r="BZ15" s="36"/>
+      <c r="CA15" s="36"/>
+      <c r="CB15" s="36"/>
+      <c r="CC15" s="36"/>
+      <c r="CD15" s="36"/>
+      <c r="CE15" s="37"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
@@ -13277,16 +13268,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
@@ -13330,34 +13321,34 @@
       <c r="BA16" s="29"/>
       <c r="BB16" s="29"/>
       <c r="BC16" s="29"/>
-      <c r="BD16" s="32"/>
-      <c r="BE16" s="33"/>
-      <c r="BF16" s="33"/>
-      <c r="BG16" s="33"/>
-      <c r="BH16" s="33"/>
-      <c r="BI16" s="33"/>
-      <c r="BJ16" s="33"/>
-      <c r="BK16" s="33"/>
-      <c r="BL16" s="33"/>
-      <c r="BM16" s="33"/>
-      <c r="BN16" s="33"/>
-      <c r="BO16" s="33"/>
-      <c r="BP16" s="33"/>
-      <c r="BQ16" s="33"/>
-      <c r="BR16" s="33"/>
-      <c r="BS16" s="33"/>
-      <c r="BT16" s="33"/>
-      <c r="BU16" s="33"/>
-      <c r="BV16" s="33"/>
-      <c r="BW16" s="33"/>
-      <c r="BX16" s="33"/>
-      <c r="BY16" s="33"/>
-      <c r="BZ16" s="33"/>
-      <c r="CA16" s="33"/>
-      <c r="CB16" s="33"/>
-      <c r="CC16" s="33"/>
-      <c r="CD16" s="33"/>
-      <c r="CE16" s="34"/>
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="36"/>
+      <c r="BF16" s="36"/>
+      <c r="BG16" s="36"/>
+      <c r="BH16" s="36"/>
+      <c r="BI16" s="36"/>
+      <c r="BJ16" s="36"/>
+      <c r="BK16" s="36"/>
+      <c r="BL16" s="36"/>
+      <c r="BM16" s="36"/>
+      <c r="BN16" s="36"/>
+      <c r="BO16" s="36"/>
+      <c r="BP16" s="36"/>
+      <c r="BQ16" s="36"/>
+      <c r="BR16" s="36"/>
+      <c r="BS16" s="36"/>
+      <c r="BT16" s="36"/>
+      <c r="BU16" s="36"/>
+      <c r="BV16" s="36"/>
+      <c r="BW16" s="36"/>
+      <c r="BX16" s="36"/>
+      <c r="BY16" s="36"/>
+      <c r="BZ16" s="36"/>
+      <c r="CA16" s="36"/>
+      <c r="CB16" s="36"/>
+      <c r="CC16" s="36"/>
+      <c r="CD16" s="36"/>
+      <c r="CE16" s="37"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
@@ -13365,16 +13356,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
@@ -13418,34 +13409,34 @@
       <c r="BA17" s="29"/>
       <c r="BB17" s="29"/>
       <c r="BC17" s="29"/>
-      <c r="BD17" s="32"/>
-      <c r="BE17" s="33"/>
-      <c r="BF17" s="33"/>
-      <c r="BG17" s="33"/>
-      <c r="BH17" s="33"/>
-      <c r="BI17" s="33"/>
-      <c r="BJ17" s="33"/>
-      <c r="BK17" s="33"/>
-      <c r="BL17" s="33"/>
-      <c r="BM17" s="33"/>
-      <c r="BN17" s="33"/>
-      <c r="BO17" s="33"/>
-      <c r="BP17" s="33"/>
-      <c r="BQ17" s="33"/>
-      <c r="BR17" s="33"/>
-      <c r="BS17" s="33"/>
-      <c r="BT17" s="33"/>
-      <c r="BU17" s="33"/>
-      <c r="BV17" s="33"/>
-      <c r="BW17" s="33"/>
-      <c r="BX17" s="33"/>
-      <c r="BY17" s="33"/>
-      <c r="BZ17" s="33"/>
-      <c r="CA17" s="33"/>
-      <c r="CB17" s="33"/>
-      <c r="CC17" s="33"/>
-      <c r="CD17" s="33"/>
-      <c r="CE17" s="34"/>
+      <c r="BD17" s="35"/>
+      <c r="BE17" s="36"/>
+      <c r="BF17" s="36"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="36"/>
+      <c r="BJ17" s="36"/>
+      <c r="BK17" s="36"/>
+      <c r="BL17" s="36"/>
+      <c r="BM17" s="36"/>
+      <c r="BN17" s="36"/>
+      <c r="BO17" s="36"/>
+      <c r="BP17" s="36"/>
+      <c r="BQ17" s="36"/>
+      <c r="BR17" s="36"/>
+      <c r="BS17" s="36"/>
+      <c r="BT17" s="36"/>
+      <c r="BU17" s="36"/>
+      <c r="BV17" s="36"/>
+      <c r="BW17" s="36"/>
+      <c r="BX17" s="36"/>
+      <c r="BY17" s="36"/>
+      <c r="BZ17" s="36"/>
+      <c r="CA17" s="36"/>
+      <c r="CB17" s="36"/>
+      <c r="CC17" s="36"/>
+      <c r="CD17" s="36"/>
+      <c r="CE17" s="37"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
@@ -13453,16 +13444,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
@@ -13506,34 +13497,34 @@
       <c r="BA18" s="29"/>
       <c r="BB18" s="29"/>
       <c r="BC18" s="29"/>
-      <c r="BD18" s="32"/>
-      <c r="BE18" s="33"/>
-      <c r="BF18" s="33"/>
-      <c r="BG18" s="33"/>
-      <c r="BH18" s="33"/>
-      <c r="BI18" s="33"/>
-      <c r="BJ18" s="33"/>
-      <c r="BK18" s="33"/>
-      <c r="BL18" s="33"/>
-      <c r="BM18" s="33"/>
-      <c r="BN18" s="33"/>
-      <c r="BO18" s="33"/>
-      <c r="BP18" s="33"/>
-      <c r="BQ18" s="33"/>
-      <c r="BR18" s="33"/>
-      <c r="BS18" s="33"/>
-      <c r="BT18" s="33"/>
-      <c r="BU18" s="33"/>
-      <c r="BV18" s="33"/>
-      <c r="BW18" s="33"/>
-      <c r="BX18" s="33"/>
-      <c r="BY18" s="33"/>
-      <c r="BZ18" s="33"/>
-      <c r="CA18" s="33"/>
-      <c r="CB18" s="33"/>
-      <c r="CC18" s="33"/>
-      <c r="CD18" s="33"/>
-      <c r="CE18" s="34"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="36"/>
+      <c r="BJ18" s="36"/>
+      <c r="BK18" s="36"/>
+      <c r="BL18" s="36"/>
+      <c r="BM18" s="36"/>
+      <c r="BN18" s="36"/>
+      <c r="BO18" s="36"/>
+      <c r="BP18" s="36"/>
+      <c r="BQ18" s="36"/>
+      <c r="BR18" s="36"/>
+      <c r="BS18" s="36"/>
+      <c r="BT18" s="36"/>
+      <c r="BU18" s="36"/>
+      <c r="BV18" s="36"/>
+      <c r="BW18" s="36"/>
+      <c r="BX18" s="36"/>
+      <c r="BY18" s="36"/>
+      <c r="BZ18" s="36"/>
+      <c r="CA18" s="36"/>
+      <c r="CB18" s="36"/>
+      <c r="CC18" s="36"/>
+      <c r="CD18" s="36"/>
+      <c r="CE18" s="37"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
@@ -13541,16 +13532,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
@@ -13594,34 +13585,34 @@
       <c r="BA19" s="29"/>
       <c r="BB19" s="29"/>
       <c r="BC19" s="29"/>
-      <c r="BD19" s="32"/>
-      <c r="BE19" s="33"/>
-      <c r="BF19" s="33"/>
-      <c r="BG19" s="33"/>
-      <c r="BH19" s="33"/>
-      <c r="BI19" s="33"/>
-      <c r="BJ19" s="33"/>
-      <c r="BK19" s="33"/>
-      <c r="BL19" s="33"/>
-      <c r="BM19" s="33"/>
-      <c r="BN19" s="33"/>
-      <c r="BO19" s="33"/>
-      <c r="BP19" s="33"/>
-      <c r="BQ19" s="33"/>
-      <c r="BR19" s="33"/>
-      <c r="BS19" s="33"/>
-      <c r="BT19" s="33"/>
-      <c r="BU19" s="33"/>
-      <c r="BV19" s="33"/>
-      <c r="BW19" s="33"/>
-      <c r="BX19" s="33"/>
-      <c r="BY19" s="33"/>
-      <c r="BZ19" s="33"/>
-      <c r="CA19" s="33"/>
-      <c r="CB19" s="33"/>
-      <c r="CC19" s="33"/>
-      <c r="CD19" s="33"/>
-      <c r="CE19" s="34"/>
+      <c r="BD19" s="35"/>
+      <c r="BE19" s="36"/>
+      <c r="BF19" s="36"/>
+      <c r="BG19" s="36"/>
+      <c r="BH19" s="36"/>
+      <c r="BI19" s="36"/>
+      <c r="BJ19" s="36"/>
+      <c r="BK19" s="36"/>
+      <c r="BL19" s="36"/>
+      <c r="BM19" s="36"/>
+      <c r="BN19" s="36"/>
+      <c r="BO19" s="36"/>
+      <c r="BP19" s="36"/>
+      <c r="BQ19" s="36"/>
+      <c r="BR19" s="36"/>
+      <c r="BS19" s="36"/>
+      <c r="BT19" s="36"/>
+      <c r="BU19" s="36"/>
+      <c r="BV19" s="36"/>
+      <c r="BW19" s="36"/>
+      <c r="BX19" s="36"/>
+      <c r="BY19" s="36"/>
+      <c r="BZ19" s="36"/>
+      <c r="CA19" s="36"/>
+      <c r="CB19" s="36"/>
+      <c r="CC19" s="36"/>
+      <c r="CD19" s="36"/>
+      <c r="CE19" s="37"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
@@ -13629,16 +13620,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
@@ -13682,34 +13673,34 @@
       <c r="BA20" s="29"/>
       <c r="BB20" s="29"/>
       <c r="BC20" s="29"/>
-      <c r="BD20" s="32"/>
-      <c r="BE20" s="33"/>
-      <c r="BF20" s="33"/>
-      <c r="BG20" s="33"/>
-      <c r="BH20" s="33"/>
-      <c r="BI20" s="33"/>
-      <c r="BJ20" s="33"/>
-      <c r="BK20" s="33"/>
-      <c r="BL20" s="33"/>
-      <c r="BM20" s="33"/>
-      <c r="BN20" s="33"/>
-      <c r="BO20" s="33"/>
-      <c r="BP20" s="33"/>
-      <c r="BQ20" s="33"/>
-      <c r="BR20" s="33"/>
-      <c r="BS20" s="33"/>
-      <c r="BT20" s="33"/>
-      <c r="BU20" s="33"/>
-      <c r="BV20" s="33"/>
-      <c r="BW20" s="33"/>
-      <c r="BX20" s="33"/>
-      <c r="BY20" s="33"/>
-      <c r="BZ20" s="33"/>
-      <c r="CA20" s="33"/>
-      <c r="CB20" s="33"/>
-      <c r="CC20" s="33"/>
-      <c r="CD20" s="33"/>
-      <c r="CE20" s="34"/>
+      <c r="BD20" s="35"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="36"/>
+      <c r="BR20" s="36"/>
+      <c r="BS20" s="36"/>
+      <c r="BT20" s="36"/>
+      <c r="BU20" s="36"/>
+      <c r="BV20" s="36"/>
+      <c r="BW20" s="36"/>
+      <c r="BX20" s="36"/>
+      <c r="BY20" s="36"/>
+      <c r="BZ20" s="36"/>
+      <c r="CA20" s="36"/>
+      <c r="CB20" s="36"/>
+      <c r="CC20" s="36"/>
+      <c r="CD20" s="36"/>
+      <c r="CE20" s="37"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
@@ -13717,16 +13708,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
@@ -13770,54 +13761,54 @@
       <c r="BA21" s="29"/>
       <c r="BB21" s="29"/>
       <c r="BC21" s="29"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="33"/>
-      <c r="BF21" s="33"/>
-      <c r="BG21" s="33"/>
-      <c r="BH21" s="33"/>
-      <c r="BI21" s="33"/>
-      <c r="BJ21" s="33"/>
-      <c r="BK21" s="33"/>
-      <c r="BL21" s="33"/>
-      <c r="BM21" s="33"/>
-      <c r="BN21" s="33"/>
-      <c r="BO21" s="33"/>
-      <c r="BP21" s="33"/>
-      <c r="BQ21" s="33"/>
-      <c r="BR21" s="33"/>
-      <c r="BS21" s="33"/>
-      <c r="BT21" s="33"/>
-      <c r="BU21" s="33"/>
-      <c r="BV21" s="33"/>
-      <c r="BW21" s="33"/>
-      <c r="BX21" s="33"/>
-      <c r="BY21" s="33"/>
-      <c r="BZ21" s="33"/>
-      <c r="CA21" s="33"/>
-      <c r="CB21" s="33"/>
-      <c r="CC21" s="33"/>
-      <c r="CD21" s="33"/>
-      <c r="CE21" s="34"/>
+      <c r="BD21" s="35"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="36"/>
+      <c r="BM21" s="36"/>
+      <c r="BN21" s="36"/>
+      <c r="BO21" s="36"/>
+      <c r="BP21" s="36"/>
+      <c r="BQ21" s="36"/>
+      <c r="BR21" s="36"/>
+      <c r="BS21" s="36"/>
+      <c r="BT21" s="36"/>
+      <c r="BU21" s="36"/>
+      <c r="BV21" s="36"/>
+      <c r="BW21" s="36"/>
+      <c r="BX21" s="36"/>
+      <c r="BY21" s="36"/>
+      <c r="BZ21" s="36"/>
+      <c r="CA21" s="36"/>
+      <c r="CB21" s="36"/>
+      <c r="CC21" s="36"/>
+      <c r="CD21" s="36"/>
+      <c r="CE21" s="37"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="38" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="30" t="s">
         <v>5</v>
       </c>
@@ -13867,58 +13858,58 @@
       <c r="BA24" s="30"/>
       <c r="BB24" s="30"/>
       <c r="BC24" s="30"/>
-      <c r="BD24" s="38" t="s">
+      <c r="BD24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="BE24" s="39"/>
-      <c r="BF24" s="39"/>
-      <c r="BG24" s="39"/>
-      <c r="BH24" s="39"/>
-      <c r="BI24" s="39"/>
-      <c r="BJ24" s="39"/>
-      <c r="BK24" s="39"/>
-      <c r="BL24" s="39"/>
-      <c r="BM24" s="39"/>
-      <c r="BN24" s="39"/>
-      <c r="BO24" s="39"/>
-      <c r="BP24" s="39"/>
-      <c r="BQ24" s="39"/>
-      <c r="BR24" s="39"/>
-      <c r="BS24" s="39"/>
-      <c r="BT24" s="39"/>
-      <c r="BU24" s="39"/>
-      <c r="BV24" s="39"/>
-      <c r="BW24" s="39"/>
-      <c r="BX24" s="39"/>
-      <c r="BY24" s="39"/>
-      <c r="BZ24" s="39"/>
-      <c r="CA24" s="39"/>
-      <c r="CB24" s="39"/>
-      <c r="CC24" s="39"/>
-      <c r="CD24" s="39"/>
-      <c r="CE24" s="40"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="33"/>
+      <c r="BG24" s="33"/>
+      <c r="BH24" s="33"/>
+      <c r="BI24" s="33"/>
+      <c r="BJ24" s="33"/>
+      <c r="BK24" s="33"/>
+      <c r="BL24" s="33"/>
+      <c r="BM24" s="33"/>
+      <c r="BN24" s="33"/>
+      <c r="BO24" s="33"/>
+      <c r="BP24" s="33"/>
+      <c r="BQ24" s="33"/>
+      <c r="BR24" s="33"/>
+      <c r="BS24" s="33"/>
+      <c r="BT24" s="33"/>
+      <c r="BU24" s="33"/>
+      <c r="BV24" s="33"/>
+      <c r="BW24" s="33"/>
+      <c r="BX24" s="33"/>
+      <c r="BY24" s="33"/>
+      <c r="BZ24" s="33"/>
+      <c r="CA24" s="33"/>
+      <c r="CB24" s="33"/>
+      <c r="CC24" s="33"/>
+      <c r="CD24" s="33"/>
+      <c r="CE24" s="34"/>
     </row>
     <row r="25" spans="1:83" ht="67.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>1</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
@@ -13932,7 +13923,7 @@
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
       <c r="Y25" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z25" s="29"/>
       <c r="AA25" s="29"/>
@@ -13946,7 +13937,7 @@
       <c r="AI25" s="29"/>
       <c r="AJ25" s="29"/>
       <c r="AK25" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AL25" s="29"/>
       <c r="AM25" s="29"/>
@@ -13966,36 +13957,36 @@
       <c r="BA25" s="29"/>
       <c r="BB25" s="29"/>
       <c r="BC25" s="29"/>
-      <c r="BD25" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE25" s="33"/>
-      <c r="BF25" s="33"/>
-      <c r="BG25" s="33"/>
-      <c r="BH25" s="33"/>
-      <c r="BI25" s="33"/>
-      <c r="BJ25" s="33"/>
-      <c r="BK25" s="33"/>
-      <c r="BL25" s="33"/>
-      <c r="BM25" s="33"/>
-      <c r="BN25" s="33"/>
-      <c r="BO25" s="33"/>
-      <c r="BP25" s="33"/>
-      <c r="BQ25" s="33"/>
-      <c r="BR25" s="33"/>
-      <c r="BS25" s="33"/>
-      <c r="BT25" s="33"/>
-      <c r="BU25" s="33"/>
-      <c r="BV25" s="33"/>
-      <c r="BW25" s="33"/>
-      <c r="BX25" s="33"/>
-      <c r="BY25" s="33"/>
-      <c r="BZ25" s="33"/>
-      <c r="CA25" s="33"/>
-      <c r="CB25" s="33"/>
-      <c r="CC25" s="33"/>
-      <c r="CD25" s="33"/>
-      <c r="CE25" s="34"/>
+      <c r="BD25" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE25" s="36"/>
+      <c r="BF25" s="36"/>
+      <c r="BG25" s="36"/>
+      <c r="BH25" s="36"/>
+      <c r="BI25" s="36"/>
+      <c r="BJ25" s="36"/>
+      <c r="BK25" s="36"/>
+      <c r="BL25" s="36"/>
+      <c r="BM25" s="36"/>
+      <c r="BN25" s="36"/>
+      <c r="BO25" s="36"/>
+      <c r="BP25" s="36"/>
+      <c r="BQ25" s="36"/>
+      <c r="BR25" s="36"/>
+      <c r="BS25" s="36"/>
+      <c r="BT25" s="36"/>
+      <c r="BU25" s="36"/>
+      <c r="BV25" s="36"/>
+      <c r="BW25" s="36"/>
+      <c r="BX25" s="36"/>
+      <c r="BY25" s="36"/>
+      <c r="BZ25" s="36"/>
+      <c r="CA25" s="36"/>
+      <c r="CB25" s="36"/>
+      <c r="CC25" s="36"/>
+      <c r="CD25" s="36"/>
+      <c r="CE25" s="37"/>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
@@ -14003,16 +13994,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
@@ -14056,34 +14047,34 @@
       <c r="BA26" s="29"/>
       <c r="BB26" s="29"/>
       <c r="BC26" s="29"/>
-      <c r="BD26" s="32"/>
-      <c r="BE26" s="33"/>
-      <c r="BF26" s="33"/>
-      <c r="BG26" s="33"/>
-      <c r="BH26" s="33"/>
-      <c r="BI26" s="33"/>
-      <c r="BJ26" s="33"/>
-      <c r="BK26" s="33"/>
-      <c r="BL26" s="33"/>
-      <c r="BM26" s="33"/>
-      <c r="BN26" s="33"/>
-      <c r="BO26" s="33"/>
-      <c r="BP26" s="33"/>
-      <c r="BQ26" s="33"/>
-      <c r="BR26" s="33"/>
-      <c r="BS26" s="33"/>
-      <c r="BT26" s="33"/>
-      <c r="BU26" s="33"/>
-      <c r="BV26" s="33"/>
-      <c r="BW26" s="33"/>
-      <c r="BX26" s="33"/>
-      <c r="BY26" s="33"/>
-      <c r="BZ26" s="33"/>
-      <c r="CA26" s="33"/>
-      <c r="CB26" s="33"/>
-      <c r="CC26" s="33"/>
-      <c r="CD26" s="33"/>
-      <c r="CE26" s="34"/>
+      <c r="BD26" s="35"/>
+      <c r="BE26" s="36"/>
+      <c r="BF26" s="36"/>
+      <c r="BG26" s="36"/>
+      <c r="BH26" s="36"/>
+      <c r="BI26" s="36"/>
+      <c r="BJ26" s="36"/>
+      <c r="BK26" s="36"/>
+      <c r="BL26" s="36"/>
+      <c r="BM26" s="36"/>
+      <c r="BN26" s="36"/>
+      <c r="BO26" s="36"/>
+      <c r="BP26" s="36"/>
+      <c r="BQ26" s="36"/>
+      <c r="BR26" s="36"/>
+      <c r="BS26" s="36"/>
+      <c r="BT26" s="36"/>
+      <c r="BU26" s="36"/>
+      <c r="BV26" s="36"/>
+      <c r="BW26" s="36"/>
+      <c r="BX26" s="36"/>
+      <c r="BY26" s="36"/>
+      <c r="BZ26" s="36"/>
+      <c r="CA26" s="36"/>
+      <c r="CB26" s="36"/>
+      <c r="CC26" s="36"/>
+      <c r="CD26" s="36"/>
+      <c r="CE26" s="37"/>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
@@ -14091,16 +14082,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
@@ -14144,34 +14135,34 @@
       <c r="BA27" s="29"/>
       <c r="BB27" s="29"/>
       <c r="BC27" s="29"/>
-      <c r="BD27" s="32"/>
-      <c r="BE27" s="33"/>
-      <c r="BF27" s="33"/>
-      <c r="BG27" s="33"/>
-      <c r="BH27" s="33"/>
-      <c r="BI27" s="33"/>
-      <c r="BJ27" s="33"/>
-      <c r="BK27" s="33"/>
-      <c r="BL27" s="33"/>
-      <c r="BM27" s="33"/>
-      <c r="BN27" s="33"/>
-      <c r="BO27" s="33"/>
-      <c r="BP27" s="33"/>
-      <c r="BQ27" s="33"/>
-      <c r="BR27" s="33"/>
-      <c r="BS27" s="33"/>
-      <c r="BT27" s="33"/>
-      <c r="BU27" s="33"/>
-      <c r="BV27" s="33"/>
-      <c r="BW27" s="33"/>
-      <c r="BX27" s="33"/>
-      <c r="BY27" s="33"/>
-      <c r="BZ27" s="33"/>
-      <c r="CA27" s="33"/>
-      <c r="CB27" s="33"/>
-      <c r="CC27" s="33"/>
-      <c r="CD27" s="33"/>
-      <c r="CE27" s="34"/>
+      <c r="BD27" s="35"/>
+      <c r="BE27" s="36"/>
+      <c r="BF27" s="36"/>
+      <c r="BG27" s="36"/>
+      <c r="BH27" s="36"/>
+      <c r="BI27" s="36"/>
+      <c r="BJ27" s="36"/>
+      <c r="BK27" s="36"/>
+      <c r="BL27" s="36"/>
+      <c r="BM27" s="36"/>
+      <c r="BN27" s="36"/>
+      <c r="BO27" s="36"/>
+      <c r="BP27" s="36"/>
+      <c r="BQ27" s="36"/>
+      <c r="BR27" s="36"/>
+      <c r="BS27" s="36"/>
+      <c r="BT27" s="36"/>
+      <c r="BU27" s="36"/>
+      <c r="BV27" s="36"/>
+      <c r="BW27" s="36"/>
+      <c r="BX27" s="36"/>
+      <c r="BY27" s="36"/>
+      <c r="BZ27" s="36"/>
+      <c r="CA27" s="36"/>
+      <c r="CB27" s="36"/>
+      <c r="CC27" s="36"/>
+      <c r="CD27" s="36"/>
+      <c r="CE27" s="37"/>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="31">
@@ -14179,16 +14170,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
@@ -14232,34 +14223,34 @@
       <c r="BA28" s="29"/>
       <c r="BB28" s="29"/>
       <c r="BC28" s="29"/>
-      <c r="BD28" s="32"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="33"/>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
-      <c r="BI28" s="33"/>
-      <c r="BJ28" s="33"/>
-      <c r="BK28" s="33"/>
-      <c r="BL28" s="33"/>
-      <c r="BM28" s="33"/>
-      <c r="BN28" s="33"/>
-      <c r="BO28" s="33"/>
-      <c r="BP28" s="33"/>
-      <c r="BQ28" s="33"/>
-      <c r="BR28" s="33"/>
-      <c r="BS28" s="33"/>
-      <c r="BT28" s="33"/>
-      <c r="BU28" s="33"/>
-      <c r="BV28" s="33"/>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="33"/>
-      <c r="BY28" s="33"/>
-      <c r="BZ28" s="33"/>
-      <c r="CA28" s="33"/>
-      <c r="CB28" s="33"/>
-      <c r="CC28" s="33"/>
-      <c r="CD28" s="33"/>
-      <c r="CE28" s="34"/>
+      <c r="BD28" s="35"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="36"/>
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="36"/>
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="36"/>
+      <c r="BM28" s="36"/>
+      <c r="BN28" s="36"/>
+      <c r="BO28" s="36"/>
+      <c r="BP28" s="36"/>
+      <c r="BQ28" s="36"/>
+      <c r="BR28" s="36"/>
+      <c r="BS28" s="36"/>
+      <c r="BT28" s="36"/>
+      <c r="BU28" s="36"/>
+      <c r="BV28" s="36"/>
+      <c r="BW28" s="36"/>
+      <c r="BX28" s="36"/>
+      <c r="BY28" s="36"/>
+      <c r="BZ28" s="36"/>
+      <c r="CA28" s="36"/>
+      <c r="CB28" s="36"/>
+      <c r="CC28" s="36"/>
+      <c r="CD28" s="36"/>
+      <c r="CE28" s="37"/>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
@@ -14267,16 +14258,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
@@ -14320,72 +14311,134 @@
       <c r="BA29" s="29"/>
       <c r="BB29" s="29"/>
       <c r="BC29" s="29"/>
-      <c r="BD29" s="32"/>
-      <c r="BE29" s="33"/>
-      <c r="BF29" s="33"/>
-      <c r="BG29" s="33"/>
-      <c r="BH29" s="33"/>
-      <c r="BI29" s="33"/>
-      <c r="BJ29" s="33"/>
-      <c r="BK29" s="33"/>
-      <c r="BL29" s="33"/>
-      <c r="BM29" s="33"/>
-      <c r="BN29" s="33"/>
-      <c r="BO29" s="33"/>
-      <c r="BP29" s="33"/>
-      <c r="BQ29" s="33"/>
-      <c r="BR29" s="33"/>
-      <c r="BS29" s="33"/>
-      <c r="BT29" s="33"/>
-      <c r="BU29" s="33"/>
-      <c r="BV29" s="33"/>
-      <c r="BW29" s="33"/>
-      <c r="BX29" s="33"/>
-      <c r="BY29" s="33"/>
-      <c r="BZ29" s="33"/>
-      <c r="CA29" s="33"/>
-      <c r="CB29" s="33"/>
-      <c r="CC29" s="33"/>
-      <c r="CD29" s="33"/>
-      <c r="CE29" s="34"/>
+      <c r="BD29" s="35"/>
+      <c r="BE29" s="36"/>
+      <c r="BF29" s="36"/>
+      <c r="BG29" s="36"/>
+      <c r="BH29" s="36"/>
+      <c r="BI29" s="36"/>
+      <c r="BJ29" s="36"/>
+      <c r="BK29" s="36"/>
+      <c r="BL29" s="36"/>
+      <c r="BM29" s="36"/>
+      <c r="BN29" s="36"/>
+      <c r="BO29" s="36"/>
+      <c r="BP29" s="36"/>
+      <c r="BQ29" s="36"/>
+      <c r="BR29" s="36"/>
+      <c r="BS29" s="36"/>
+      <c r="BT29" s="36"/>
+      <c r="BU29" s="36"/>
+      <c r="BV29" s="36"/>
+      <c r="BW29" s="36"/>
+      <c r="BX29" s="36"/>
+      <c r="BY29" s="36"/>
+      <c r="BZ29" s="36"/>
+      <c r="CA29" s="36"/>
+      <c r="CB29" s="36"/>
+      <c r="CC29" s="36"/>
+      <c r="CD29" s="36"/>
+      <c r="CE29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="V21:AD21"/>
+    <mergeCell ref="AE21:AM21"/>
+    <mergeCell ref="AN21:BC21"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="BD19:CE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="V20:AD20"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AN20:BC20"/>
+    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="V18:AD18"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AN18:BC18"/>
+    <mergeCell ref="BD18:CE18"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="M29:X29"/>
+    <mergeCell ref="Y29:AJ29"/>
+    <mergeCell ref="AK29:BC29"/>
+    <mergeCell ref="BD5:CE5"/>
+    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="BD7:CE7"/>
+    <mergeCell ref="BD8:CE8"/>
+    <mergeCell ref="BD11:CE11"/>
+    <mergeCell ref="BD12:CE12"/>
+    <mergeCell ref="BD13:CE13"/>
+    <mergeCell ref="BD14:CE14"/>
+    <mergeCell ref="BD15:CE15"/>
+    <mergeCell ref="BD16:CE16"/>
+    <mergeCell ref="BD24:CE24"/>
+    <mergeCell ref="BD25:CE25"/>
+    <mergeCell ref="BD26:CE26"/>
+    <mergeCell ref="BD27:CE27"/>
+    <mergeCell ref="BD28:CE28"/>
+    <mergeCell ref="BD29:CE29"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="M28:X28"/>
+    <mergeCell ref="Y28:AJ28"/>
+    <mergeCell ref="AK28:BC28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="AK27:BC27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="Y26:AJ26"/>
+    <mergeCell ref="AK26:BC26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M25:X25"/>
+    <mergeCell ref="Y25:AJ25"/>
+    <mergeCell ref="AK25:BC25"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M14:U14"/>
     <mergeCell ref="AK24:BC24"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="AN16:BC16"/>
@@ -14410,103 +14463,41 @@
     <mergeCell ref="AE19:AM19"/>
     <mergeCell ref="AN19:BC19"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="Y26:AJ26"/>
-    <mergeCell ref="AK26:BC26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M25:X25"/>
-    <mergeCell ref="Y25:AJ25"/>
-    <mergeCell ref="AK25:BC25"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK28:BC28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="M27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="AK27:BC27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="M29:X29"/>
-    <mergeCell ref="Y29:AJ29"/>
-    <mergeCell ref="AK29:BC29"/>
-    <mergeCell ref="BD5:CE5"/>
-    <mergeCell ref="BD6:CE6"/>
-    <mergeCell ref="BD7:CE7"/>
-    <mergeCell ref="BD8:CE8"/>
-    <mergeCell ref="BD11:CE11"/>
-    <mergeCell ref="BD12:CE12"/>
-    <mergeCell ref="BD13:CE13"/>
-    <mergeCell ref="BD14:CE14"/>
-    <mergeCell ref="BD15:CE15"/>
-    <mergeCell ref="BD16:CE16"/>
-    <mergeCell ref="BD24:CE24"/>
-    <mergeCell ref="BD25:CE25"/>
-    <mergeCell ref="BD26:CE26"/>
-    <mergeCell ref="BD27:CE27"/>
-    <mergeCell ref="BD28:CE28"/>
-    <mergeCell ref="BD29:CE29"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="M28:X28"/>
-    <mergeCell ref="Y28:AJ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="V18:AD18"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AN18:BC18"/>
-    <mergeCell ref="BD18:CE18"/>
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="V21:AD21"/>
-    <mergeCell ref="AE21:AM21"/>
-    <mergeCell ref="AN21:BC21"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="BD19:CE19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="V20:AD20"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AN20:BC20"/>
-    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14571,7 +14562,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="42" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="42"/>
@@ -14582,31 +14573,31 @@
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
-      <c r="M3" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
+      <c r="M3" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="41">
@@ -14624,29 +14615,29 @@
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
@@ -14664,29 +14655,29 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="41">
@@ -14704,29 +14695,29 @@
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="41">
@@ -14744,38 +14735,32 @@
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -14788,6 +14773,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_4人員検索画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_4人員検索画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2EC54D-0D60-4343-9FAB-7285EF2782FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7BF63B-7570-47A5-BB34-E193AC7CD5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="×" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1477,15 +1476,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1503,6 +1493,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1510,10 +1509,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9106,7 +9105,7 @@
       <c r="AJ41" s="23"/>
       <c r="AK41" s="23"/>
       <c r="AL41" s="27">
-        <v>43924</v>
+        <v>43956</v>
       </c>
       <c r="AM41" s="27"/>
       <c r="AN41" s="27"/>
@@ -11893,22 +11892,152 @@
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:T95"/>
-    <mergeCell ref="U95:AF95"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:T92"/>
-    <mergeCell ref="U92:AF92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:T93"/>
-    <mergeCell ref="U93:AF93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:T94"/>
-    <mergeCell ref="U94:AF94"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:T89"/>
+    <mergeCell ref="U89:AF89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:T90"/>
+    <mergeCell ref="U90:AF90"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:T87"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:T88"/>
+    <mergeCell ref="U88:AF88"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:T85"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:T86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:T83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:T84"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:T81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:T82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:T77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AF75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:T76"/>
+    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:T74"/>
+    <mergeCell ref="U74:AF74"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="U63:AF63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:T59"/>
+    <mergeCell ref="U59:AF59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:T58"/>
+    <mergeCell ref="U58:AF58"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
     <mergeCell ref="A42:AF42"/>
     <mergeCell ref="A43:AF47"/>
     <mergeCell ref="B50:G50"/>
@@ -11933,152 +12062,22 @@
     <mergeCell ref="U51:AF51"/>
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:T58"/>
-    <mergeCell ref="U58:AF58"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:T59"/>
-    <mergeCell ref="U59:AF59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="U63:AF63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:T69"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:T70"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:T67"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:T73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:T74"/>
-    <mergeCell ref="U74:AF74"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:T71"/>
-    <mergeCell ref="U71:AF71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:T72"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:T77"/>
-    <mergeCell ref="U77:AF77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:T78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AF75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:T76"/>
-    <mergeCell ref="U76:AF76"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:T81"/>
-    <mergeCell ref="U81:AF81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:T82"/>
-    <mergeCell ref="U82:AF82"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:T79"/>
-    <mergeCell ref="U79:AF79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:T80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:T85"/>
-    <mergeCell ref="U85:AF85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:T86"/>
-    <mergeCell ref="U86:AF86"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:T83"/>
-    <mergeCell ref="U83:AF83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:T84"/>
-    <mergeCell ref="U84:AF84"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:T89"/>
-    <mergeCell ref="U89:AF89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:T90"/>
-    <mergeCell ref="U90:AF90"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:T87"/>
-    <mergeCell ref="U87:AF87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:T88"/>
-    <mergeCell ref="U88:AF88"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:T95"/>
+    <mergeCell ref="U95:AF95"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:T92"/>
+    <mergeCell ref="U92:AF92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:T93"/>
+    <mergeCell ref="U93:AF93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:T94"/>
+    <mergeCell ref="U94:AF94"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12275,20 +12274,20 @@
         <v>11</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="32" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="30" t="s">
         <v>5</v>
       </c>
@@ -12336,56 +12335,56 @@
       <c r="BA5" s="30"/>
       <c r="BB5" s="30"/>
       <c r="BC5" s="30"/>
-      <c r="BD5" s="32" t="s">
+      <c r="BD5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="34"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="39"/>
+      <c r="BM5" s="39"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="39"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="39"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="39"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="39"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="39"/>
+      <c r="BX5" s="39"/>
+      <c r="BY5" s="39"/>
+      <c r="BZ5" s="39"/>
+      <c r="CA5" s="39"/>
+      <c r="CB5" s="39"/>
+      <c r="CC5" s="39"/>
+      <c r="CD5" s="39"/>
+      <c r="CE5" s="40"/>
     </row>
     <row r="6" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>1</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="29" t="s">
         <v>115</v>
       </c>
@@ -12433,36 +12432,36 @@
       <c r="BA6" s="29"/>
       <c r="BB6" s="29"/>
       <c r="BC6" s="29"/>
-      <c r="BD6" s="35" t="s">
+      <c r="BD6" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="36"/>
-      <c r="BM6" s="36"/>
-      <c r="BN6" s="36"/>
-      <c r="BO6" s="36"/>
-      <c r="BP6" s="36"/>
-      <c r="BQ6" s="36"/>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="36"/>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="36"/>
-      <c r="CA6" s="36"/>
-      <c r="CB6" s="36"/>
-      <c r="CC6" s="36"/>
-      <c r="CD6" s="36"/>
-      <c r="CE6" s="37"/>
+      <c r="BE6" s="33"/>
+      <c r="BF6" s="33"/>
+      <c r="BG6" s="33"/>
+      <c r="BH6" s="33"/>
+      <c r="BI6" s="33"/>
+      <c r="BJ6" s="33"/>
+      <c r="BK6" s="33"/>
+      <c r="BL6" s="33"/>
+      <c r="BM6" s="33"/>
+      <c r="BN6" s="33"/>
+      <c r="BO6" s="33"/>
+      <c r="BP6" s="33"/>
+      <c r="BQ6" s="33"/>
+      <c r="BR6" s="33"/>
+      <c r="BS6" s="33"/>
+      <c r="BT6" s="33"/>
+      <c r="BU6" s="33"/>
+      <c r="BV6" s="33"/>
+      <c r="BW6" s="33"/>
+      <c r="BX6" s="33"/>
+      <c r="BY6" s="33"/>
+      <c r="BZ6" s="33"/>
+      <c r="CA6" s="33"/>
+      <c r="CB6" s="33"/>
+      <c r="CC6" s="33"/>
+      <c r="CD6" s="33"/>
+      <c r="CE6" s="34"/>
     </row>
     <row r="7" spans="1:83" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
@@ -12470,16 +12469,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
@@ -12523,34 +12522,34 @@
       <c r="BA7" s="29"/>
       <c r="BB7" s="29"/>
       <c r="BC7" s="29"/>
-      <c r="BD7" s="35"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="36"/>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="36"/>
-      <c r="BQ7" s="36"/>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="36"/>
-      <c r="BT7" s="36"/>
-      <c r="BU7" s="36"/>
-      <c r="BV7" s="36"/>
-      <c r="BW7" s="36"/>
-      <c r="BX7" s="36"/>
-      <c r="BY7" s="36"/>
-      <c r="BZ7" s="36"/>
-      <c r="CA7" s="36"/>
-      <c r="CB7" s="36"/>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="37"/>
+      <c r="BD7" s="32"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="33"/>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="33"/>
+      <c r="BM7" s="33"/>
+      <c r="BN7" s="33"/>
+      <c r="BO7" s="33"/>
+      <c r="BP7" s="33"/>
+      <c r="BQ7" s="33"/>
+      <c r="BR7" s="33"/>
+      <c r="BS7" s="33"/>
+      <c r="BT7" s="33"/>
+      <c r="BU7" s="33"/>
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="33"/>
+      <c r="BY7" s="33"/>
+      <c r="BZ7" s="33"/>
+      <c r="CA7" s="33"/>
+      <c r="CB7" s="33"/>
+      <c r="CC7" s="33"/>
+      <c r="CD7" s="33"/>
+      <c r="CE7" s="34"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
@@ -12558,16 +12557,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
@@ -12611,34 +12610,34 @@
       <c r="BA8" s="29"/>
       <c r="BB8" s="29"/>
       <c r="BC8" s="29"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="36"/>
-      <c r="BF8" s="36"/>
-      <c r="BG8" s="36"/>
-      <c r="BH8" s="36"/>
-      <c r="BI8" s="36"/>
-      <c r="BJ8" s="36"/>
-      <c r="BK8" s="36"/>
-      <c r="BL8" s="36"/>
-      <c r="BM8" s="36"/>
-      <c r="BN8" s="36"/>
-      <c r="BO8" s="36"/>
-      <c r="BP8" s="36"/>
-      <c r="BQ8" s="36"/>
-      <c r="BR8" s="36"/>
-      <c r="BS8" s="36"/>
-      <c r="BT8" s="36"/>
-      <c r="BU8" s="36"/>
-      <c r="BV8" s="36"/>
-      <c r="BW8" s="36"/>
-      <c r="BX8" s="36"/>
-      <c r="BY8" s="36"/>
-      <c r="BZ8" s="36"/>
-      <c r="CA8" s="36"/>
-      <c r="CB8" s="36"/>
-      <c r="CC8" s="36"/>
-      <c r="CD8" s="36"/>
-      <c r="CE8" s="37"/>
+      <c r="BD8" s="32"/>
+      <c r="BE8" s="33"/>
+      <c r="BF8" s="33"/>
+      <c r="BG8" s="33"/>
+      <c r="BH8" s="33"/>
+      <c r="BI8" s="33"/>
+      <c r="BJ8" s="33"/>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="33"/>
+      <c r="BM8" s="33"/>
+      <c r="BN8" s="33"/>
+      <c r="BO8" s="33"/>
+      <c r="BP8" s="33"/>
+      <c r="BQ8" s="33"/>
+      <c r="BR8" s="33"/>
+      <c r="BS8" s="33"/>
+      <c r="BT8" s="33"/>
+      <c r="BU8" s="33"/>
+      <c r="BV8" s="33"/>
+      <c r="BW8" s="33"/>
+      <c r="BX8" s="33"/>
+      <c r="BY8" s="33"/>
+      <c r="BZ8" s="33"/>
+      <c r="CA8" s="33"/>
+      <c r="CB8" s="33"/>
+      <c r="CC8" s="33"/>
+      <c r="CD8" s="33"/>
+      <c r="CE8" s="34"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -12759,20 +12758,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="30" t="s">
         <v>10</v>
       </c>
@@ -12824,56 +12823,56 @@
       <c r="BA11" s="30"/>
       <c r="BB11" s="30"/>
       <c r="BC11" s="30"/>
-      <c r="BD11" s="32" t="s">
+      <c r="BD11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="33"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="33"/>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="33"/>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="33"/>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="33"/>
-      <c r="BU11" s="33"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="33"/>
-      <c r="BX11" s="33"/>
-      <c r="BY11" s="33"/>
-      <c r="BZ11" s="33"/>
-      <c r="CA11" s="33"/>
-      <c r="CB11" s="33"/>
-      <c r="CC11" s="33"/>
-      <c r="CD11" s="33"/>
-      <c r="CE11" s="34"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="39"/>
+      <c r="BH11" s="39"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="39"/>
+      <c r="BK11" s="39"/>
+      <c r="BL11" s="39"/>
+      <c r="BM11" s="39"/>
+      <c r="BN11" s="39"/>
+      <c r="BO11" s="39"/>
+      <c r="BP11" s="39"/>
+      <c r="BQ11" s="39"/>
+      <c r="BR11" s="39"/>
+      <c r="BS11" s="39"/>
+      <c r="BT11" s="39"/>
+      <c r="BU11" s="39"/>
+      <c r="BV11" s="39"/>
+      <c r="BW11" s="39"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="39"/>
+      <c r="BZ11" s="39"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="39"/>
+      <c r="CC11" s="39"/>
+      <c r="CD11" s="39"/>
+      <c r="CE11" s="40"/>
     </row>
     <row r="12" spans="1:83" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>1</v>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
       <c r="M12" s="29" t="s">
         <v>14</v>
       </c>
@@ -12925,36 +12924,36 @@
       <c r="BA12" s="29"/>
       <c r="BB12" s="29"/>
       <c r="BC12" s="29"/>
-      <c r="BD12" s="35" t="s">
+      <c r="BD12" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="BE12" s="36"/>
-      <c r="BF12" s="36"/>
-      <c r="BG12" s="36"/>
-      <c r="BH12" s="36"/>
-      <c r="BI12" s="36"/>
-      <c r="BJ12" s="36"/>
-      <c r="BK12" s="36"/>
-      <c r="BL12" s="36"/>
-      <c r="BM12" s="36"/>
-      <c r="BN12" s="36"/>
-      <c r="BO12" s="36"/>
-      <c r="BP12" s="36"/>
-      <c r="BQ12" s="36"/>
-      <c r="BR12" s="36"/>
-      <c r="BS12" s="36"/>
-      <c r="BT12" s="36"/>
-      <c r="BU12" s="36"/>
-      <c r="BV12" s="36"/>
-      <c r="BW12" s="36"/>
-      <c r="BX12" s="36"/>
-      <c r="BY12" s="36"/>
-      <c r="BZ12" s="36"/>
-      <c r="CA12" s="36"/>
-      <c r="CB12" s="36"/>
-      <c r="CC12" s="36"/>
-      <c r="CD12" s="36"/>
-      <c r="CE12" s="37"/>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="33"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="33"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="33"/>
+      <c r="BM12" s="33"/>
+      <c r="BN12" s="33"/>
+      <c r="BO12" s="33"/>
+      <c r="BP12" s="33"/>
+      <c r="BQ12" s="33"/>
+      <c r="BR12" s="33"/>
+      <c r="BS12" s="33"/>
+      <c r="BT12" s="33"/>
+      <c r="BU12" s="33"/>
+      <c r="BV12" s="33"/>
+      <c r="BW12" s="33"/>
+      <c r="BX12" s="33"/>
+      <c r="BY12" s="33"/>
+      <c r="BZ12" s="33"/>
+      <c r="CA12" s="33"/>
+      <c r="CB12" s="33"/>
+      <c r="CC12" s="33"/>
+      <c r="CD12" s="33"/>
+      <c r="CE12" s="34"/>
     </row>
     <row r="13" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
@@ -12962,20 +12961,20 @@
         <v>2</v>
       </c>
       <c r="B13" s="31"/>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="29" t="s">
         <v>117</v>
       </c>
@@ -13027,36 +13026,36 @@
       <c r="BA13" s="29"/>
       <c r="BB13" s="29"/>
       <c r="BC13" s="29"/>
-      <c r="BD13" s="35" t="s">
+      <c r="BD13" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="BE13" s="36"/>
-      <c r="BF13" s="36"/>
-      <c r="BG13" s="36"/>
-      <c r="BH13" s="36"/>
-      <c r="BI13" s="36"/>
-      <c r="BJ13" s="36"/>
-      <c r="BK13" s="36"/>
-      <c r="BL13" s="36"/>
-      <c r="BM13" s="36"/>
-      <c r="BN13" s="36"/>
-      <c r="BO13" s="36"/>
-      <c r="BP13" s="36"/>
-      <c r="BQ13" s="36"/>
-      <c r="BR13" s="36"/>
-      <c r="BS13" s="36"/>
-      <c r="BT13" s="36"/>
-      <c r="BU13" s="36"/>
-      <c r="BV13" s="36"/>
-      <c r="BW13" s="36"/>
-      <c r="BX13" s="36"/>
-      <c r="BY13" s="36"/>
-      <c r="BZ13" s="36"/>
-      <c r="CA13" s="36"/>
-      <c r="CB13" s="36"/>
-      <c r="CC13" s="36"/>
-      <c r="CD13" s="36"/>
-      <c r="CE13" s="37"/>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="33"/>
+      <c r="BG13" s="33"/>
+      <c r="BH13" s="33"/>
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="33"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="33"/>
+      <c r="BM13" s="33"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="33"/>
+      <c r="BP13" s="33"/>
+      <c r="BQ13" s="33"/>
+      <c r="BR13" s="33"/>
+      <c r="BS13" s="33"/>
+      <c r="BT13" s="33"/>
+      <c r="BU13" s="33"/>
+      <c r="BV13" s="33"/>
+      <c r="BW13" s="33"/>
+      <c r="BX13" s="33"/>
+      <c r="BY13" s="33"/>
+      <c r="BZ13" s="33"/>
+      <c r="CA13" s="33"/>
+      <c r="CB13" s="33"/>
+      <c r="CC13" s="33"/>
+      <c r="CD13" s="33"/>
+      <c r="CE13" s="34"/>
     </row>
     <row r="14" spans="1:83" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
@@ -13064,20 +13063,20 @@
         <v>3</v>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="29" t="s">
         <v>119</v>
       </c>
@@ -13129,36 +13128,36 @@
       <c r="BA14" s="29"/>
       <c r="BB14" s="29"/>
       <c r="BC14" s="29"/>
-      <c r="BD14" s="35" t="s">
+      <c r="BD14" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
-      <c r="BH14" s="36"/>
-      <c r="BI14" s="36"/>
-      <c r="BJ14" s="36"/>
-      <c r="BK14" s="36"/>
-      <c r="BL14" s="36"/>
-      <c r="BM14" s="36"/>
-      <c r="BN14" s="36"/>
-      <c r="BO14" s="36"/>
-      <c r="BP14" s="36"/>
-      <c r="BQ14" s="36"/>
-      <c r="BR14" s="36"/>
-      <c r="BS14" s="36"/>
-      <c r="BT14" s="36"/>
-      <c r="BU14" s="36"/>
-      <c r="BV14" s="36"/>
-      <c r="BW14" s="36"/>
-      <c r="BX14" s="36"/>
-      <c r="BY14" s="36"/>
-      <c r="BZ14" s="36"/>
-      <c r="CA14" s="36"/>
-      <c r="CB14" s="36"/>
-      <c r="CC14" s="36"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="37"/>
+      <c r="BE14" s="33"/>
+      <c r="BF14" s="33"/>
+      <c r="BG14" s="33"/>
+      <c r="BH14" s="33"/>
+      <c r="BI14" s="33"/>
+      <c r="BJ14" s="33"/>
+      <c r="BK14" s="33"/>
+      <c r="BL14" s="33"/>
+      <c r="BM14" s="33"/>
+      <c r="BN14" s="33"/>
+      <c r="BO14" s="33"/>
+      <c r="BP14" s="33"/>
+      <c r="BQ14" s="33"/>
+      <c r="BR14" s="33"/>
+      <c r="BS14" s="33"/>
+      <c r="BT14" s="33"/>
+      <c r="BU14" s="33"/>
+      <c r="BV14" s="33"/>
+      <c r="BW14" s="33"/>
+      <c r="BX14" s="33"/>
+      <c r="BY14" s="33"/>
+      <c r="BZ14" s="33"/>
+      <c r="CA14" s="33"/>
+      <c r="CB14" s="33"/>
+      <c r="CC14" s="33"/>
+      <c r="CD14" s="33"/>
+      <c r="CE14" s="34"/>
     </row>
     <row r="15" spans="1:83" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
@@ -13166,20 +13165,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="29" t="s">
         <v>117</v>
       </c>
@@ -13231,36 +13230,36 @@
       <c r="BA15" s="29"/>
       <c r="BB15" s="29"/>
       <c r="BC15" s="29"/>
-      <c r="BD15" s="35" t="s">
+      <c r="BD15" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="BE15" s="36"/>
-      <c r="BF15" s="36"/>
-      <c r="BG15" s="36"/>
-      <c r="BH15" s="36"/>
-      <c r="BI15" s="36"/>
-      <c r="BJ15" s="36"/>
-      <c r="BK15" s="36"/>
-      <c r="BL15" s="36"/>
-      <c r="BM15" s="36"/>
-      <c r="BN15" s="36"/>
-      <c r="BO15" s="36"/>
-      <c r="BP15" s="36"/>
-      <c r="BQ15" s="36"/>
-      <c r="BR15" s="36"/>
-      <c r="BS15" s="36"/>
-      <c r="BT15" s="36"/>
-      <c r="BU15" s="36"/>
-      <c r="BV15" s="36"/>
-      <c r="BW15" s="36"/>
-      <c r="BX15" s="36"/>
-      <c r="BY15" s="36"/>
-      <c r="BZ15" s="36"/>
-      <c r="CA15" s="36"/>
-      <c r="CB15" s="36"/>
-      <c r="CC15" s="36"/>
-      <c r="CD15" s="36"/>
-      <c r="CE15" s="37"/>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="33"/>
+      <c r="BG15" s="33"/>
+      <c r="BH15" s="33"/>
+      <c r="BI15" s="33"/>
+      <c r="BJ15" s="33"/>
+      <c r="BK15" s="33"/>
+      <c r="BL15" s="33"/>
+      <c r="BM15" s="33"/>
+      <c r="BN15" s="33"/>
+      <c r="BO15" s="33"/>
+      <c r="BP15" s="33"/>
+      <c r="BQ15" s="33"/>
+      <c r="BR15" s="33"/>
+      <c r="BS15" s="33"/>
+      <c r="BT15" s="33"/>
+      <c r="BU15" s="33"/>
+      <c r="BV15" s="33"/>
+      <c r="BW15" s="33"/>
+      <c r="BX15" s="33"/>
+      <c r="BY15" s="33"/>
+      <c r="BZ15" s="33"/>
+      <c r="CA15" s="33"/>
+      <c r="CB15" s="33"/>
+      <c r="CC15" s="33"/>
+      <c r="CD15" s="33"/>
+      <c r="CE15" s="34"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
@@ -13268,16 +13267,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="31"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
@@ -13321,34 +13320,34 @@
       <c r="BA16" s="29"/>
       <c r="BB16" s="29"/>
       <c r="BC16" s="29"/>
-      <c r="BD16" s="35"/>
-      <c r="BE16" s="36"/>
-      <c r="BF16" s="36"/>
-      <c r="BG16" s="36"/>
-      <c r="BH16" s="36"/>
-      <c r="BI16" s="36"/>
-      <c r="BJ16" s="36"/>
-      <c r="BK16" s="36"/>
-      <c r="BL16" s="36"/>
-      <c r="BM16" s="36"/>
-      <c r="BN16" s="36"/>
-      <c r="BO16" s="36"/>
-      <c r="BP16" s="36"/>
-      <c r="BQ16" s="36"/>
-      <c r="BR16" s="36"/>
-      <c r="BS16" s="36"/>
-      <c r="BT16" s="36"/>
-      <c r="BU16" s="36"/>
-      <c r="BV16" s="36"/>
-      <c r="BW16" s="36"/>
-      <c r="BX16" s="36"/>
-      <c r="BY16" s="36"/>
-      <c r="BZ16" s="36"/>
-      <c r="CA16" s="36"/>
-      <c r="CB16" s="36"/>
-      <c r="CC16" s="36"/>
-      <c r="CD16" s="36"/>
-      <c r="CE16" s="37"/>
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="33"/>
+      <c r="BG16" s="33"/>
+      <c r="BH16" s="33"/>
+      <c r="BI16" s="33"/>
+      <c r="BJ16" s="33"/>
+      <c r="BK16" s="33"/>
+      <c r="BL16" s="33"/>
+      <c r="BM16" s="33"/>
+      <c r="BN16" s="33"/>
+      <c r="BO16" s="33"/>
+      <c r="BP16" s="33"/>
+      <c r="BQ16" s="33"/>
+      <c r="BR16" s="33"/>
+      <c r="BS16" s="33"/>
+      <c r="BT16" s="33"/>
+      <c r="BU16" s="33"/>
+      <c r="BV16" s="33"/>
+      <c r="BW16" s="33"/>
+      <c r="BX16" s="33"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="33"/>
+      <c r="CA16" s="33"/>
+      <c r="CB16" s="33"/>
+      <c r="CC16" s="33"/>
+      <c r="CD16" s="33"/>
+      <c r="CE16" s="34"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
@@ -13356,16 +13355,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="31"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
@@ -13409,34 +13408,34 @@
       <c r="BA17" s="29"/>
       <c r="BB17" s="29"/>
       <c r="BC17" s="29"/>
-      <c r="BD17" s="35"/>
-      <c r="BE17" s="36"/>
-      <c r="BF17" s="36"/>
-      <c r="BG17" s="36"/>
-      <c r="BH17" s="36"/>
-      <c r="BI17" s="36"/>
-      <c r="BJ17" s="36"/>
-      <c r="BK17" s="36"/>
-      <c r="BL17" s="36"/>
-      <c r="BM17" s="36"/>
-      <c r="BN17" s="36"/>
-      <c r="BO17" s="36"/>
-      <c r="BP17" s="36"/>
-      <c r="BQ17" s="36"/>
-      <c r="BR17" s="36"/>
-      <c r="BS17" s="36"/>
-      <c r="BT17" s="36"/>
-      <c r="BU17" s="36"/>
-      <c r="BV17" s="36"/>
-      <c r="BW17" s="36"/>
-      <c r="BX17" s="36"/>
-      <c r="BY17" s="36"/>
-      <c r="BZ17" s="36"/>
-      <c r="CA17" s="36"/>
-      <c r="CB17" s="36"/>
-      <c r="CC17" s="36"/>
-      <c r="CD17" s="36"/>
-      <c r="CE17" s="37"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="33"/>
+      <c r="BF17" s="33"/>
+      <c r="BG17" s="33"/>
+      <c r="BH17" s="33"/>
+      <c r="BI17" s="33"/>
+      <c r="BJ17" s="33"/>
+      <c r="BK17" s="33"/>
+      <c r="BL17" s="33"/>
+      <c r="BM17" s="33"/>
+      <c r="BN17" s="33"/>
+      <c r="BO17" s="33"/>
+      <c r="BP17" s="33"/>
+      <c r="BQ17" s="33"/>
+      <c r="BR17" s="33"/>
+      <c r="BS17" s="33"/>
+      <c r="BT17" s="33"/>
+      <c r="BU17" s="33"/>
+      <c r="BV17" s="33"/>
+      <c r="BW17" s="33"/>
+      <c r="BX17" s="33"/>
+      <c r="BY17" s="33"/>
+      <c r="BZ17" s="33"/>
+      <c r="CA17" s="33"/>
+      <c r="CB17" s="33"/>
+      <c r="CC17" s="33"/>
+      <c r="CD17" s="33"/>
+      <c r="CE17" s="34"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
@@ -13444,16 +13443,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="31"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
@@ -13497,34 +13496,34 @@
       <c r="BA18" s="29"/>
       <c r="BB18" s="29"/>
       <c r="BC18" s="29"/>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="36"/>
-      <c r="BF18" s="36"/>
-      <c r="BG18" s="36"/>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="36"/>
-      <c r="BJ18" s="36"/>
-      <c r="BK18" s="36"/>
-      <c r="BL18" s="36"/>
-      <c r="BM18" s="36"/>
-      <c r="BN18" s="36"/>
-      <c r="BO18" s="36"/>
-      <c r="BP18" s="36"/>
-      <c r="BQ18" s="36"/>
-      <c r="BR18" s="36"/>
-      <c r="BS18" s="36"/>
-      <c r="BT18" s="36"/>
-      <c r="BU18" s="36"/>
-      <c r="BV18" s="36"/>
-      <c r="BW18" s="36"/>
-      <c r="BX18" s="36"/>
-      <c r="BY18" s="36"/>
-      <c r="BZ18" s="36"/>
-      <c r="CA18" s="36"/>
-      <c r="CB18" s="36"/>
-      <c r="CC18" s="36"/>
-      <c r="CD18" s="36"/>
-      <c r="CE18" s="37"/>
+      <c r="BD18" s="32"/>
+      <c r="BE18" s="33"/>
+      <c r="BF18" s="33"/>
+      <c r="BG18" s="33"/>
+      <c r="BH18" s="33"/>
+      <c r="BI18" s="33"/>
+      <c r="BJ18" s="33"/>
+      <c r="BK18" s="33"/>
+      <c r="BL18" s="33"/>
+      <c r="BM18" s="33"/>
+      <c r="BN18" s="33"/>
+      <c r="BO18" s="33"/>
+      <c r="BP18" s="33"/>
+      <c r="BQ18" s="33"/>
+      <c r="BR18" s="33"/>
+      <c r="BS18" s="33"/>
+      <c r="BT18" s="33"/>
+      <c r="BU18" s="33"/>
+      <c r="BV18" s="33"/>
+      <c r="BW18" s="33"/>
+      <c r="BX18" s="33"/>
+      <c r="BY18" s="33"/>
+      <c r="BZ18" s="33"/>
+      <c r="CA18" s="33"/>
+      <c r="CB18" s="33"/>
+      <c r="CC18" s="33"/>
+      <c r="CD18" s="33"/>
+      <c r="CE18" s="34"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
@@ -13532,16 +13531,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="31"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
@@ -13585,34 +13584,34 @@
       <c r="BA19" s="29"/>
       <c r="BB19" s="29"/>
       <c r="BC19" s="29"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="36"/>
-      <c r="BF19" s="36"/>
-      <c r="BG19" s="36"/>
-      <c r="BH19" s="36"/>
-      <c r="BI19" s="36"/>
-      <c r="BJ19" s="36"/>
-      <c r="BK19" s="36"/>
-      <c r="BL19" s="36"/>
-      <c r="BM19" s="36"/>
-      <c r="BN19" s="36"/>
-      <c r="BO19" s="36"/>
-      <c r="BP19" s="36"/>
-      <c r="BQ19" s="36"/>
-      <c r="BR19" s="36"/>
-      <c r="BS19" s="36"/>
-      <c r="BT19" s="36"/>
-      <c r="BU19" s="36"/>
-      <c r="BV19" s="36"/>
-      <c r="BW19" s="36"/>
-      <c r="BX19" s="36"/>
-      <c r="BY19" s="36"/>
-      <c r="BZ19" s="36"/>
-      <c r="CA19" s="36"/>
-      <c r="CB19" s="36"/>
-      <c r="CC19" s="36"/>
-      <c r="CD19" s="36"/>
-      <c r="CE19" s="37"/>
+      <c r="BD19" s="32"/>
+      <c r="BE19" s="33"/>
+      <c r="BF19" s="33"/>
+      <c r="BG19" s="33"/>
+      <c r="BH19" s="33"/>
+      <c r="BI19" s="33"/>
+      <c r="BJ19" s="33"/>
+      <c r="BK19" s="33"/>
+      <c r="BL19" s="33"/>
+      <c r="BM19" s="33"/>
+      <c r="BN19" s="33"/>
+      <c r="BO19" s="33"/>
+      <c r="BP19" s="33"/>
+      <c r="BQ19" s="33"/>
+      <c r="BR19" s="33"/>
+      <c r="BS19" s="33"/>
+      <c r="BT19" s="33"/>
+      <c r="BU19" s="33"/>
+      <c r="BV19" s="33"/>
+      <c r="BW19" s="33"/>
+      <c r="BX19" s="33"/>
+      <c r="BY19" s="33"/>
+      <c r="BZ19" s="33"/>
+      <c r="CA19" s="33"/>
+      <c r="CB19" s="33"/>
+      <c r="CC19" s="33"/>
+      <c r="CD19" s="33"/>
+      <c r="CE19" s="34"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
@@ -13620,16 +13619,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
@@ -13673,34 +13672,34 @@
       <c r="BA20" s="29"/>
       <c r="BB20" s="29"/>
       <c r="BC20" s="29"/>
-      <c r="BD20" s="35"/>
-      <c r="BE20" s="36"/>
-      <c r="BF20" s="36"/>
-      <c r="BG20" s="36"/>
-      <c r="BH20" s="36"/>
-      <c r="BI20" s="36"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="36"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="36"/>
-      <c r="BQ20" s="36"/>
-      <c r="BR20" s="36"/>
-      <c r="BS20" s="36"/>
-      <c r="BT20" s="36"/>
-      <c r="BU20" s="36"/>
-      <c r="BV20" s="36"/>
-      <c r="BW20" s="36"/>
-      <c r="BX20" s="36"/>
-      <c r="BY20" s="36"/>
-      <c r="BZ20" s="36"/>
-      <c r="CA20" s="36"/>
-      <c r="CB20" s="36"/>
-      <c r="CC20" s="36"/>
-      <c r="CD20" s="36"/>
-      <c r="CE20" s="37"/>
+      <c r="BD20" s="32"/>
+      <c r="BE20" s="33"/>
+      <c r="BF20" s="33"/>
+      <c r="BG20" s="33"/>
+      <c r="BH20" s="33"/>
+      <c r="BI20" s="33"/>
+      <c r="BJ20" s="33"/>
+      <c r="BK20" s="33"/>
+      <c r="BL20" s="33"/>
+      <c r="BM20" s="33"/>
+      <c r="BN20" s="33"/>
+      <c r="BO20" s="33"/>
+      <c r="BP20" s="33"/>
+      <c r="BQ20" s="33"/>
+      <c r="BR20" s="33"/>
+      <c r="BS20" s="33"/>
+      <c r="BT20" s="33"/>
+      <c r="BU20" s="33"/>
+      <c r="BV20" s="33"/>
+      <c r="BW20" s="33"/>
+      <c r="BX20" s="33"/>
+      <c r="BY20" s="33"/>
+      <c r="BZ20" s="33"/>
+      <c r="CA20" s="33"/>
+      <c r="CB20" s="33"/>
+      <c r="CC20" s="33"/>
+      <c r="CD20" s="33"/>
+      <c r="CE20" s="34"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
@@ -13708,16 +13707,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
@@ -13761,54 +13760,54 @@
       <c r="BA21" s="29"/>
       <c r="BB21" s="29"/>
       <c r="BC21" s="29"/>
-      <c r="BD21" s="35"/>
-      <c r="BE21" s="36"/>
-      <c r="BF21" s="36"/>
-      <c r="BG21" s="36"/>
-      <c r="BH21" s="36"/>
-      <c r="BI21" s="36"/>
-      <c r="BJ21" s="36"/>
-      <c r="BK21" s="36"/>
-      <c r="BL21" s="36"/>
-      <c r="BM21" s="36"/>
-      <c r="BN21" s="36"/>
-      <c r="BO21" s="36"/>
-      <c r="BP21" s="36"/>
-      <c r="BQ21" s="36"/>
-      <c r="BR21" s="36"/>
-      <c r="BS21" s="36"/>
-      <c r="BT21" s="36"/>
-      <c r="BU21" s="36"/>
-      <c r="BV21" s="36"/>
-      <c r="BW21" s="36"/>
-      <c r="BX21" s="36"/>
-      <c r="BY21" s="36"/>
-      <c r="BZ21" s="36"/>
-      <c r="CA21" s="36"/>
-      <c r="CB21" s="36"/>
-      <c r="CC21" s="36"/>
-      <c r="CD21" s="36"/>
-      <c r="CE21" s="37"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="33"/>
+      <c r="BF21" s="33"/>
+      <c r="BG21" s="33"/>
+      <c r="BH21" s="33"/>
+      <c r="BI21" s="33"/>
+      <c r="BJ21" s="33"/>
+      <c r="BK21" s="33"/>
+      <c r="BL21" s="33"/>
+      <c r="BM21" s="33"/>
+      <c r="BN21" s="33"/>
+      <c r="BO21" s="33"/>
+      <c r="BP21" s="33"/>
+      <c r="BQ21" s="33"/>
+      <c r="BR21" s="33"/>
+      <c r="BS21" s="33"/>
+      <c r="BT21" s="33"/>
+      <c r="BU21" s="33"/>
+      <c r="BV21" s="33"/>
+      <c r="BW21" s="33"/>
+      <c r="BX21" s="33"/>
+      <c r="BY21" s="33"/>
+      <c r="BZ21" s="33"/>
+      <c r="CA21" s="33"/>
+      <c r="CB21" s="33"/>
+      <c r="CC21" s="33"/>
+      <c r="CD21" s="33"/>
+      <c r="CE21" s="34"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="32" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="30" t="s">
         <v>5</v>
       </c>
@@ -13858,56 +13857,56 @@
       <c r="BA24" s="30"/>
       <c r="BB24" s="30"/>
       <c r="BC24" s="30"/>
-      <c r="BD24" s="32" t="s">
+      <c r="BD24" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="BE24" s="33"/>
-      <c r="BF24" s="33"/>
-      <c r="BG24" s="33"/>
-      <c r="BH24" s="33"/>
-      <c r="BI24" s="33"/>
-      <c r="BJ24" s="33"/>
-      <c r="BK24" s="33"/>
-      <c r="BL24" s="33"/>
-      <c r="BM24" s="33"/>
-      <c r="BN24" s="33"/>
-      <c r="BO24" s="33"/>
-      <c r="BP24" s="33"/>
-      <c r="BQ24" s="33"/>
-      <c r="BR24" s="33"/>
-      <c r="BS24" s="33"/>
-      <c r="BT24" s="33"/>
-      <c r="BU24" s="33"/>
-      <c r="BV24" s="33"/>
-      <c r="BW24" s="33"/>
-      <c r="BX24" s="33"/>
-      <c r="BY24" s="33"/>
-      <c r="BZ24" s="33"/>
-      <c r="CA24" s="33"/>
-      <c r="CB24" s="33"/>
-      <c r="CC24" s="33"/>
-      <c r="CD24" s="33"/>
-      <c r="CE24" s="34"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
+      <c r="BL24" s="39"/>
+      <c r="BM24" s="39"/>
+      <c r="BN24" s="39"/>
+      <c r="BO24" s="39"/>
+      <c r="BP24" s="39"/>
+      <c r="BQ24" s="39"/>
+      <c r="BR24" s="39"/>
+      <c r="BS24" s="39"/>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="39"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="39"/>
+      <c r="BY24" s="39"/>
+      <c r="BZ24" s="39"/>
+      <c r="CA24" s="39"/>
+      <c r="CB24" s="39"/>
+      <c r="CC24" s="39"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="40"/>
     </row>
     <row r="25" spans="1:83" ht="67.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>1</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="29" t="s">
         <v>115</v>
       </c>
@@ -13957,36 +13956,36 @@
       <c r="BA25" s="29"/>
       <c r="BB25" s="29"/>
       <c r="BC25" s="29"/>
-      <c r="BD25" s="35" t="s">
+      <c r="BD25" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="BE25" s="36"/>
-      <c r="BF25" s="36"/>
-      <c r="BG25" s="36"/>
-      <c r="BH25" s="36"/>
-      <c r="BI25" s="36"/>
-      <c r="BJ25" s="36"/>
-      <c r="BK25" s="36"/>
-      <c r="BL25" s="36"/>
-      <c r="BM25" s="36"/>
-      <c r="BN25" s="36"/>
-      <c r="BO25" s="36"/>
-      <c r="BP25" s="36"/>
-      <c r="BQ25" s="36"/>
-      <c r="BR25" s="36"/>
-      <c r="BS25" s="36"/>
-      <c r="BT25" s="36"/>
-      <c r="BU25" s="36"/>
-      <c r="BV25" s="36"/>
-      <c r="BW25" s="36"/>
-      <c r="BX25" s="36"/>
-      <c r="BY25" s="36"/>
-      <c r="BZ25" s="36"/>
-      <c r="CA25" s="36"/>
-      <c r="CB25" s="36"/>
-      <c r="CC25" s="36"/>
-      <c r="CD25" s="36"/>
-      <c r="CE25" s="37"/>
+      <c r="BE25" s="33"/>
+      <c r="BF25" s="33"/>
+      <c r="BG25" s="33"/>
+      <c r="BH25" s="33"/>
+      <c r="BI25" s="33"/>
+      <c r="BJ25" s="33"/>
+      <c r="BK25" s="33"/>
+      <c r="BL25" s="33"/>
+      <c r="BM25" s="33"/>
+      <c r="BN25" s="33"/>
+      <c r="BO25" s="33"/>
+      <c r="BP25" s="33"/>
+      <c r="BQ25" s="33"/>
+      <c r="BR25" s="33"/>
+      <c r="BS25" s="33"/>
+      <c r="BT25" s="33"/>
+      <c r="BU25" s="33"/>
+      <c r="BV25" s="33"/>
+      <c r="BW25" s="33"/>
+      <c r="BX25" s="33"/>
+      <c r="BY25" s="33"/>
+      <c r="BZ25" s="33"/>
+      <c r="CA25" s="33"/>
+      <c r="CB25" s="33"/>
+      <c r="CC25" s="33"/>
+      <c r="CD25" s="33"/>
+      <c r="CE25" s="34"/>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
@@ -13994,16 +13993,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
@@ -14047,34 +14046,34 @@
       <c r="BA26" s="29"/>
       <c r="BB26" s="29"/>
       <c r="BC26" s="29"/>
-      <c r="BD26" s="35"/>
-      <c r="BE26" s="36"/>
-      <c r="BF26" s="36"/>
-      <c r="BG26" s="36"/>
-      <c r="BH26" s="36"/>
-      <c r="BI26" s="36"/>
-      <c r="BJ26" s="36"/>
-      <c r="BK26" s="36"/>
-      <c r="BL26" s="36"/>
-      <c r="BM26" s="36"/>
-      <c r="BN26" s="36"/>
-      <c r="BO26" s="36"/>
-      <c r="BP26" s="36"/>
-      <c r="BQ26" s="36"/>
-      <c r="BR26" s="36"/>
-      <c r="BS26" s="36"/>
-      <c r="BT26" s="36"/>
-      <c r="BU26" s="36"/>
-      <c r="BV26" s="36"/>
-      <c r="BW26" s="36"/>
-      <c r="BX26" s="36"/>
-      <c r="BY26" s="36"/>
-      <c r="BZ26" s="36"/>
-      <c r="CA26" s="36"/>
-      <c r="CB26" s="36"/>
-      <c r="CC26" s="36"/>
-      <c r="CD26" s="36"/>
-      <c r="CE26" s="37"/>
+      <c r="BD26" s="32"/>
+      <c r="BE26" s="33"/>
+      <c r="BF26" s="33"/>
+      <c r="BG26" s="33"/>
+      <c r="BH26" s="33"/>
+      <c r="BI26" s="33"/>
+      <c r="BJ26" s="33"/>
+      <c r="BK26" s="33"/>
+      <c r="BL26" s="33"/>
+      <c r="BM26" s="33"/>
+      <c r="BN26" s="33"/>
+      <c r="BO26" s="33"/>
+      <c r="BP26" s="33"/>
+      <c r="BQ26" s="33"/>
+      <c r="BR26" s="33"/>
+      <c r="BS26" s="33"/>
+      <c r="BT26" s="33"/>
+      <c r="BU26" s="33"/>
+      <c r="BV26" s="33"/>
+      <c r="BW26" s="33"/>
+      <c r="BX26" s="33"/>
+      <c r="BY26" s="33"/>
+      <c r="BZ26" s="33"/>
+      <c r="CA26" s="33"/>
+      <c r="CB26" s="33"/>
+      <c r="CC26" s="33"/>
+      <c r="CD26" s="33"/>
+      <c r="CE26" s="34"/>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
@@ -14082,16 +14081,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="31"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
@@ -14135,34 +14134,34 @@
       <c r="BA27" s="29"/>
       <c r="BB27" s="29"/>
       <c r="BC27" s="29"/>
-      <c r="BD27" s="35"/>
-      <c r="BE27" s="36"/>
-      <c r="BF27" s="36"/>
-      <c r="BG27" s="36"/>
-      <c r="BH27" s="36"/>
-      <c r="BI27" s="36"/>
-      <c r="BJ27" s="36"/>
-      <c r="BK27" s="36"/>
-      <c r="BL27" s="36"/>
-      <c r="BM27" s="36"/>
-      <c r="BN27" s="36"/>
-      <c r="BO27" s="36"/>
-      <c r="BP27" s="36"/>
-      <c r="BQ27" s="36"/>
-      <c r="BR27" s="36"/>
-      <c r="BS27" s="36"/>
-      <c r="BT27" s="36"/>
-      <c r="BU27" s="36"/>
-      <c r="BV27" s="36"/>
-      <c r="BW27" s="36"/>
-      <c r="BX27" s="36"/>
-      <c r="BY27" s="36"/>
-      <c r="BZ27" s="36"/>
-      <c r="CA27" s="36"/>
-      <c r="CB27" s="36"/>
-      <c r="CC27" s="36"/>
-      <c r="CD27" s="36"/>
-      <c r="CE27" s="37"/>
+      <c r="BD27" s="32"/>
+      <c r="BE27" s="33"/>
+      <c r="BF27" s="33"/>
+      <c r="BG27" s="33"/>
+      <c r="BH27" s="33"/>
+      <c r="BI27" s="33"/>
+      <c r="BJ27" s="33"/>
+      <c r="BK27" s="33"/>
+      <c r="BL27" s="33"/>
+      <c r="BM27" s="33"/>
+      <c r="BN27" s="33"/>
+      <c r="BO27" s="33"/>
+      <c r="BP27" s="33"/>
+      <c r="BQ27" s="33"/>
+      <c r="BR27" s="33"/>
+      <c r="BS27" s="33"/>
+      <c r="BT27" s="33"/>
+      <c r="BU27" s="33"/>
+      <c r="BV27" s="33"/>
+      <c r="BW27" s="33"/>
+      <c r="BX27" s="33"/>
+      <c r="BY27" s="33"/>
+      <c r="BZ27" s="33"/>
+      <c r="CA27" s="33"/>
+      <c r="CB27" s="33"/>
+      <c r="CC27" s="33"/>
+      <c r="CD27" s="33"/>
+      <c r="CE27" s="34"/>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="31">
@@ -14170,16 +14169,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="31"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
@@ -14223,34 +14222,34 @@
       <c r="BA28" s="29"/>
       <c r="BB28" s="29"/>
       <c r="BC28" s="29"/>
-      <c r="BD28" s="35"/>
-      <c r="BE28" s="36"/>
-      <c r="BF28" s="36"/>
-      <c r="BG28" s="36"/>
-      <c r="BH28" s="36"/>
-      <c r="BI28" s="36"/>
-      <c r="BJ28" s="36"/>
-      <c r="BK28" s="36"/>
-      <c r="BL28" s="36"/>
-      <c r="BM28" s="36"/>
-      <c r="BN28" s="36"/>
-      <c r="BO28" s="36"/>
-      <c r="BP28" s="36"/>
-      <c r="BQ28" s="36"/>
-      <c r="BR28" s="36"/>
-      <c r="BS28" s="36"/>
-      <c r="BT28" s="36"/>
-      <c r="BU28" s="36"/>
-      <c r="BV28" s="36"/>
-      <c r="BW28" s="36"/>
-      <c r="BX28" s="36"/>
-      <c r="BY28" s="36"/>
-      <c r="BZ28" s="36"/>
-      <c r="CA28" s="36"/>
-      <c r="CB28" s="36"/>
-      <c r="CC28" s="36"/>
-      <c r="CD28" s="36"/>
-      <c r="CE28" s="37"/>
+      <c r="BD28" s="32"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="33"/>
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
+      <c r="BI28" s="33"/>
+      <c r="BJ28" s="33"/>
+      <c r="BK28" s="33"/>
+      <c r="BL28" s="33"/>
+      <c r="BM28" s="33"/>
+      <c r="BN28" s="33"/>
+      <c r="BO28" s="33"/>
+      <c r="BP28" s="33"/>
+      <c r="BQ28" s="33"/>
+      <c r="BR28" s="33"/>
+      <c r="BS28" s="33"/>
+      <c r="BT28" s="33"/>
+      <c r="BU28" s="33"/>
+      <c r="BV28" s="33"/>
+      <c r="BW28" s="33"/>
+      <c r="BX28" s="33"/>
+      <c r="BY28" s="33"/>
+      <c r="BZ28" s="33"/>
+      <c r="CA28" s="33"/>
+      <c r="CB28" s="33"/>
+      <c r="CC28" s="33"/>
+      <c r="CD28" s="33"/>
+      <c r="CE28" s="34"/>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
@@ -14258,16 +14257,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="31"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
@@ -14311,77 +14310,129 @@
       <c r="BA29" s="29"/>
       <c r="BB29" s="29"/>
       <c r="BC29" s="29"/>
-      <c r="BD29" s="35"/>
-      <c r="BE29" s="36"/>
-      <c r="BF29" s="36"/>
-      <c r="BG29" s="36"/>
-      <c r="BH29" s="36"/>
-      <c r="BI29" s="36"/>
-      <c r="BJ29" s="36"/>
-      <c r="BK29" s="36"/>
-      <c r="BL29" s="36"/>
-      <c r="BM29" s="36"/>
-      <c r="BN29" s="36"/>
-      <c r="BO29" s="36"/>
-      <c r="BP29" s="36"/>
-      <c r="BQ29" s="36"/>
-      <c r="BR29" s="36"/>
-      <c r="BS29" s="36"/>
-      <c r="BT29" s="36"/>
-      <c r="BU29" s="36"/>
-      <c r="BV29" s="36"/>
-      <c r="BW29" s="36"/>
-      <c r="BX29" s="36"/>
-      <c r="BY29" s="36"/>
-      <c r="BZ29" s="36"/>
-      <c r="CA29" s="36"/>
-      <c r="CB29" s="36"/>
-      <c r="CC29" s="36"/>
-      <c r="CD29" s="36"/>
-      <c r="CE29" s="37"/>
+      <c r="BD29" s="32"/>
+      <c r="BE29" s="33"/>
+      <c r="BF29" s="33"/>
+      <c r="BG29" s="33"/>
+      <c r="BH29" s="33"/>
+      <c r="BI29" s="33"/>
+      <c r="BJ29" s="33"/>
+      <c r="BK29" s="33"/>
+      <c r="BL29" s="33"/>
+      <c r="BM29" s="33"/>
+      <c r="BN29" s="33"/>
+      <c r="BO29" s="33"/>
+      <c r="BP29" s="33"/>
+      <c r="BQ29" s="33"/>
+      <c r="BR29" s="33"/>
+      <c r="BS29" s="33"/>
+      <c r="BT29" s="33"/>
+      <c r="BU29" s="33"/>
+      <c r="BV29" s="33"/>
+      <c r="BW29" s="33"/>
+      <c r="BX29" s="33"/>
+      <c r="BY29" s="33"/>
+      <c r="BZ29" s="33"/>
+      <c r="CA29" s="33"/>
+      <c r="CB29" s="33"/>
+      <c r="CC29" s="33"/>
+      <c r="CD29" s="33"/>
+      <c r="CE29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="V21:AD21"/>
-    <mergeCell ref="AE21:AM21"/>
-    <mergeCell ref="AN21:BC21"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="BD19:CE19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="V20:AD20"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AN20:BC20"/>
-    <mergeCell ref="BD20:CE20"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="V18:AD18"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AN18:BC18"/>
-    <mergeCell ref="BD18:CE18"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="AK24:BC24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="V17:AD17"/>
+    <mergeCell ref="AE17:AM17"/>
+    <mergeCell ref="AN17:BC17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="V19:AD19"/>
+    <mergeCell ref="AE19:AM19"/>
+    <mergeCell ref="AN19:BC19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="Y26:AJ26"/>
+    <mergeCell ref="AK26:BC26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M25:X25"/>
+    <mergeCell ref="Y25:AJ25"/>
+    <mergeCell ref="AK25:BC25"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AK28:BC28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="AK27:BC27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:L28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="M29:X29"/>
     <mergeCell ref="Y29:AJ29"/>
@@ -14406,98 +14457,46 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="M28:X28"/>
     <mergeCell ref="Y28:AJ28"/>
-    <mergeCell ref="AK28:BC28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="M27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="AK27:BC27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="Y26:AJ26"/>
-    <mergeCell ref="AK26:BC26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M25:X25"/>
-    <mergeCell ref="Y25:AJ25"/>
-    <mergeCell ref="AK25:BC25"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK24:BC24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="V17:AD17"/>
-    <mergeCell ref="AE17:AM17"/>
-    <mergeCell ref="AN17:BC17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="V19:AD19"/>
-    <mergeCell ref="AE19:AM19"/>
-    <mergeCell ref="AN19:BC19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="V18:AD18"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AN18:BC18"/>
+    <mergeCell ref="BD18:CE18"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="V21:AD21"/>
+    <mergeCell ref="AE21:AM21"/>
+    <mergeCell ref="AN21:BC21"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="BD19:CE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="V20:AD20"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AN20:BC20"/>
+    <mergeCell ref="BD20:CE20"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14573,31 +14572,31 @@
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="41">
@@ -14615,29 +14614,29 @@
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
@@ -14655,29 +14654,29 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="41">
@@ -14695,29 +14694,29 @@
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="41">
@@ -14735,32 +14734,38 @@
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -14773,12 +14778,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_4人員検索画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_4人員検索画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7BF63B-7570-47A5-BB34-E193AC7CD5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2B937F-6A26-445D-AAC3-4619E72267B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="149">
   <si>
     <t>作成日</t>
   </si>
@@ -1170,6 +1164,11 @@
   </si>
   <si>
     <t>Search_Button</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>int[] personnelState,
+string personnelId</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -6895,7 +6894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12090,7 +12089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -13908,7 +13907,7 @@
       <c r="K25" s="36"/>
       <c r="L25" s="37"/>
       <c r="M25" s="29" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_4人員検索画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_4人員検索画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2B937F-6A26-445D-AAC3-4619E72267B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF6FADA-DF5D-4C16-B8D2-C7006B0E5275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1475,6 +1475,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1492,15 +1501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1508,10 +1508,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9641,7 +9641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A42:AF95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11891,152 +11891,22 @@
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:T89"/>
-    <mergeCell ref="U89:AF89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:T90"/>
-    <mergeCell ref="U90:AF90"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:T87"/>
-    <mergeCell ref="U87:AF87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:T88"/>
-    <mergeCell ref="U88:AF88"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:T85"/>
-    <mergeCell ref="U85:AF85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:T86"/>
-    <mergeCell ref="U86:AF86"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:T83"/>
-    <mergeCell ref="U83:AF83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:T84"/>
-    <mergeCell ref="U84:AF84"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:T81"/>
-    <mergeCell ref="U81:AF81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:T82"/>
-    <mergeCell ref="U82:AF82"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:T79"/>
-    <mergeCell ref="U79:AF79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:T80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:T77"/>
-    <mergeCell ref="U77:AF77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:T78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AF75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:T76"/>
-    <mergeCell ref="U76:AF76"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:T73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:T74"/>
-    <mergeCell ref="U74:AF74"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:T71"/>
-    <mergeCell ref="U71:AF71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:T72"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:T69"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:T70"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:T67"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="U63:AF63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:T59"/>
-    <mergeCell ref="U59:AF59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:T58"/>
-    <mergeCell ref="U58:AF58"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:T95"/>
+    <mergeCell ref="U95:AF95"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:T92"/>
+    <mergeCell ref="U92:AF92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:T93"/>
+    <mergeCell ref="U93:AF93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:T94"/>
+    <mergeCell ref="U94:AF94"/>
     <mergeCell ref="A42:AF42"/>
     <mergeCell ref="A43:AF47"/>
     <mergeCell ref="B50:G50"/>
@@ -12061,22 +11931,152 @@
     <mergeCell ref="U51:AF51"/>
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="H52:K52"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:T95"/>
-    <mergeCell ref="U95:AF95"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:T92"/>
-    <mergeCell ref="U92:AF92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:T93"/>
-    <mergeCell ref="U93:AF93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:T94"/>
-    <mergeCell ref="U94:AF94"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:T58"/>
+    <mergeCell ref="U58:AF58"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:T59"/>
+    <mergeCell ref="U59:AF59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="U63:AF63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:T74"/>
+    <mergeCell ref="U74:AF74"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:T77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AF75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:T76"/>
+    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:T81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:T82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:T85"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:T86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:T83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:T84"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:T89"/>
+    <mergeCell ref="U89:AF89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:T90"/>
+    <mergeCell ref="U90:AF90"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:T87"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:T88"/>
+    <mergeCell ref="U88:AF88"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12089,7 +12089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12273,20 +12273,20 @@
         <v>11</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="38" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="30" t="s">
         <v>5</v>
       </c>
@@ -12334,56 +12334,56 @@
       <c r="BA5" s="30"/>
       <c r="BB5" s="30"/>
       <c r="BC5" s="30"/>
-      <c r="BD5" s="38" t="s">
+      <c r="BD5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="BE5" s="39"/>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="39"/>
-      <c r="BL5" s="39"/>
-      <c r="BM5" s="39"/>
-      <c r="BN5" s="39"/>
-      <c r="BO5" s="39"/>
-      <c r="BP5" s="39"/>
-      <c r="BQ5" s="39"/>
-      <c r="BR5" s="39"/>
-      <c r="BS5" s="39"/>
-      <c r="BT5" s="39"/>
-      <c r="BU5" s="39"/>
-      <c r="BV5" s="39"/>
-      <c r="BW5" s="39"/>
-      <c r="BX5" s="39"/>
-      <c r="BY5" s="39"/>
-      <c r="BZ5" s="39"/>
-      <c r="CA5" s="39"/>
-      <c r="CB5" s="39"/>
-      <c r="CC5" s="39"/>
-      <c r="CD5" s="39"/>
-      <c r="CE5" s="40"/>
+      <c r="BE5" s="33"/>
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="33"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="33"/>
+      <c r="CE5" s="34"/>
     </row>
     <row r="6" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>1</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="29" t="s">
         <v>115</v>
       </c>
@@ -12431,36 +12431,36 @@
       <c r="BA6" s="29"/>
       <c r="BB6" s="29"/>
       <c r="BC6" s="29"/>
-      <c r="BD6" s="32" t="s">
+      <c r="BD6" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="BE6" s="33"/>
-      <c r="BF6" s="33"/>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="33"/>
-      <c r="BI6" s="33"/>
-      <c r="BJ6" s="33"/>
-      <c r="BK6" s="33"/>
-      <c r="BL6" s="33"/>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="33"/>
-      <c r="BO6" s="33"/>
-      <c r="BP6" s="33"/>
-      <c r="BQ6" s="33"/>
-      <c r="BR6" s="33"/>
-      <c r="BS6" s="33"/>
-      <c r="BT6" s="33"/>
-      <c r="BU6" s="33"/>
-      <c r="BV6" s="33"/>
-      <c r="BW6" s="33"/>
-      <c r="BX6" s="33"/>
-      <c r="BY6" s="33"/>
-      <c r="BZ6" s="33"/>
-      <c r="CA6" s="33"/>
-      <c r="CB6" s="33"/>
-      <c r="CC6" s="33"/>
-      <c r="CD6" s="33"/>
-      <c r="CE6" s="34"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
+      <c r="BJ6" s="36"/>
+      <c r="BK6" s="36"/>
+      <c r="BL6" s="36"/>
+      <c r="BM6" s="36"/>
+      <c r="BN6" s="36"/>
+      <c r="BO6" s="36"/>
+      <c r="BP6" s="36"/>
+      <c r="BQ6" s="36"/>
+      <c r="BR6" s="36"/>
+      <c r="BS6" s="36"/>
+      <c r="BT6" s="36"/>
+      <c r="BU6" s="36"/>
+      <c r="BV6" s="36"/>
+      <c r="BW6" s="36"/>
+      <c r="BX6" s="36"/>
+      <c r="BY6" s="36"/>
+      <c r="BZ6" s="36"/>
+      <c r="CA6" s="36"/>
+      <c r="CB6" s="36"/>
+      <c r="CC6" s="36"/>
+      <c r="CD6" s="36"/>
+      <c r="CE6" s="37"/>
     </row>
     <row r="7" spans="1:83" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
@@ -12468,16 +12468,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
@@ -12521,34 +12521,34 @@
       <c r="BA7" s="29"/>
       <c r="BB7" s="29"/>
       <c r="BC7" s="29"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="33"/>
-      <c r="BI7" s="33"/>
-      <c r="BJ7" s="33"/>
-      <c r="BK7" s="33"/>
-      <c r="BL7" s="33"/>
-      <c r="BM7" s="33"/>
-      <c r="BN7" s="33"/>
-      <c r="BO7" s="33"/>
-      <c r="BP7" s="33"/>
-      <c r="BQ7" s="33"/>
-      <c r="BR7" s="33"/>
-      <c r="BS7" s="33"/>
-      <c r="BT7" s="33"/>
-      <c r="BU7" s="33"/>
-      <c r="BV7" s="33"/>
-      <c r="BW7" s="33"/>
-      <c r="BX7" s="33"/>
-      <c r="BY7" s="33"/>
-      <c r="BZ7" s="33"/>
-      <c r="CA7" s="33"/>
-      <c r="CB7" s="33"/>
-      <c r="CC7" s="33"/>
-      <c r="CD7" s="33"/>
-      <c r="CE7" s="34"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="36"/>
+      <c r="BM7" s="36"/>
+      <c r="BN7" s="36"/>
+      <c r="BO7" s="36"/>
+      <c r="BP7" s="36"/>
+      <c r="BQ7" s="36"/>
+      <c r="BR7" s="36"/>
+      <c r="BS7" s="36"/>
+      <c r="BT7" s="36"/>
+      <c r="BU7" s="36"/>
+      <c r="BV7" s="36"/>
+      <c r="BW7" s="36"/>
+      <c r="BX7" s="36"/>
+      <c r="BY7" s="36"/>
+      <c r="BZ7" s="36"/>
+      <c r="CA7" s="36"/>
+      <c r="CB7" s="36"/>
+      <c r="CC7" s="36"/>
+      <c r="CD7" s="36"/>
+      <c r="CE7" s="37"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
@@ -12556,16 +12556,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
@@ -12609,34 +12609,34 @@
       <c r="BA8" s="29"/>
       <c r="BB8" s="29"/>
       <c r="BC8" s="29"/>
-      <c r="BD8" s="32"/>
-      <c r="BE8" s="33"/>
-      <c r="BF8" s="33"/>
-      <c r="BG8" s="33"/>
-      <c r="BH8" s="33"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="33"/>
-      <c r="BK8" s="33"/>
-      <c r="BL8" s="33"/>
-      <c r="BM8" s="33"/>
-      <c r="BN8" s="33"/>
-      <c r="BO8" s="33"/>
-      <c r="BP8" s="33"/>
-      <c r="BQ8" s="33"/>
-      <c r="BR8" s="33"/>
-      <c r="BS8" s="33"/>
-      <c r="BT8" s="33"/>
-      <c r="BU8" s="33"/>
-      <c r="BV8" s="33"/>
-      <c r="BW8" s="33"/>
-      <c r="BX8" s="33"/>
-      <c r="BY8" s="33"/>
-      <c r="BZ8" s="33"/>
-      <c r="CA8" s="33"/>
-      <c r="CB8" s="33"/>
-      <c r="CC8" s="33"/>
-      <c r="CD8" s="33"/>
-      <c r="CE8" s="34"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="36"/>
+      <c r="BG8" s="36"/>
+      <c r="BH8" s="36"/>
+      <c r="BI8" s="36"/>
+      <c r="BJ8" s="36"/>
+      <c r="BK8" s="36"/>
+      <c r="BL8" s="36"/>
+      <c r="BM8" s="36"/>
+      <c r="BN8" s="36"/>
+      <c r="BO8" s="36"/>
+      <c r="BP8" s="36"/>
+      <c r="BQ8" s="36"/>
+      <c r="BR8" s="36"/>
+      <c r="BS8" s="36"/>
+      <c r="BT8" s="36"/>
+      <c r="BU8" s="36"/>
+      <c r="BV8" s="36"/>
+      <c r="BW8" s="36"/>
+      <c r="BX8" s="36"/>
+      <c r="BY8" s="36"/>
+      <c r="BZ8" s="36"/>
+      <c r="CA8" s="36"/>
+      <c r="CB8" s="36"/>
+      <c r="CC8" s="36"/>
+      <c r="CD8" s="36"/>
+      <c r="CE8" s="37"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -12757,20 +12757,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="38" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="30" t="s">
         <v>10</v>
       </c>
@@ -12822,56 +12822,56 @@
       <c r="BA11" s="30"/>
       <c r="BB11" s="30"/>
       <c r="BC11" s="30"/>
-      <c r="BD11" s="38" t="s">
+      <c r="BD11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="BE11" s="39"/>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="39"/>
-      <c r="BH11" s="39"/>
-      <c r="BI11" s="39"/>
-      <c r="BJ11" s="39"/>
-      <c r="BK11" s="39"/>
-      <c r="BL11" s="39"/>
-      <c r="BM11" s="39"/>
-      <c r="BN11" s="39"/>
-      <c r="BO11" s="39"/>
-      <c r="BP11" s="39"/>
-      <c r="BQ11" s="39"/>
-      <c r="BR11" s="39"/>
-      <c r="BS11" s="39"/>
-      <c r="BT11" s="39"/>
-      <c r="BU11" s="39"/>
-      <c r="BV11" s="39"/>
-      <c r="BW11" s="39"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="39"/>
-      <c r="BZ11" s="39"/>
-      <c r="CA11" s="39"/>
-      <c r="CB11" s="39"/>
-      <c r="CC11" s="39"/>
-      <c r="CD11" s="39"/>
-      <c r="CE11" s="40"/>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="33"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="33"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="33"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="33"/>
+      <c r="BP11" s="33"/>
+      <c r="BQ11" s="33"/>
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="33"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="33"/>
+      <c r="BV11" s="33"/>
+      <c r="BW11" s="33"/>
+      <c r="BX11" s="33"/>
+      <c r="BY11" s="33"/>
+      <c r="BZ11" s="33"/>
+      <c r="CA11" s="33"/>
+      <c r="CB11" s="33"/>
+      <c r="CC11" s="33"/>
+      <c r="CD11" s="33"/>
+      <c r="CE11" s="34"/>
     </row>
     <row r="12" spans="1:83" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>1</v>
       </c>
       <c r="B12" s="31"/>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="29" t="s">
         <v>14</v>
       </c>
@@ -12923,36 +12923,36 @@
       <c r="BA12" s="29"/>
       <c r="BB12" s="29"/>
       <c r="BC12" s="29"/>
-      <c r="BD12" s="32" t="s">
+      <c r="BD12" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="BE12" s="33"/>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="33"/>
-      <c r="BH12" s="33"/>
-      <c r="BI12" s="33"/>
-      <c r="BJ12" s="33"/>
-      <c r="BK12" s="33"/>
-      <c r="BL12" s="33"/>
-      <c r="BM12" s="33"/>
-      <c r="BN12" s="33"/>
-      <c r="BO12" s="33"/>
-      <c r="BP12" s="33"/>
-      <c r="BQ12" s="33"/>
-      <c r="BR12" s="33"/>
-      <c r="BS12" s="33"/>
-      <c r="BT12" s="33"/>
-      <c r="BU12" s="33"/>
-      <c r="BV12" s="33"/>
-      <c r="BW12" s="33"/>
-      <c r="BX12" s="33"/>
-      <c r="BY12" s="33"/>
-      <c r="BZ12" s="33"/>
-      <c r="CA12" s="33"/>
-      <c r="CB12" s="33"/>
-      <c r="CC12" s="33"/>
-      <c r="CD12" s="33"/>
-      <c r="CE12" s="34"/>
+      <c r="BE12" s="36"/>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="36"/>
+      <c r="BI12" s="36"/>
+      <c r="BJ12" s="36"/>
+      <c r="BK12" s="36"/>
+      <c r="BL12" s="36"/>
+      <c r="BM12" s="36"/>
+      <c r="BN12" s="36"/>
+      <c r="BO12" s="36"/>
+      <c r="BP12" s="36"/>
+      <c r="BQ12" s="36"/>
+      <c r="BR12" s="36"/>
+      <c r="BS12" s="36"/>
+      <c r="BT12" s="36"/>
+      <c r="BU12" s="36"/>
+      <c r="BV12" s="36"/>
+      <c r="BW12" s="36"/>
+      <c r="BX12" s="36"/>
+      <c r="BY12" s="36"/>
+      <c r="BZ12" s="36"/>
+      <c r="CA12" s="36"/>
+      <c r="CB12" s="36"/>
+      <c r="CC12" s="36"/>
+      <c r="CD12" s="36"/>
+      <c r="CE12" s="37"/>
     </row>
     <row r="13" spans="1:83" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
@@ -12960,20 +12960,20 @@
         <v>2</v>
       </c>
       <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
       <c r="M13" s="29" t="s">
         <v>117</v>
       </c>
@@ -13025,36 +13025,36 @@
       <c r="BA13" s="29"/>
       <c r="BB13" s="29"/>
       <c r="BC13" s="29"/>
-      <c r="BD13" s="32" t="s">
+      <c r="BD13" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="BE13" s="33"/>
-      <c r="BF13" s="33"/>
-      <c r="BG13" s="33"/>
-      <c r="BH13" s="33"/>
-      <c r="BI13" s="33"/>
-      <c r="BJ13" s="33"/>
-      <c r="BK13" s="33"/>
-      <c r="BL13" s="33"/>
-      <c r="BM13" s="33"/>
-      <c r="BN13" s="33"/>
-      <c r="BO13" s="33"/>
-      <c r="BP13" s="33"/>
-      <c r="BQ13" s="33"/>
-      <c r="BR13" s="33"/>
-      <c r="BS13" s="33"/>
-      <c r="BT13" s="33"/>
-      <c r="BU13" s="33"/>
-      <c r="BV13" s="33"/>
-      <c r="BW13" s="33"/>
-      <c r="BX13" s="33"/>
-      <c r="BY13" s="33"/>
-      <c r="BZ13" s="33"/>
-      <c r="CA13" s="33"/>
-      <c r="CB13" s="33"/>
-      <c r="CC13" s="33"/>
-      <c r="CD13" s="33"/>
-      <c r="CE13" s="34"/>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="36"/>
+      <c r="BI13" s="36"/>
+      <c r="BJ13" s="36"/>
+      <c r="BK13" s="36"/>
+      <c r="BL13" s="36"/>
+      <c r="BM13" s="36"/>
+      <c r="BN13" s="36"/>
+      <c r="BO13" s="36"/>
+      <c r="BP13" s="36"/>
+      <c r="BQ13" s="36"/>
+      <c r="BR13" s="36"/>
+      <c r="BS13" s="36"/>
+      <c r="BT13" s="36"/>
+      <c r="BU13" s="36"/>
+      <c r="BV13" s="36"/>
+      <c r="BW13" s="36"/>
+      <c r="BX13" s="36"/>
+      <c r="BY13" s="36"/>
+      <c r="BZ13" s="36"/>
+      <c r="CA13" s="36"/>
+      <c r="CB13" s="36"/>
+      <c r="CC13" s="36"/>
+      <c r="CD13" s="36"/>
+      <c r="CE13" s="37"/>
     </row>
     <row r="14" spans="1:83" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
@@ -13062,20 +13062,20 @@
         <v>3</v>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="29" t="s">
         <v>119</v>
       </c>
@@ -13127,36 +13127,36 @@
       <c r="BA14" s="29"/>
       <c r="BB14" s="29"/>
       <c r="BC14" s="29"/>
-      <c r="BD14" s="32" t="s">
+      <c r="BD14" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BE14" s="33"/>
-      <c r="BF14" s="33"/>
-      <c r="BG14" s="33"/>
-      <c r="BH14" s="33"/>
-      <c r="BI14" s="33"/>
-      <c r="BJ14" s="33"/>
-      <c r="BK14" s="33"/>
-      <c r="BL14" s="33"/>
-      <c r="BM14" s="33"/>
-      <c r="BN14" s="33"/>
-      <c r="BO14" s="33"/>
-      <c r="BP14" s="33"/>
-      <c r="BQ14" s="33"/>
-      <c r="BR14" s="33"/>
-      <c r="BS14" s="33"/>
-      <c r="BT14" s="33"/>
-      <c r="BU14" s="33"/>
-      <c r="BV14" s="33"/>
-      <c r="BW14" s="33"/>
-      <c r="BX14" s="33"/>
-      <c r="BY14" s="33"/>
-      <c r="BZ14" s="33"/>
-      <c r="CA14" s="33"/>
-      <c r="CB14" s="33"/>
-      <c r="CC14" s="33"/>
-      <c r="CD14" s="33"/>
-      <c r="CE14" s="34"/>
+      <c r="BE14" s="36"/>
+      <c r="BF14" s="36"/>
+      <c r="BG14" s="36"/>
+      <c r="BH14" s="36"/>
+      <c r="BI14" s="36"/>
+      <c r="BJ14" s="36"/>
+      <c r="BK14" s="36"/>
+      <c r="BL14" s="36"/>
+      <c r="BM14" s="36"/>
+      <c r="BN14" s="36"/>
+      <c r="BO14" s="36"/>
+      <c r="BP14" s="36"/>
+      <c r="BQ14" s="36"/>
+      <c r="BR14" s="36"/>
+      <c r="BS14" s="36"/>
+      <c r="BT14" s="36"/>
+      <c r="BU14" s="36"/>
+      <c r="BV14" s="36"/>
+      <c r="BW14" s="36"/>
+      <c r="BX14" s="36"/>
+      <c r="BY14" s="36"/>
+      <c r="BZ14" s="36"/>
+      <c r="CA14" s="36"/>
+      <c r="CB14" s="36"/>
+      <c r="CC14" s="36"/>
+      <c r="CD14" s="36"/>
+      <c r="CE14" s="37"/>
     </row>
     <row r="15" spans="1:83" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
@@ -13164,20 +13164,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="29" t="s">
         <v>117</v>
       </c>
@@ -13229,36 +13229,36 @@
       <c r="BA15" s="29"/>
       <c r="BB15" s="29"/>
       <c r="BC15" s="29"/>
-      <c r="BD15" s="32" t="s">
+      <c r="BD15" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="BE15" s="33"/>
-      <c r="BF15" s="33"/>
-      <c r="BG15" s="33"/>
-      <c r="BH15" s="33"/>
-      <c r="BI15" s="33"/>
-      <c r="BJ15" s="33"/>
-      <c r="BK15" s="33"/>
-      <c r="BL15" s="33"/>
-      <c r="BM15" s="33"/>
-      <c r="BN15" s="33"/>
-      <c r="BO15" s="33"/>
-      <c r="BP15" s="33"/>
-      <c r="BQ15" s="33"/>
-      <c r="BR15" s="33"/>
-      <c r="BS15" s="33"/>
-      <c r="BT15" s="33"/>
-      <c r="BU15" s="33"/>
-      <c r="BV15" s="33"/>
-      <c r="BW15" s="33"/>
-      <c r="BX15" s="33"/>
-      <c r="BY15" s="33"/>
-      <c r="BZ15" s="33"/>
-      <c r="CA15" s="33"/>
-      <c r="CB15" s="33"/>
-      <c r="CC15" s="33"/>
-      <c r="CD15" s="33"/>
-      <c r="CE15" s="34"/>
+      <c r="BE15" s="36"/>
+      <c r="BF15" s="36"/>
+      <c r="BG15" s="36"/>
+      <c r="BH15" s="36"/>
+      <c r="BI15" s="36"/>
+      <c r="BJ15" s="36"/>
+      <c r="BK15" s="36"/>
+      <c r="BL15" s="36"/>
+      <c r="BM15" s="36"/>
+      <c r="BN15" s="36"/>
+      <c r="BO15" s="36"/>
+      <c r="BP15" s="36"/>
+      <c r="BQ15" s="36"/>
+      <c r="BR15" s="36"/>
+      <c r="BS15" s="36"/>
+      <c r="BT15" s="36"/>
+      <c r="BU15" s="36"/>
+      <c r="BV15" s="36"/>
+      <c r="BW15" s="36"/>
+      <c r="BX15" s="36"/>
+      <c r="BY15" s="36"/>
+      <c r="BZ15" s="36"/>
+      <c r="CA15" s="36"/>
+      <c r="CB15" s="36"/>
+      <c r="CC15" s="36"/>
+      <c r="CD15" s="36"/>
+      <c r="CE15" s="37"/>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
@@ -13266,16 +13266,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
@@ -13319,34 +13319,34 @@
       <c r="BA16" s="29"/>
       <c r="BB16" s="29"/>
       <c r="BC16" s="29"/>
-      <c r="BD16" s="32"/>
-      <c r="BE16" s="33"/>
-      <c r="BF16" s="33"/>
-      <c r="BG16" s="33"/>
-      <c r="BH16" s="33"/>
-      <c r="BI16" s="33"/>
-      <c r="BJ16" s="33"/>
-      <c r="BK16" s="33"/>
-      <c r="BL16" s="33"/>
-      <c r="BM16" s="33"/>
-      <c r="BN16" s="33"/>
-      <c r="BO16" s="33"/>
-      <c r="BP16" s="33"/>
-      <c r="BQ16" s="33"/>
-      <c r="BR16" s="33"/>
-      <c r="BS16" s="33"/>
-      <c r="BT16" s="33"/>
-      <c r="BU16" s="33"/>
-      <c r="BV16" s="33"/>
-      <c r="BW16" s="33"/>
-      <c r="BX16" s="33"/>
-      <c r="BY16" s="33"/>
-      <c r="BZ16" s="33"/>
-      <c r="CA16" s="33"/>
-      <c r="CB16" s="33"/>
-      <c r="CC16" s="33"/>
-      <c r="CD16" s="33"/>
-      <c r="CE16" s="34"/>
+      <c r="BD16" s="35"/>
+      <c r="BE16" s="36"/>
+      <c r="BF16" s="36"/>
+      <c r="BG16" s="36"/>
+      <c r="BH16" s="36"/>
+      <c r="BI16" s="36"/>
+      <c r="BJ16" s="36"/>
+      <c r="BK16" s="36"/>
+      <c r="BL16" s="36"/>
+      <c r="BM16" s="36"/>
+      <c r="BN16" s="36"/>
+      <c r="BO16" s="36"/>
+      <c r="BP16" s="36"/>
+      <c r="BQ16" s="36"/>
+      <c r="BR16" s="36"/>
+      <c r="BS16" s="36"/>
+      <c r="BT16" s="36"/>
+      <c r="BU16" s="36"/>
+      <c r="BV16" s="36"/>
+      <c r="BW16" s="36"/>
+      <c r="BX16" s="36"/>
+      <c r="BY16" s="36"/>
+      <c r="BZ16" s="36"/>
+      <c r="CA16" s="36"/>
+      <c r="CB16" s="36"/>
+      <c r="CC16" s="36"/>
+      <c r="CD16" s="36"/>
+      <c r="CE16" s="37"/>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
@@ -13354,16 +13354,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
@@ -13407,34 +13407,34 @@
       <c r="BA17" s="29"/>
       <c r="BB17" s="29"/>
       <c r="BC17" s="29"/>
-      <c r="BD17" s="32"/>
-      <c r="BE17" s="33"/>
-      <c r="BF17" s="33"/>
-      <c r="BG17" s="33"/>
-      <c r="BH17" s="33"/>
-      <c r="BI17" s="33"/>
-      <c r="BJ17" s="33"/>
-      <c r="BK17" s="33"/>
-      <c r="BL17" s="33"/>
-      <c r="BM17" s="33"/>
-      <c r="BN17" s="33"/>
-      <c r="BO17" s="33"/>
-      <c r="BP17" s="33"/>
-      <c r="BQ17" s="33"/>
-      <c r="BR17" s="33"/>
-      <c r="BS17" s="33"/>
-      <c r="BT17" s="33"/>
-      <c r="BU17" s="33"/>
-      <c r="BV17" s="33"/>
-      <c r="BW17" s="33"/>
-      <c r="BX17" s="33"/>
-      <c r="BY17" s="33"/>
-      <c r="BZ17" s="33"/>
-      <c r="CA17" s="33"/>
-      <c r="CB17" s="33"/>
-      <c r="CC17" s="33"/>
-      <c r="CD17" s="33"/>
-      <c r="CE17" s="34"/>
+      <c r="BD17" s="35"/>
+      <c r="BE17" s="36"/>
+      <c r="BF17" s="36"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="36"/>
+      <c r="BJ17" s="36"/>
+      <c r="BK17" s="36"/>
+      <c r="BL17" s="36"/>
+      <c r="BM17" s="36"/>
+      <c r="BN17" s="36"/>
+      <c r="BO17" s="36"/>
+      <c r="BP17" s="36"/>
+      <c r="BQ17" s="36"/>
+      <c r="BR17" s="36"/>
+      <c r="BS17" s="36"/>
+      <c r="BT17" s="36"/>
+      <c r="BU17" s="36"/>
+      <c r="BV17" s="36"/>
+      <c r="BW17" s="36"/>
+      <c r="BX17" s="36"/>
+      <c r="BY17" s="36"/>
+      <c r="BZ17" s="36"/>
+      <c r="CA17" s="36"/>
+      <c r="CB17" s="36"/>
+      <c r="CC17" s="36"/>
+      <c r="CD17" s="36"/>
+      <c r="CE17" s="37"/>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
@@ -13442,16 +13442,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
@@ -13495,34 +13495,34 @@
       <c r="BA18" s="29"/>
       <c r="BB18" s="29"/>
       <c r="BC18" s="29"/>
-      <c r="BD18" s="32"/>
-      <c r="BE18" s="33"/>
-      <c r="BF18" s="33"/>
-      <c r="BG18" s="33"/>
-      <c r="BH18" s="33"/>
-      <c r="BI18" s="33"/>
-      <c r="BJ18" s="33"/>
-      <c r="BK18" s="33"/>
-      <c r="BL18" s="33"/>
-      <c r="BM18" s="33"/>
-      <c r="BN18" s="33"/>
-      <c r="BO18" s="33"/>
-      <c r="BP18" s="33"/>
-      <c r="BQ18" s="33"/>
-      <c r="BR18" s="33"/>
-      <c r="BS18" s="33"/>
-      <c r="BT18" s="33"/>
-      <c r="BU18" s="33"/>
-      <c r="BV18" s="33"/>
-      <c r="BW18" s="33"/>
-      <c r="BX18" s="33"/>
-      <c r="BY18" s="33"/>
-      <c r="BZ18" s="33"/>
-      <c r="CA18" s="33"/>
-      <c r="CB18" s="33"/>
-      <c r="CC18" s="33"/>
-      <c r="CD18" s="33"/>
-      <c r="CE18" s="34"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="36"/>
+      <c r="BJ18" s="36"/>
+      <c r="BK18" s="36"/>
+      <c r="BL18" s="36"/>
+      <c r="BM18" s="36"/>
+      <c r="BN18" s="36"/>
+      <c r="BO18" s="36"/>
+      <c r="BP18" s="36"/>
+      <c r="BQ18" s="36"/>
+      <c r="BR18" s="36"/>
+      <c r="BS18" s="36"/>
+      <c r="BT18" s="36"/>
+      <c r="BU18" s="36"/>
+      <c r="BV18" s="36"/>
+      <c r="BW18" s="36"/>
+      <c r="BX18" s="36"/>
+      <c r="BY18" s="36"/>
+      <c r="BZ18" s="36"/>
+      <c r="CA18" s="36"/>
+      <c r="CB18" s="36"/>
+      <c r="CC18" s="36"/>
+      <c r="CD18" s="36"/>
+      <c r="CE18" s="37"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
@@ -13530,16 +13530,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
@@ -13583,34 +13583,34 @@
       <c r="BA19" s="29"/>
       <c r="BB19" s="29"/>
       <c r="BC19" s="29"/>
-      <c r="BD19" s="32"/>
-      <c r="BE19" s="33"/>
-      <c r="BF19" s="33"/>
-      <c r="BG19" s="33"/>
-      <c r="BH19" s="33"/>
-      <c r="BI19" s="33"/>
-      <c r="BJ19" s="33"/>
-      <c r="BK19" s="33"/>
-      <c r="BL19" s="33"/>
-      <c r="BM19" s="33"/>
-      <c r="BN19" s="33"/>
-      <c r="BO19" s="33"/>
-      <c r="BP19" s="33"/>
-      <c r="BQ19" s="33"/>
-      <c r="BR19" s="33"/>
-      <c r="BS19" s="33"/>
-      <c r="BT19" s="33"/>
-      <c r="BU19" s="33"/>
-      <c r="BV19" s="33"/>
-      <c r="BW19" s="33"/>
-      <c r="BX19" s="33"/>
-      <c r="BY19" s="33"/>
-      <c r="BZ19" s="33"/>
-      <c r="CA19" s="33"/>
-      <c r="CB19" s="33"/>
-      <c r="CC19" s="33"/>
-      <c r="CD19" s="33"/>
-      <c r="CE19" s="34"/>
+      <c r="BD19" s="35"/>
+      <c r="BE19" s="36"/>
+      <c r="BF19" s="36"/>
+      <c r="BG19" s="36"/>
+      <c r="BH19" s="36"/>
+      <c r="BI19" s="36"/>
+      <c r="BJ19" s="36"/>
+      <c r="BK19" s="36"/>
+      <c r="BL19" s="36"/>
+      <c r="BM19" s="36"/>
+      <c r="BN19" s="36"/>
+      <c r="BO19" s="36"/>
+      <c r="BP19" s="36"/>
+      <c r="BQ19" s="36"/>
+      <c r="BR19" s="36"/>
+      <c r="BS19" s="36"/>
+      <c r="BT19" s="36"/>
+      <c r="BU19" s="36"/>
+      <c r="BV19" s="36"/>
+      <c r="BW19" s="36"/>
+      <c r="BX19" s="36"/>
+      <c r="BY19" s="36"/>
+      <c r="BZ19" s="36"/>
+      <c r="CA19" s="36"/>
+      <c r="CB19" s="36"/>
+      <c r="CC19" s="36"/>
+      <c r="CD19" s="36"/>
+      <c r="CE19" s="37"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
@@ -13618,16 +13618,16 @@
         <v>9</v>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
@@ -13671,34 +13671,34 @@
       <c r="BA20" s="29"/>
       <c r="BB20" s="29"/>
       <c r="BC20" s="29"/>
-      <c r="BD20" s="32"/>
-      <c r="BE20" s="33"/>
-      <c r="BF20" s="33"/>
-      <c r="BG20" s="33"/>
-      <c r="BH20" s="33"/>
-      <c r="BI20" s="33"/>
-      <c r="BJ20" s="33"/>
-      <c r="BK20" s="33"/>
-      <c r="BL20" s="33"/>
-      <c r="BM20" s="33"/>
-      <c r="BN20" s="33"/>
-      <c r="BO20" s="33"/>
-      <c r="BP20" s="33"/>
-      <c r="BQ20" s="33"/>
-      <c r="BR20" s="33"/>
-      <c r="BS20" s="33"/>
-      <c r="BT20" s="33"/>
-      <c r="BU20" s="33"/>
-      <c r="BV20" s="33"/>
-      <c r="BW20" s="33"/>
-      <c r="BX20" s="33"/>
-      <c r="BY20" s="33"/>
-      <c r="BZ20" s="33"/>
-      <c r="CA20" s="33"/>
-      <c r="CB20" s="33"/>
-      <c r="CC20" s="33"/>
-      <c r="CD20" s="33"/>
-      <c r="CE20" s="34"/>
+      <c r="BD20" s="35"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="36"/>
+      <c r="BR20" s="36"/>
+      <c r="BS20" s="36"/>
+      <c r="BT20" s="36"/>
+      <c r="BU20" s="36"/>
+      <c r="BV20" s="36"/>
+      <c r="BW20" s="36"/>
+      <c r="BX20" s="36"/>
+      <c r="BY20" s="36"/>
+      <c r="BZ20" s="36"/>
+      <c r="CA20" s="36"/>
+      <c r="CB20" s="36"/>
+      <c r="CC20" s="36"/>
+      <c r="CD20" s="36"/>
+      <c r="CE20" s="37"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
@@ -13706,16 +13706,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
@@ -13759,54 +13759,54 @@
       <c r="BA21" s="29"/>
       <c r="BB21" s="29"/>
       <c r="BC21" s="29"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="33"/>
-      <c r="BF21" s="33"/>
-      <c r="BG21" s="33"/>
-      <c r="BH21" s="33"/>
-      <c r="BI21" s="33"/>
-      <c r="BJ21" s="33"/>
-      <c r="BK21" s="33"/>
-      <c r="BL21" s="33"/>
-      <c r="BM21" s="33"/>
-      <c r="BN21" s="33"/>
-      <c r="BO21" s="33"/>
-      <c r="BP21" s="33"/>
-      <c r="BQ21" s="33"/>
-      <c r="BR21" s="33"/>
-      <c r="BS21" s="33"/>
-      <c r="BT21" s="33"/>
-      <c r="BU21" s="33"/>
-      <c r="BV21" s="33"/>
-      <c r="BW21" s="33"/>
-      <c r="BX21" s="33"/>
-      <c r="BY21" s="33"/>
-      <c r="BZ21" s="33"/>
-      <c r="CA21" s="33"/>
-      <c r="CB21" s="33"/>
-      <c r="CC21" s="33"/>
-      <c r="CD21" s="33"/>
-      <c r="CE21" s="34"/>
+      <c r="BD21" s="35"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="36"/>
+      <c r="BM21" s="36"/>
+      <c r="BN21" s="36"/>
+      <c r="BO21" s="36"/>
+      <c r="BP21" s="36"/>
+      <c r="BQ21" s="36"/>
+      <c r="BR21" s="36"/>
+      <c r="BS21" s="36"/>
+      <c r="BT21" s="36"/>
+      <c r="BU21" s="36"/>
+      <c r="BV21" s="36"/>
+      <c r="BW21" s="36"/>
+      <c r="BX21" s="36"/>
+      <c r="BY21" s="36"/>
+      <c r="BZ21" s="36"/>
+      <c r="CA21" s="36"/>
+      <c r="CB21" s="36"/>
+      <c r="CC21" s="36"/>
+      <c r="CD21" s="36"/>
+      <c r="CE21" s="37"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="30"/>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="38" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="30" t="s">
         <v>5</v>
       </c>
@@ -13856,56 +13856,56 @@
       <c r="BA24" s="30"/>
       <c r="BB24" s="30"/>
       <c r="BC24" s="30"/>
-      <c r="BD24" s="38" t="s">
+      <c r="BD24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="BE24" s="39"/>
-      <c r="BF24" s="39"/>
-      <c r="BG24" s="39"/>
-      <c r="BH24" s="39"/>
-      <c r="BI24" s="39"/>
-      <c r="BJ24" s="39"/>
-      <c r="BK24" s="39"/>
-      <c r="BL24" s="39"/>
-      <c r="BM24" s="39"/>
-      <c r="BN24" s="39"/>
-      <c r="BO24" s="39"/>
-      <c r="BP24" s="39"/>
-      <c r="BQ24" s="39"/>
-      <c r="BR24" s="39"/>
-      <c r="BS24" s="39"/>
-      <c r="BT24" s="39"/>
-      <c r="BU24" s="39"/>
-      <c r="BV24" s="39"/>
-      <c r="BW24" s="39"/>
-      <c r="BX24" s="39"/>
-      <c r="BY24" s="39"/>
-      <c r="BZ24" s="39"/>
-      <c r="CA24" s="39"/>
-      <c r="CB24" s="39"/>
-      <c r="CC24" s="39"/>
-      <c r="CD24" s="39"/>
-      <c r="CE24" s="40"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="33"/>
+      <c r="BG24" s="33"/>
+      <c r="BH24" s="33"/>
+      <c r="BI24" s="33"/>
+      <c r="BJ24" s="33"/>
+      <c r="BK24" s="33"/>
+      <c r="BL24" s="33"/>
+      <c r="BM24" s="33"/>
+      <c r="BN24" s="33"/>
+      <c r="BO24" s="33"/>
+      <c r="BP24" s="33"/>
+      <c r="BQ24" s="33"/>
+      <c r="BR24" s="33"/>
+      <c r="BS24" s="33"/>
+      <c r="BT24" s="33"/>
+      <c r="BU24" s="33"/>
+      <c r="BV24" s="33"/>
+      <c r="BW24" s="33"/>
+      <c r="BX24" s="33"/>
+      <c r="BY24" s="33"/>
+      <c r="BZ24" s="33"/>
+      <c r="CA24" s="33"/>
+      <c r="CB24" s="33"/>
+      <c r="CC24" s="33"/>
+      <c r="CD24" s="33"/>
+      <c r="CE24" s="34"/>
     </row>
     <row r="25" spans="1:83" ht="67.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>1</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35" t="s">
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="29" t="s">
         <v>148</v>
       </c>
@@ -13955,36 +13955,36 @@
       <c r="BA25" s="29"/>
       <c r="BB25" s="29"/>
       <c r="BC25" s="29"/>
-      <c r="BD25" s="32" t="s">
+      <c r="BD25" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="BE25" s="33"/>
-      <c r="BF25" s="33"/>
-      <c r="BG25" s="33"/>
-      <c r="BH25" s="33"/>
-      <c r="BI25" s="33"/>
-      <c r="BJ25" s="33"/>
-      <c r="BK25" s="33"/>
-      <c r="BL25" s="33"/>
-      <c r="BM25" s="33"/>
-      <c r="BN25" s="33"/>
-      <c r="BO25" s="33"/>
-      <c r="BP25" s="33"/>
-      <c r="BQ25" s="33"/>
-      <c r="BR25" s="33"/>
-      <c r="BS25" s="33"/>
-      <c r="BT25" s="33"/>
-      <c r="BU25" s="33"/>
-      <c r="BV25" s="33"/>
-      <c r="BW25" s="33"/>
-      <c r="BX25" s="33"/>
-      <c r="BY25" s="33"/>
-      <c r="BZ25" s="33"/>
-      <c r="CA25" s="33"/>
-      <c r="CB25" s="33"/>
-      <c r="CC25" s="33"/>
-      <c r="CD25" s="33"/>
-      <c r="CE25" s="34"/>
+      <c r="BE25" s="36"/>
+      <c r="BF25" s="36"/>
+      <c r="BG25" s="36"/>
+      <c r="BH25" s="36"/>
+      <c r="BI25" s="36"/>
+      <c r="BJ25" s="36"/>
+      <c r="BK25" s="36"/>
+      <c r="BL25" s="36"/>
+      <c r="BM25" s="36"/>
+      <c r="BN25" s="36"/>
+      <c r="BO25" s="36"/>
+      <c r="BP25" s="36"/>
+      <c r="BQ25" s="36"/>
+      <c r="BR25" s="36"/>
+      <c r="BS25" s="36"/>
+      <c r="BT25" s="36"/>
+      <c r="BU25" s="36"/>
+      <c r="BV25" s="36"/>
+      <c r="BW25" s="36"/>
+      <c r="BX25" s="36"/>
+      <c r="BY25" s="36"/>
+      <c r="BZ25" s="36"/>
+      <c r="CA25" s="36"/>
+      <c r="CB25" s="36"/>
+      <c r="CC25" s="36"/>
+      <c r="CD25" s="36"/>
+      <c r="CE25" s="37"/>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
@@ -13992,16 +13992,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
@@ -14045,34 +14045,34 @@
       <c r="BA26" s="29"/>
       <c r="BB26" s="29"/>
       <c r="BC26" s="29"/>
-      <c r="BD26" s="32"/>
-      <c r="BE26" s="33"/>
-      <c r="BF26" s="33"/>
-      <c r="BG26" s="33"/>
-      <c r="BH26" s="33"/>
-      <c r="BI26" s="33"/>
-      <c r="BJ26" s="33"/>
-      <c r="BK26" s="33"/>
-      <c r="BL26" s="33"/>
-      <c r="BM26" s="33"/>
-      <c r="BN26" s="33"/>
-      <c r="BO26" s="33"/>
-      <c r="BP26" s="33"/>
-      <c r="BQ26" s="33"/>
-      <c r="BR26" s="33"/>
-      <c r="BS26" s="33"/>
-      <c r="BT26" s="33"/>
-      <c r="BU26" s="33"/>
-      <c r="BV26" s="33"/>
-      <c r="BW26" s="33"/>
-      <c r="BX26" s="33"/>
-      <c r="BY26" s="33"/>
-      <c r="BZ26" s="33"/>
-      <c r="CA26" s="33"/>
-      <c r="CB26" s="33"/>
-      <c r="CC26" s="33"/>
-      <c r="CD26" s="33"/>
-      <c r="CE26" s="34"/>
+      <c r="BD26" s="35"/>
+      <c r="BE26" s="36"/>
+      <c r="BF26" s="36"/>
+      <c r="BG26" s="36"/>
+      <c r="BH26" s="36"/>
+      <c r="BI26" s="36"/>
+      <c r="BJ26" s="36"/>
+      <c r="BK26" s="36"/>
+      <c r="BL26" s="36"/>
+      <c r="BM26" s="36"/>
+      <c r="BN26" s="36"/>
+      <c r="BO26" s="36"/>
+      <c r="BP26" s="36"/>
+      <c r="BQ26" s="36"/>
+      <c r="BR26" s="36"/>
+      <c r="BS26" s="36"/>
+      <c r="BT26" s="36"/>
+      <c r="BU26" s="36"/>
+      <c r="BV26" s="36"/>
+      <c r="BW26" s="36"/>
+      <c r="BX26" s="36"/>
+      <c r="BY26" s="36"/>
+      <c r="BZ26" s="36"/>
+      <c r="CA26" s="36"/>
+      <c r="CB26" s="36"/>
+      <c r="CC26" s="36"/>
+      <c r="CD26" s="36"/>
+      <c r="CE26" s="37"/>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
@@ -14080,16 +14080,16 @@
         <v>3</v>
       </c>
       <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
@@ -14133,34 +14133,34 @@
       <c r="BA27" s="29"/>
       <c r="BB27" s="29"/>
       <c r="BC27" s="29"/>
-      <c r="BD27" s="32"/>
-      <c r="BE27" s="33"/>
-      <c r="BF27" s="33"/>
-      <c r="BG27" s="33"/>
-      <c r="BH27" s="33"/>
-      <c r="BI27" s="33"/>
-      <c r="BJ27" s="33"/>
-      <c r="BK27" s="33"/>
-      <c r="BL27" s="33"/>
-      <c r="BM27" s="33"/>
-      <c r="BN27" s="33"/>
-      <c r="BO27" s="33"/>
-      <c r="BP27" s="33"/>
-      <c r="BQ27" s="33"/>
-      <c r="BR27" s="33"/>
-      <c r="BS27" s="33"/>
-      <c r="BT27" s="33"/>
-      <c r="BU27" s="33"/>
-      <c r="BV27" s="33"/>
-      <c r="BW27" s="33"/>
-      <c r="BX27" s="33"/>
-      <c r="BY27" s="33"/>
-      <c r="BZ27" s="33"/>
-      <c r="CA27" s="33"/>
-      <c r="CB27" s="33"/>
-      <c r="CC27" s="33"/>
-      <c r="CD27" s="33"/>
-      <c r="CE27" s="34"/>
+      <c r="BD27" s="35"/>
+      <c r="BE27" s="36"/>
+      <c r="BF27" s="36"/>
+      <c r="BG27" s="36"/>
+      <c r="BH27" s="36"/>
+      <c r="BI27" s="36"/>
+      <c r="BJ27" s="36"/>
+      <c r="BK27" s="36"/>
+      <c r="BL27" s="36"/>
+      <c r="BM27" s="36"/>
+      <c r="BN27" s="36"/>
+      <c r="BO27" s="36"/>
+      <c r="BP27" s="36"/>
+      <c r="BQ27" s="36"/>
+      <c r="BR27" s="36"/>
+      <c r="BS27" s="36"/>
+      <c r="BT27" s="36"/>
+      <c r="BU27" s="36"/>
+      <c r="BV27" s="36"/>
+      <c r="BW27" s="36"/>
+      <c r="BX27" s="36"/>
+      <c r="BY27" s="36"/>
+      <c r="BZ27" s="36"/>
+      <c r="CA27" s="36"/>
+      <c r="CB27" s="36"/>
+      <c r="CC27" s="36"/>
+      <c r="CD27" s="36"/>
+      <c r="CE27" s="37"/>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="31">
@@ -14168,16 +14168,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
@@ -14221,34 +14221,34 @@
       <c r="BA28" s="29"/>
       <c r="BB28" s="29"/>
       <c r="BC28" s="29"/>
-      <c r="BD28" s="32"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="33"/>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
-      <c r="BI28" s="33"/>
-      <c r="BJ28" s="33"/>
-      <c r="BK28" s="33"/>
-      <c r="BL28" s="33"/>
-      <c r="BM28" s="33"/>
-      <c r="BN28" s="33"/>
-      <c r="BO28" s="33"/>
-      <c r="BP28" s="33"/>
-      <c r="BQ28" s="33"/>
-      <c r="BR28" s="33"/>
-      <c r="BS28" s="33"/>
-      <c r="BT28" s="33"/>
-      <c r="BU28" s="33"/>
-      <c r="BV28" s="33"/>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="33"/>
-      <c r="BY28" s="33"/>
-      <c r="BZ28" s="33"/>
-      <c r="CA28" s="33"/>
-      <c r="CB28" s="33"/>
-      <c r="CC28" s="33"/>
-      <c r="CD28" s="33"/>
-      <c r="CE28" s="34"/>
+      <c r="BD28" s="35"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="36"/>
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="36"/>
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="36"/>
+      <c r="BM28" s="36"/>
+      <c r="BN28" s="36"/>
+      <c r="BO28" s="36"/>
+      <c r="BP28" s="36"/>
+      <c r="BQ28" s="36"/>
+      <c r="BR28" s="36"/>
+      <c r="BS28" s="36"/>
+      <c r="BT28" s="36"/>
+      <c r="BU28" s="36"/>
+      <c r="BV28" s="36"/>
+      <c r="BW28" s="36"/>
+      <c r="BX28" s="36"/>
+      <c r="BY28" s="36"/>
+      <c r="BZ28" s="36"/>
+      <c r="CA28" s="36"/>
+      <c r="CB28" s="36"/>
+      <c r="CC28" s="36"/>
+      <c r="CD28" s="36"/>
+      <c r="CE28" s="37"/>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
@@ -14256,16 +14256,16 @@
         <v>5</v>
       </c>
       <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
@@ -14309,72 +14309,134 @@
       <c r="BA29" s="29"/>
       <c r="BB29" s="29"/>
       <c r="BC29" s="29"/>
-      <c r="BD29" s="32"/>
-      <c r="BE29" s="33"/>
-      <c r="BF29" s="33"/>
-      <c r="BG29" s="33"/>
-      <c r="BH29" s="33"/>
-      <c r="BI29" s="33"/>
-      <c r="BJ29" s="33"/>
-      <c r="BK29" s="33"/>
-      <c r="BL29" s="33"/>
-      <c r="BM29" s="33"/>
-      <c r="BN29" s="33"/>
-      <c r="BO29" s="33"/>
-      <c r="BP29" s="33"/>
-      <c r="BQ29" s="33"/>
-      <c r="BR29" s="33"/>
-      <c r="BS29" s="33"/>
-      <c r="BT29" s="33"/>
-      <c r="BU29" s="33"/>
-      <c r="BV29" s="33"/>
-      <c r="BW29" s="33"/>
-      <c r="BX29" s="33"/>
-      <c r="BY29" s="33"/>
-      <c r="BZ29" s="33"/>
-      <c r="CA29" s="33"/>
-      <c r="CB29" s="33"/>
-      <c r="CC29" s="33"/>
-      <c r="CD29" s="33"/>
-      <c r="CE29" s="34"/>
+      <c r="BD29" s="35"/>
+      <c r="BE29" s="36"/>
+      <c r="BF29" s="36"/>
+      <c r="BG29" s="36"/>
+      <c r="BH29" s="36"/>
+      <c r="BI29" s="36"/>
+      <c r="BJ29" s="36"/>
+      <c r="BK29" s="36"/>
+      <c r="BL29" s="36"/>
+      <c r="BM29" s="36"/>
+      <c r="BN29" s="36"/>
+      <c r="BO29" s="36"/>
+      <c r="BP29" s="36"/>
+      <c r="BQ29" s="36"/>
+      <c r="BR29" s="36"/>
+      <c r="BS29" s="36"/>
+      <c r="BT29" s="36"/>
+      <c r="BU29" s="36"/>
+      <c r="BV29" s="36"/>
+      <c r="BW29" s="36"/>
+      <c r="BX29" s="36"/>
+      <c r="BY29" s="36"/>
+      <c r="BZ29" s="36"/>
+      <c r="CA29" s="36"/>
+      <c r="CB29" s="36"/>
+      <c r="CC29" s="36"/>
+      <c r="CD29" s="36"/>
+      <c r="CE29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="V21:AD21"/>
+    <mergeCell ref="AE21:AM21"/>
+    <mergeCell ref="AN21:BC21"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="BD19:CE19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="V20:AD20"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AN20:BC20"/>
+    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="V18:AD18"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AN18:BC18"/>
+    <mergeCell ref="BD18:CE18"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="M29:X29"/>
+    <mergeCell ref="Y29:AJ29"/>
+    <mergeCell ref="AK29:BC29"/>
+    <mergeCell ref="BD5:CE5"/>
+    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="BD7:CE7"/>
+    <mergeCell ref="BD8:CE8"/>
+    <mergeCell ref="BD11:CE11"/>
+    <mergeCell ref="BD12:CE12"/>
+    <mergeCell ref="BD13:CE13"/>
+    <mergeCell ref="BD14:CE14"/>
+    <mergeCell ref="BD15:CE15"/>
+    <mergeCell ref="BD16:CE16"/>
+    <mergeCell ref="BD24:CE24"/>
+    <mergeCell ref="BD25:CE25"/>
+    <mergeCell ref="BD26:CE26"/>
+    <mergeCell ref="BD27:CE27"/>
+    <mergeCell ref="BD28:CE28"/>
+    <mergeCell ref="BD29:CE29"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="M28:X28"/>
+    <mergeCell ref="Y28:AJ28"/>
+    <mergeCell ref="AK28:BC28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="AK27:BC27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="Y26:AJ26"/>
+    <mergeCell ref="AK26:BC26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M25:X25"/>
+    <mergeCell ref="Y25:AJ25"/>
+    <mergeCell ref="AK25:BC25"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="M14:U14"/>
     <mergeCell ref="AK24:BC24"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="AN16:BC16"/>
@@ -14399,103 +14461,41 @@
     <mergeCell ref="AE19:AM19"/>
     <mergeCell ref="AN19:BC19"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="Y26:AJ26"/>
-    <mergeCell ref="AK26:BC26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M25:X25"/>
-    <mergeCell ref="Y25:AJ25"/>
-    <mergeCell ref="AK25:BC25"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK28:BC28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="M27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="AK27:BC27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="M29:X29"/>
-    <mergeCell ref="Y29:AJ29"/>
-    <mergeCell ref="AK29:BC29"/>
-    <mergeCell ref="BD5:CE5"/>
-    <mergeCell ref="BD6:CE6"/>
-    <mergeCell ref="BD7:CE7"/>
-    <mergeCell ref="BD8:CE8"/>
-    <mergeCell ref="BD11:CE11"/>
-    <mergeCell ref="BD12:CE12"/>
-    <mergeCell ref="BD13:CE13"/>
-    <mergeCell ref="BD14:CE14"/>
-    <mergeCell ref="BD15:CE15"/>
-    <mergeCell ref="BD16:CE16"/>
-    <mergeCell ref="BD24:CE24"/>
-    <mergeCell ref="BD25:CE25"/>
-    <mergeCell ref="BD26:CE26"/>
-    <mergeCell ref="BD27:CE27"/>
-    <mergeCell ref="BD28:CE28"/>
-    <mergeCell ref="BD29:CE29"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="M28:X28"/>
-    <mergeCell ref="Y28:AJ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="V18:AD18"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AN18:BC18"/>
-    <mergeCell ref="BD18:CE18"/>
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="V21:AD21"/>
-    <mergeCell ref="AE21:AM21"/>
-    <mergeCell ref="AN21:BC21"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="BD19:CE19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="V20:AD20"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AN20:BC20"/>
-    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14571,31 +14571,31 @@
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="41">
@@ -14613,29 +14613,29 @@
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
@@ -14653,29 +14653,29 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="41">
@@ -14693,29 +14693,29 @@
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="41">
@@ -14733,38 +14733,32 @@
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -14777,6 +14771,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
